--- a/BackTest/2019-10-05 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-05 BackTest LAMB.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>2.100000000000037</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>12.49999999999989</v>
+      </c>
       <c r="L12" t="n">
         <v>65.7</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>2.200000000000031</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>17.64705882352892</v>
+      </c>
       <c r="L13" t="n">
         <v>65.72999999999999</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>2.300000000000026</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
       <c r="L14" t="n">
         <v>65.75</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>2.500000000000028</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-17.64705882352892</v>
+      </c>
       <c r="L15" t="n">
         <v>65.72999999999999</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>2.500000000000028</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-6.666666666666162</v>
+      </c>
       <c r="L16" t="n">
         <v>65.7</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>3.000000000000028</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-52.94117647058803</v>
+      </c>
       <c r="L17" t="n">
         <v>65.64</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>3.100000000000023</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-46.6666666666659</v>
+      </c>
       <c r="L18" t="n">
         <v>65.53999999999999</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>3.100000000000023</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-69.23076923076873</v>
+      </c>
       <c r="L19" t="n">
         <v>65.47</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>3.100000000000023</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-83.33333333333412</v>
+      </c>
       <c r="L20" t="n">
         <v>65.38</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>3.700000000000031</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-87.50000000000067</v>
+      </c>
       <c r="L21" t="n">
         <v>65.22</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>4.200000000000031</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-50</v>
+      </c>
       <c r="L22" t="n">
         <v>65.12999999999998</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>4.300000000000026</v>
       </c>
       <c r="K23" t="n">
-        <v>-21.05263157894715</v>
+        <v>-50</v>
       </c>
       <c r="L23" t="n">
         <v>65.02</v>
@@ -1466,7 +1488,7 @@
         <v>4.40000000000002</v>
       </c>
       <c r="K24" t="n">
-        <v>-17.94871794871793</v>
+        <v>-36.84210526315821</v>
       </c>
       <c r="L24" t="n">
         <v>64.92999999999998</v>
@@ -1515,7 +1537,7 @@
         <v>4.500000000000014</v>
       </c>
       <c r="K25" t="n">
-        <v>-26.31578947368413</v>
+        <v>-40.00000000000014</v>
       </c>
       <c r="L25" t="n">
         <v>64.84999999999999</v>
@@ -1564,7 +1586,7 @@
         <v>4.600000000000023</v>
       </c>
       <c r="K26" t="n">
-        <v>-31.57894736842091</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L26" t="n">
         <v>64.75999999999999</v>
@@ -1613,7 +1635,7 @@
         <v>5.100000000000023</v>
       </c>
       <c r="K27" t="n">
-        <v>-12.19512195121944</v>
+        <v>9.999999999999432</v>
       </c>
       <c r="L27" t="n">
         <v>64.77</v>
@@ -1662,7 +1684,7 @@
         <v>5.300000000000026</v>
       </c>
       <c r="K28" t="n">
-        <v>-15.00000000000016</v>
+        <v>18.18181818181777</v>
       </c>
       <c r="L28" t="n">
         <v>64.80999999999999</v>
@@ -1711,7 +1733,7 @@
         <v>5.40000000000002</v>
       </c>
       <c r="K29" t="n">
-        <v>-10.52631578947347</v>
+        <v>13.04347826086946</v>
       </c>
       <c r="L29" t="n">
         <v>64.84</v>
@@ -1760,7 +1782,7 @@
         <v>5.600000000000023</v>
       </c>
       <c r="K30" t="n">
-        <v>-21.05263157894731</v>
+        <v>36.84210526315821</v>
       </c>
       <c r="L30" t="n">
         <v>64.84999999999999</v>
@@ -1809,7 +1831,7 @@
         <v>5.700000000000017</v>
       </c>
       <c r="K31" t="n">
-        <v>-21.05263157894776</v>
+        <v>20</v>
       </c>
       <c r="L31" t="n">
         <v>64.93000000000001</v>
@@ -1860,7 +1882,7 @@
         <v>5.800000000000011</v>
       </c>
       <c r="K32" t="n">
-        <v>-18.91891891891913</v>
+        <v>20</v>
       </c>
       <c r="L32" t="n">
         <v>64.95000000000002</v>
@@ -1911,7 +1933,7 @@
         <v>5.900000000000006</v>
       </c>
       <c r="K33" t="n">
-        <v>-18.91891891891913</v>
+        <v>20</v>
       </c>
       <c r="L33" t="n">
         <v>64.99000000000001</v>
@@ -1962,7 +1984,7 @@
         <v>5.900000000000006</v>
       </c>
       <c r="K34" t="n">
-        <v>-16.66666666666699</v>
+        <v>28.57142857142814</v>
       </c>
       <c r="L34" t="n">
         <v>65.02000000000001</v>
@@ -2013,7 +2035,7 @@
         <v>6</v>
       </c>
       <c r="K35" t="n">
-        <v>-14.2857142857144</v>
+        <v>28.57142857142944</v>
       </c>
       <c r="L35" t="n">
         <v>65.05000000000001</v>
@@ -2064,7 +2086,7 @@
         <v>6</v>
       </c>
       <c r="K36" t="n">
-        <v>-14.2857142857144</v>
+        <v>-11.11111111111076</v>
       </c>
       <c r="L36" t="n">
         <v>65.09</v>
@@ -2115,7 +2137,7 @@
         <v>6.5</v>
       </c>
       <c r="K37" t="n">
-        <v>14.2857142857144</v>
+        <v>16.66666666666726</v>
       </c>
       <c r="L37" t="n">
         <v>65.13000000000001</v>
@@ -2166,7 +2188,7 @@
         <v>6.5</v>
       </c>
       <c r="K38" t="n">
-        <v>17.64705882352936</v>
+        <v>27.27272727272751</v>
       </c>
       <c r="L38" t="n">
         <v>65.15000000000001</v>
@@ -2217,7 +2239,7 @@
         <v>6.799999999999997</v>
       </c>
       <c r="K39" t="n">
-        <v>8.108108108108087</v>
+        <v>16.66666666666726</v>
       </c>
       <c r="L39" t="n">
         <v>65.15000000000001</v>
@@ -2268,7 +2290,7 @@
         <v>7</v>
       </c>
       <c r="K40" t="n">
-        <v>2.564102564102433</v>
+        <v>-7.692307692307356</v>
       </c>
       <c r="L40" t="n">
         <v>65.15000000000001</v>
@@ -2319,7 +2341,7 @@
         <v>7</v>
       </c>
       <c r="K41" t="n">
-        <v>21.2121212121215</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>65.14000000000001</v>
@@ -2370,7 +2392,7 @@
         <v>7</v>
       </c>
       <c r="K42" t="n">
-        <v>7.142857142857324</v>
+        <v>-9.090909090908621</v>
       </c>
       <c r="L42" t="n">
         <v>65.14000000000001</v>
@@ -2421,7 +2443,7 @@
         <v>7.5</v>
       </c>
       <c r="K43" t="n">
-        <v>25.00000000000011</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L43" t="n">
         <v>65.18000000000001</v>
@@ -2472,7 +2494,7 @@
         <v>8.400000000000006</v>
       </c>
       <c r="K44" t="n">
-        <v>-5.000000000000089</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L44" t="n">
         <v>65.13000000000001</v>
@@ -2523,7 +2545,7 @@
         <v>8.700000000000017</v>
       </c>
       <c r="K45" t="n">
-        <v>4.761904761904826</v>
+        <v>-3.70370370370347</v>
       </c>
       <c r="L45" t="n">
         <v>65.12</v>
@@ -2574,7 +2596,7 @@
         <v>8.800000000000026</v>
       </c>
       <c r="K46" t="n">
-        <v>4.761904761904826</v>
+        <v>-30.43478260869544</v>
       </c>
       <c r="L46" t="n">
         <v>65.09999999999999</v>
@@ -2625,7 +2647,7 @@
         <v>9.100000000000023</v>
       </c>
       <c r="K47" t="n">
-        <v>-14.99999999999986</v>
+        <v>-38.46153846153813</v>
       </c>
       <c r="L47" t="n">
         <v>65</v>
@@ -2676,7 +2698,7 @@
         <v>9.40000000000002</v>
       </c>
       <c r="K48" t="n">
-        <v>-12.19512195121953</v>
+        <v>-15.38461538461547</v>
       </c>
       <c r="L48" t="n">
         <v>64.92999999999999</v>
@@ -2727,7 +2749,7 @@
         <v>9.800000000000011</v>
       </c>
       <c r="K49" t="n">
-        <v>-18.18181818181815</v>
+        <v>-21.42857142857114</v>
       </c>
       <c r="L49" t="n">
         <v>64.84999999999999</v>
@@ -2778,7 +2800,7 @@
         <v>10.10000000000002</v>
       </c>
       <c r="K50" t="n">
-        <v>-20.00000000000012</v>
+        <v>-29.0322580645161</v>
       </c>
       <c r="L50" t="n">
         <v>64.75999999999999</v>
@@ -2829,7 +2851,7 @@
         <v>10.10000000000002</v>
       </c>
       <c r="K51" t="n">
-        <v>-22.7272727272727</v>
+        <v>-29.0322580645161</v>
       </c>
       <c r="L51" t="n">
         <v>64.66999999999999</v>
@@ -2880,7 +2902,7 @@
         <v>10.20000000000003</v>
       </c>
       <c r="K52" t="n">
-        <v>-18.18181818181803</v>
+        <v>-48.14814814814748</v>
       </c>
       <c r="L52" t="n">
         <v>64.59</v>
@@ -2931,7 +2953,7 @@
         <v>10.20000000000003</v>
       </c>
       <c r="K53" t="n">
-        <v>-20.93023255813921</v>
+        <v>-22.22222222222143</v>
       </c>
       <c r="L53" t="n">
         <v>64.46000000000001</v>
@@ -2982,7 +3004,7 @@
         <v>10.20000000000003</v>
       </c>
       <c r="K54" t="n">
-        <v>-20.93023255813921</v>
+        <v>-46.66666666666642</v>
       </c>
       <c r="L54" t="n">
         <v>64.42</v>
@@ -3033,7 +3055,7 @@
         <v>10.30000000000004</v>
       </c>
       <c r="K55" t="n">
-        <v>-20.93023255813947</v>
+        <v>-46.66666666666642</v>
       </c>
       <c r="L55" t="n">
         <v>64.34</v>
@@ -3084,7 +3106,7 @@
         <v>10.50000000000004</v>
       </c>
       <c r="K56" t="n">
-        <v>-15.55555555555547</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L56" t="n">
         <v>64.29000000000001</v>
@@ -3135,7 +3157,7 @@
         <v>10.50000000000004</v>
       </c>
       <c r="K57" t="n">
-        <v>-29.99999999999975</v>
+        <v>-45.45454545454452</v>
       </c>
       <c r="L57" t="n">
         <v>64.27000000000001</v>
@@ -3186,7 +3208,7 @@
         <v>10.60000000000005</v>
       </c>
       <c r="K58" t="n">
-        <v>-26.82926829268245</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>64.23</v>
@@ -3237,7 +3259,7 @@
         <v>10.60000000000005</v>
       </c>
       <c r="K59" t="n">
-        <v>-21.052631578947</v>
+        <v>59.99999999999886</v>
       </c>
       <c r="L59" t="n">
         <v>64.23</v>
@@ -3288,7 +3310,7 @@
         <v>11.00000000000006</v>
       </c>
       <c r="K60" t="n">
-        <v>-24.99999999999964</v>
+        <v>-11.11111111111006</v>
       </c>
       <c r="L60" t="n">
         <v>64.22</v>
@@ -3339,7 +3361,7 @@
         <v>11.40000000000006</v>
       </c>
       <c r="K61" t="n">
-        <v>-13.63636363636331</v>
+        <v>16.66666666666647</v>
       </c>
       <c r="L61" t="n">
         <v>64.25</v>
@@ -3390,7 +3412,7 @@
         <v>11.40000000000006</v>
       </c>
       <c r="K62" t="n">
-        <v>-13.63636363636331</v>
+        <v>16.66666666666647</v>
       </c>
       <c r="L62" t="n">
         <v>64.27</v>
@@ -3441,7 +3463,7 @@
         <v>11.40000000000006</v>
       </c>
       <c r="K63" t="n">
-        <v>-28.2051282051276</v>
+        <v>16.66666666666647</v>
       </c>
       <c r="L63" t="n">
         <v>64.28999999999999</v>
@@ -3492,7 +3514,7 @@
         <v>11.60000000000007</v>
       </c>
       <c r="K64" t="n">
-        <v>-12.4999999999995</v>
+        <v>7.692307692308196</v>
       </c>
       <c r="L64" t="n">
         <v>64.28999999999999</v>
@@ -3543,7 +3565,7 @@
         <v>11.70000000000006</v>
       </c>
       <c r="K65" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>64.30999999999997</v>
@@ -3594,7 +3616,7 @@
         <v>11.80000000000005</v>
       </c>
       <c r="K66" t="n">
-        <v>-19.99999999999962</v>
+        <v>-7.692307692307187</v>
       </c>
       <c r="L66" t="n">
         <v>64.29999999999998</v>
@@ -3645,7 +3667,7 @@
         <v>12.00000000000006</v>
       </c>
       <c r="K67" t="n">
-        <v>-3.448275862068729</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>64.30999999999999</v>
@@ -3696,7 +3718,7 @@
         <v>12.20000000000006</v>
       </c>
       <c r="K68" t="n">
-        <v>-21.42857142857092</v>
+        <v>-12.50000000000011</v>
       </c>
       <c r="L68" t="n">
         <v>64.28999999999999</v>
@@ -3747,7 +3769,7 @@
         <v>12.30000000000007</v>
       </c>
       <c r="K69" t="n">
-        <v>-12.00000000000018</v>
+        <v>7.692307692307187</v>
       </c>
       <c r="L69" t="n">
         <v>64.26000000000001</v>
@@ -3798,7 +3820,7 @@
         <v>12.40000000000006</v>
       </c>
       <c r="K70" t="n">
-        <v>-4.3478260869562</v>
+        <v>-40.00000000000057</v>
       </c>
       <c r="L70" t="n">
         <v>64.26000000000001</v>
@@ -3849,7 +3871,7 @@
         <v>12.40000000000006</v>
       </c>
       <c r="K71" t="n">
-        <v>-4.3478260869562</v>
+        <v>-40.00000000000057</v>
       </c>
       <c r="L71" t="n">
         <v>64.22</v>
@@ -3900,7 +3922,7 @@
         <v>12.40000000000006</v>
       </c>
       <c r="K72" t="n">
-        <v>-9.090909090909092</v>
+        <v>-40.00000000000057</v>
       </c>
       <c r="L72" t="n">
         <v>64.18000000000001</v>
@@ -3951,7 +3973,7 @@
         <v>12.40000000000006</v>
       </c>
       <c r="K73" t="n">
-        <v>-9.090909090909092</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L73" t="n">
         <v>64.14000000000001</v>
@@ -4002,7 +4024,7 @@
         <v>12.70000000000006</v>
       </c>
       <c r="K74" t="n">
-        <v>-19.99999999999977</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="L74" t="n">
         <v>64.09</v>
@@ -4053,7 +4075,7 @@
         <v>13.00000000000006</v>
       </c>
       <c r="K75" t="n">
-        <v>-3.70370370370347</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L75" t="n">
         <v>64.06000000000002</v>
@@ -4104,7 +4126,7 @@
         <v>13.10000000000006</v>
       </c>
       <c r="K76" t="n">
-        <v>-15.38461538461524</v>
+        <v>-45.45454545454604</v>
       </c>
       <c r="L76" t="n">
         <v>64.03</v>
@@ -4155,7 +4177,7 @@
         <v>13.50000000000006</v>
       </c>
       <c r="K77" t="n">
-        <v>-26.66666666666644</v>
+        <v>-53.84615384615419</v>
       </c>
       <c r="L77" t="n">
         <v>63.94000000000001</v>
@@ -4206,7 +4228,7 @@
         <v>13.80000000000005</v>
       </c>
       <c r="K78" t="n">
-        <v>-18.75000000000025</v>
+        <v>-20</v>
       </c>
       <c r="L78" t="n">
         <v>63.9</v>
@@ -4257,7 +4279,7 @@
         <v>14.00000000000005</v>
       </c>
       <c r="K79" t="n">
-        <v>-23.52941176470602</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="L79" t="n">
         <v>63.85</v>
@@ -4308,7 +4330,7 @@
         <v>14.70000000000005</v>
       </c>
       <c r="K80" t="n">
-        <v>8.108108108108055</v>
+        <v>13.04347826086954</v>
       </c>
       <c r="L80" t="n">
         <v>63.88</v>
@@ -4359,7 +4381,7 @@
         <v>15.90000000000005</v>
       </c>
       <c r="K81" t="n">
-        <v>24.4444444444444</v>
+        <v>42.85714285714303</v>
       </c>
       <c r="L81" t="n">
         <v>64.03</v>
@@ -4410,7 +4432,7 @@
         <v>16.60000000000005</v>
       </c>
       <c r="K82" t="n">
-        <v>7.692307692307546</v>
+        <v>19.04761904761903</v>
       </c>
       <c r="L82" t="n">
         <v>64.10999999999999</v>
@@ -4461,7 +4483,7 @@
         <v>17.40000000000005</v>
       </c>
       <c r="K83" t="n">
-        <v>19.99999999999986</v>
+        <v>40.42553191489353</v>
       </c>
       <c r="L83" t="n">
         <v>64.27</v>
@@ -4512,7 +4534,7 @@
         <v>17.40000000000005</v>
       </c>
       <c r="K84" t="n">
-        <v>24.13793103448268</v>
+        <v>36.3636363636363</v>
       </c>
       <c r="L84" t="n">
         <v>64.45999999999999</v>
@@ -4563,7 +4585,7 @@
         <v>18.20000000000005</v>
       </c>
       <c r="K85" t="n">
-        <v>7.692307692307709</v>
+        <v>17.64705882352943</v>
       </c>
       <c r="L85" t="n">
         <v>64.53999999999999</v>
@@ -4614,7 +4636,7 @@
         <v>18.50000000000004</v>
       </c>
       <c r="K86" t="n">
-        <v>13.43283582089542</v>
+        <v>31.99999999999998</v>
       </c>
       <c r="L86" t="n">
         <v>64.66</v>
@@ -4665,7 +4687,7 @@
         <v>18.80000000000005</v>
       </c>
       <c r="K87" t="n">
-        <v>14.70588235294118</v>
+        <v>32.00000000000017</v>
       </c>
       <c r="L87" t="n">
         <v>64.84999999999999</v>
@@ -4716,7 +4738,7 @@
         <v>18.80000000000005</v>
       </c>
       <c r="K88" t="n">
-        <v>18.18181818181824</v>
+        <v>37.50000000000006</v>
       </c>
       <c r="L88" t="n">
         <v>65.00999999999999</v>
@@ -4767,7 +4789,7 @@
         <v>18.90000000000006</v>
       </c>
       <c r="K89" t="n">
-        <v>18.18181818181824</v>
+        <v>23.80952380952371</v>
       </c>
       <c r="L89" t="n">
         <v>65.17999999999998</v>
@@ -4818,7 +4840,7 @@
         <v>19.40000000000006</v>
       </c>
       <c r="K90" t="n">
-        <v>25.71428571428567</v>
+        <v>8.571428571428456</v>
       </c>
       <c r="L90" t="n">
         <v>65.32999999999998</v>
@@ -4869,7 +4891,7 @@
         <v>19.80000000000005</v>
       </c>
       <c r="K91" t="n">
-        <v>18.91891891891902</v>
+        <v>18.75000000000025</v>
       </c>
       <c r="L91" t="n">
         <v>65.31999999999998</v>
@@ -4920,7 +4942,7 @@
         <v>19.90000000000006</v>
       </c>
       <c r="K92" t="n">
-        <v>17.3333333333333</v>
+        <v>-11.99999999999982</v>
       </c>
       <c r="L92" t="n">
         <v>65.36999999999998</v>
@@ -4971,7 +4993,7 @@
         <v>20.50000000000006</v>
       </c>
       <c r="K93" t="n">
-        <v>8.641975308642017</v>
+        <v>-29.03225806451578</v>
       </c>
       <c r="L93" t="n">
         <v>65.27999999999999</v>
@@ -5022,7 +5044,7 @@
         <v>21.30000000000005</v>
       </c>
       <c r="K94" t="n">
-        <v>20.93023255813952</v>
+        <v>22.58064516129035</v>
       </c>
       <c r="L94" t="n">
         <v>65.26999999999998</v>
@@ -5073,7 +5095,7 @@
         <v>21.40000000000005</v>
       </c>
       <c r="K95" t="n">
-        <v>16.66666666666675</v>
+        <v>10.34482758620727</v>
       </c>
       <c r="L95" t="n">
         <v>65.32999999999998</v>
@@ -5124,7 +5146,7 @@
         <v>21.40000000000005</v>
       </c>
       <c r="K96" t="n">
-        <v>18.07228915662661</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>65.35999999999999</v>
@@ -5175,7 +5197,7 @@
         <v>22.20000000000006</v>
       </c>
       <c r="K97" t="n">
-        <v>12.64367816091947</v>
+        <v>-23.52941176470618</v>
       </c>
       <c r="L97" t="n">
         <v>65.27999999999999</v>
@@ -5226,7 +5248,7 @@
         <v>22.40000000000006</v>
       </c>
       <c r="K98" t="n">
-        <v>11.62790697674417</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L98" t="n">
         <v>65.21999999999998</v>
@@ -5277,7 +5299,7 @@
         <v>22.80000000000007</v>
       </c>
       <c r="K99" t="n">
-        <v>18.18181818181816</v>
+        <v>-17.64705882352921</v>
       </c>
       <c r="L99" t="n">
         <v>65.20999999999999</v>
@@ -5328,7 +5350,7 @@
         <v>22.90000000000008</v>
       </c>
       <c r="K100" t="n">
-        <v>9.756097560975538</v>
+        <v>-9.677419354839005</v>
       </c>
       <c r="L100" t="n">
         <v>65.14</v>
@@ -5379,7 +5401,7 @@
         <v>23.60000000000008</v>
       </c>
       <c r="K101" t="n">
-        <v>3.896103896103843</v>
+        <v>13.51351351351345</v>
       </c>
       <c r="L101" t="n">
         <v>65.17999999999999</v>
@@ -5430,7 +5452,7 @@
         <v>24.40000000000008</v>
       </c>
       <c r="K102" t="n">
-        <v>2.564102564102592</v>
+        <v>7.692307692307581</v>
       </c>
       <c r="L102" t="n">
         <v>65.15000000000001</v>
@@ -5481,7 +5503,7 @@
         <v>25.00000000000007</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>2.702702702702537</v>
       </c>
       <c r="L103" t="n">
         <v>65.23999999999999</v>
@@ -5532,7 +5554,7 @@
         <v>25.70000000000006</v>
       </c>
       <c r="K104" t="n">
-        <v>-8.433734939758887</v>
+        <v>-11.62790697674416</v>
       </c>
       <c r="L104" t="n">
         <v>65.17999999999999</v>
@@ -5583,7 +5605,7 @@
         <v>25.90000000000005</v>
       </c>
       <c r="K105" t="n">
-        <v>3.896103896103858</v>
+        <v>-6.666666666666919</v>
       </c>
       <c r="L105" t="n">
         <v>65.15000000000001</v>
@@ -5634,7 +5656,7 @@
         <v>26.20000000000006</v>
       </c>
       <c r="K106" t="n">
-        <v>3.896103896104035</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L106" t="n">
         <v>65.15000000000001</v>
@@ -5685,7 +5707,7 @@
         <v>26.50000000000006</v>
       </c>
       <c r="K107" t="n">
-        <v>3.896103896103858</v>
+        <v>21.95121951219529</v>
       </c>
       <c r="L107" t="n">
         <v>65.26000000000001</v>
@@ -5736,7 +5758,7 @@
         <v>26.50000000000006</v>
       </c>
       <c r="K108" t="n">
-        <v>3.896103896103858</v>
+        <v>13.51351351351356</v>
       </c>
       <c r="L108" t="n">
         <v>65.35000000000001</v>
@@ -5787,7 +5809,7 @@
         <v>26.50000000000006</v>
       </c>
       <c r="K109" t="n">
-        <v>5.263157894736921</v>
+        <v>16.66666666666699</v>
       </c>
       <c r="L109" t="n">
         <v>65.40000000000001</v>
@@ -5838,7 +5860,7 @@
         <v>26.60000000000007</v>
       </c>
       <c r="K110" t="n">
-        <v>-2.777777777777816</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L110" t="n">
         <v>65.45000000000002</v>
@@ -5889,7 +5911,7 @@
         <v>26.70000000000007</v>
       </c>
       <c r="K111" t="n">
-        <v>4.347826086956468</v>
+        <v>30.43478260869582</v>
       </c>
       <c r="L111" t="n">
         <v>65.44000000000003</v>
@@ -5940,7 +5962,7 @@
         <v>26.80000000000007</v>
       </c>
       <c r="K112" t="n">
-        <v>7.246376811594198</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L112" t="n">
         <v>65.52000000000001</v>
@@ -5991,7 +6013,7 @@
         <v>27.20000000000007</v>
       </c>
       <c r="K113" t="n">
-        <v>22.38805970149248</v>
+        <v>86.66666666666566</v>
       </c>
       <c r="L113" t="n">
         <v>65.58000000000001</v>
@@ -6042,7 +6064,7 @@
         <v>27.30000000000007</v>
       </c>
       <c r="K114" t="n">
-        <v>13.33333333333326</v>
+        <v>85.7142857142847</v>
       </c>
       <c r="L114" t="n">
         <v>65.72000000000001</v>
@@ -6093,7 +6115,7 @@
         <v>27.80000000000007</v>
       </c>
       <c r="K115" t="n">
-        <v>21.8749999999998</v>
+        <v>87.49999999999901</v>
       </c>
       <c r="L115" t="n">
         <v>65.89000000000001</v>
@@ -6144,7 +6166,7 @@
         <v>28.00000000000007</v>
       </c>
       <c r="K116" t="n">
-        <v>24.24242424242408</v>
+        <v>86.66666666666566</v>
       </c>
       <c r="L116" t="n">
         <v>66.05000000000001</v>
@@ -6195,7 +6217,7 @@
         <v>28.10000000000007</v>
       </c>
       <c r="K117" t="n">
-        <v>42.37288135593217</v>
+        <v>87.49999999999901</v>
       </c>
       <c r="L117" t="n">
         <v>66.19000000000001</v>
@@ -6246,7 +6268,7 @@
         <v>28.20000000000007</v>
       </c>
       <c r="K118" t="n">
-        <v>41.3793103448276</v>
+        <v>88.23529411764618</v>
       </c>
       <c r="L118" t="n">
         <v>66.34</v>
@@ -6297,7 +6319,7 @@
         <v>28.20000000000007</v>
       </c>
       <c r="K119" t="n">
-        <v>37.037037037037</v>
+        <v>100</v>
       </c>
       <c r="L119" t="n">
         <v>66.49000000000001</v>
@@ -6348,7 +6370,7 @@
         <v>28.20000000000007</v>
       </c>
       <c r="K120" t="n">
-        <v>39.62264150943414</v>
+        <v>100</v>
       </c>
       <c r="L120" t="n">
         <v>66.65000000000001</v>
@@ -6399,7 +6421,7 @@
         <v>28.50000000000007</v>
       </c>
       <c r="K121" t="n">
-        <v>22.44897959183695</v>
+        <v>64.70588235294157</v>
       </c>
       <c r="L121" t="n">
         <v>66.77000000000001</v>
@@ -6450,7 +6472,7 @@
         <v>29.10000000000007</v>
       </c>
       <c r="K122" t="n">
-        <v>53.19148936170226</v>
+        <v>68.4210526315791</v>
       </c>
       <c r="L122" t="n">
         <v>66.94000000000001</v>
@@ -6501,7 +6523,7 @@
         <v>29.40000000000006</v>
       </c>
       <c r="K123" t="n">
-        <v>50.00000000000016</v>
+        <v>71.42857142857162</v>
       </c>
       <c r="L123" t="n">
         <v>67.09999999999999</v>
@@ -6552,7 +6574,7 @@
         <v>29.40000000000006</v>
       </c>
       <c r="K124" t="n">
-        <v>78.37837837837809</v>
+        <v>62.50000000000022</v>
       </c>
       <c r="L124" t="n">
         <v>67.25</v>
@@ -6603,7 +6625,7 @@
         <v>29.40000000000006</v>
       </c>
       <c r="K125" t="n">
-        <v>77.14285714285691</v>
+        <v>57.14285714285728</v>
       </c>
       <c r="L125" t="n">
         <v>67.34999999999999</v>
@@ -6654,7 +6676,7 @@
         <v>30.00000000000007</v>
       </c>
       <c r="K126" t="n">
-        <v>78.9473684210524</v>
+        <v>68.42105263157934</v>
       </c>
       <c r="L126" t="n">
         <v>67.48999999999999</v>
@@ -6705,7 +6727,7 @@
         <v>30.00000000000007</v>
       </c>
       <c r="K127" t="n">
-        <v>77.14285714285691</v>
+        <v>66.66666666666693</v>
       </c>
       <c r="L127" t="n">
         <v>67.61999999999999</v>
@@ -6756,7 +6778,7 @@
         <v>30.40000000000006</v>
       </c>
       <c r="K128" t="n">
-        <v>79.48717948717923</v>
+        <v>72.72727272727283</v>
       </c>
       <c r="L128" t="n">
         <v>67.77999999999999</v>
@@ -6807,7 +6829,7 @@
         <v>30.80000000000007</v>
       </c>
       <c r="K129" t="n">
-        <v>81.3953488372091</v>
+        <v>76.92307692307709</v>
       </c>
       <c r="L129" t="n">
         <v>67.97999999999999</v>
@@ -6858,7 +6880,7 @@
         <v>30.90000000000008</v>
       </c>
       <c r="K130" t="n">
-        <v>81.3953488372091</v>
+        <v>91.66666666666598</v>
       </c>
       <c r="L130" t="n">
         <v>68.16999999999999</v>
@@ -6909,7 +6931,7 @@
         <v>31.00000000000009</v>
       </c>
       <c r="K131" t="n">
-        <v>81.3953488372091</v>
+        <v>89.47368421052553</v>
       </c>
       <c r="L131" t="n">
         <v>68.39999999999999</v>
@@ -6960,7 +6982,7 @@
         <v>31.40000000000008</v>
       </c>
       <c r="K132" t="n">
-        <v>82.60869565217371</v>
+        <v>89.99999999999922</v>
       </c>
       <c r="L132" t="n">
         <v>68.60999999999999</v>
@@ -7011,7 +7033,7 @@
         <v>32.30000000000008</v>
       </c>
       <c r="K133" t="n">
-        <v>84.31372549019588</v>
+        <v>93.10344827586154</v>
       </c>
       <c r="L133" t="n">
         <v>68.88</v>
@@ -7062,7 +7084,7 @@
         <v>33.40000000000008</v>
       </c>
       <c r="K134" t="n">
-        <v>50.81967213114761</v>
+        <v>40.00000000000007</v>
       </c>
       <c r="L134" t="n">
         <v>69.03999999999999</v>
@@ -7113,7 +7135,7 @@
         <v>33.90000000000008</v>
       </c>
       <c r="K135" t="n">
-        <v>34.42622950819681</v>
+        <v>12.8205128205128</v>
       </c>
       <c r="L135" t="n">
         <v>69.15000000000001</v>
@@ -7164,7 +7186,7 @@
         <v>33.90000000000008</v>
       </c>
       <c r="K136" t="n">
-        <v>32.20338983050854</v>
+        <v>12.8205128205128</v>
       </c>
       <c r="L136" t="n">
         <v>69.2</v>
@@ -7215,7 +7237,7 @@
         <v>34.40000000000008</v>
       </c>
       <c r="K137" t="n">
-        <v>20.63492063492078</v>
+        <v>-9.999999999999751</v>
       </c>
       <c r="L137" t="n">
         <v>69.2</v>
@@ -7266,7 +7288,7 @@
         <v>34.70000000000009</v>
       </c>
       <c r="K138" t="n">
-        <v>13.84615384615369</v>
+        <v>-28.20512820512828</v>
       </c>
       <c r="L138" t="n">
         <v>69.13000000000001</v>
@@ -7317,7 +7339,7 @@
         <v>34.8000000000001</v>
       </c>
       <c r="K139" t="n">
-        <v>15.1515151515151</v>
+        <v>-23.07692307692274</v>
       </c>
       <c r="L139" t="n">
         <v>69.03</v>
@@ -7368,7 +7390,7 @@
         <v>35.10000000000009</v>
       </c>
       <c r="K140" t="n">
-        <v>18.84057971014483</v>
+        <v>-17.07317073170735</v>
       </c>
       <c r="L140" t="n">
         <v>68.97</v>
@@ -7419,7 +7441,7 @@
         <v>35.10000000000009</v>
       </c>
       <c r="K141" t="n">
-        <v>24.24242424242408</v>
+        <v>-29.72972972972944</v>
       </c>
       <c r="L141" t="n">
         <v>68.90000000000001</v>
@@ -7470,7 +7492,7 @@
         <v>36.0000000000001</v>
       </c>
       <c r="K142" t="n">
-        <v>27.53623188405792</v>
+        <v>-29.72972972972944</v>
       </c>
       <c r="L142" t="n">
         <v>68.88</v>
@@ -7521,7 +7543,7 @@
         <v>37.10000000000011</v>
       </c>
       <c r="K143" t="n">
-        <v>6.493506493506455</v>
+        <v>-29.72972972972971</v>
       </c>
       <c r="L143" t="n">
         <v>68.66</v>
@@ -7572,7 +7594,7 @@
         <v>37.30000000000011</v>
       </c>
       <c r="K144" t="n">
-        <v>3.797468354430321</v>
+        <v>-23.52941176470598</v>
       </c>
       <c r="L144" t="n">
         <v>68.53</v>
@@ -7623,7 +7645,7 @@
         <v>37.80000000000011</v>
       </c>
       <c r="K145" t="n">
-        <v>9.523809523809437</v>
+        <v>-7.692307692307916</v>
       </c>
       <c r="L145" t="n">
         <v>68.5</v>
@@ -7674,7 +7696,7 @@
         <v>37.90000000000011</v>
       </c>
       <c r="K146" t="n">
-        <v>1.265822784810049</v>
+        <v>2.857142857142672</v>
       </c>
       <c r="L146" t="n">
         <v>68.46000000000001</v>
@@ -7725,7 +7747,7 @@
         <v>37.90000000000011</v>
       </c>
       <c r="K147" t="n">
-        <v>1.265822784810049</v>
+        <v>12.50000000000011</v>
       </c>
       <c r="L147" t="n">
         <v>68.47</v>
@@ -7776,7 +7798,7 @@
         <v>37.90000000000011</v>
       </c>
       <c r="K148" t="n">
-        <v>-3.999999999999939</v>
+        <v>9.677419354838591</v>
       </c>
       <c r="L148" t="n">
         <v>68.51000000000001</v>
@@ -7827,7 +7849,7 @@
         <v>38.40000000000011</v>
       </c>
       <c r="K149" t="n">
-        <v>-15.78947368421049</v>
+        <v>-15.1515151515151</v>
       </c>
       <c r="L149" t="n">
         <v>68.48999999999999</v>
@@ -7878,7 +7900,7 @@
         <v>38.40000000000011</v>
       </c>
       <c r="K150" t="n">
-        <v>-14.66666666666654</v>
+        <v>-15.1515151515151</v>
       </c>
       <c r="L150" t="n">
         <v>68.44</v>
@@ -7929,7 +7951,7 @@
         <v>38.90000000000011</v>
       </c>
       <c r="K151" t="n">
-        <v>-8.8607594936709</v>
+        <v>-31.03448275862083</v>
       </c>
       <c r="L151" t="n">
         <v>68.44</v>
@@ -7980,7 +8002,7 @@
         <v>39.10000000000011</v>
       </c>
       <c r="K152" t="n">
-        <v>-16.88311688311678</v>
+        <v>0</v>
       </c>
       <c r="L152" t="n">
         <v>68.33</v>
@@ -8031,7 +8053,7 @@
         <v>39.40000000000011</v>
       </c>
       <c r="K153" t="n">
-        <v>-26.76056338028168</v>
+        <v>23.80952380952387</v>
       </c>
       <c r="L153" t="n">
         <v>68.36</v>
@@ -8082,7 +8104,7 @@
         <v>39.60000000000009</v>
       </c>
       <c r="K154" t="n">
-        <v>-16.12903225806447</v>
+        <v>-11.11111111111058</v>
       </c>
       <c r="L154" t="n">
         <v>68.39</v>
@@ -8133,7 +8155,7 @@
         <v>39.70000000000009</v>
       </c>
       <c r="K155" t="n">
-        <v>-6.896551724138016</v>
+        <v>0</v>
       </c>
       <c r="L155" t="n">
         <v>68.38</v>
@@ -8184,7 +8206,7 @@
         <v>39.80000000000008</v>
       </c>
       <c r="K156" t="n">
-        <v>-8.474576271186432</v>
+        <v>-5.263157894736606</v>
       </c>
       <c r="L156" t="n">
         <v>68.36999999999999</v>
@@ -8235,7 +8257,7 @@
         <v>39.80000000000008</v>
       </c>
       <c r="K157" t="n">
-        <v>0</v>
+        <v>-5.263157894736606</v>
       </c>
       <c r="L157" t="n">
         <v>68.35999999999999</v>
@@ -8286,7 +8308,7 @@
         <v>40.40000000000009</v>
       </c>
       <c r="K158" t="n">
-        <v>-5.26315789473679</v>
+        <v>-10.00000000000021</v>
       </c>
       <c r="L158" t="n">
         <v>68.28999999999999</v>
@@ -8337,7 +8359,7 @@
         <v>40.70000000000009</v>
       </c>
       <c r="K159" t="n">
-        <v>-1.694915254237435</v>
+        <v>4.347826086956307</v>
       </c>
       <c r="L159" t="n">
         <v>68.29999999999998</v>
@@ -8388,7 +8410,7 @@
         <v>41.0000000000001</v>
       </c>
       <c r="K160" t="n">
-        <v>-1.69491525423719</v>
+        <v>-4.761904761904504</v>
       </c>
       <c r="L160" t="n">
         <v>68.33999999999999</v>
@@ -8439,7 +8461,7 @@
         <v>41.0000000000001</v>
       </c>
       <c r="K161" t="n">
-        <v>-1.69491525423719</v>
+        <v>5.263157894737314</v>
       </c>
       <c r="L161" t="n">
         <v>68.32999999999998</v>
@@ -8490,7 +8512,7 @@
         <v>41.0000000000001</v>
       </c>
       <c r="K162" t="n">
-        <v>-20</v>
+        <v>-12.49999999999933</v>
       </c>
       <c r="L162" t="n">
         <v>68.33999999999999</v>
@@ -8541,7 +8563,7 @@
         <v>41.0000000000001</v>
       </c>
       <c r="K163" t="n">
-        <v>2.564102564102789</v>
+        <v>0</v>
       </c>
       <c r="L163" t="n">
         <v>68.31999999999998</v>
@@ -8592,7 +8614,7 @@
         <v>41.0000000000001</v>
       </c>
       <c r="K164" t="n">
-        <v>8.108108108108441</v>
+        <v>-7.692307692307187</v>
       </c>
       <c r="L164" t="n">
         <v>68.31999999999998</v>
@@ -8643,7 +8665,7 @@
         <v>41.30000000000011</v>
       </c>
       <c r="K165" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20.00000000000038</v>
       </c>
       <c r="L165" t="n">
         <v>68.27999999999999</v>
@@ -8694,7 +8716,7 @@
         <v>41.60000000000012</v>
       </c>
       <c r="K166" t="n">
-        <v>-2.702702702702537</v>
+        <v>0</v>
       </c>
       <c r="L166" t="n">
         <v>68.27999999999999</v>
@@ -8745,7 +8767,7 @@
         <v>42.00000000000013</v>
       </c>
       <c r="K167" t="n">
-        <v>-12.19512195121944</v>
+        <v>12.49999999999989</v>
       </c>
       <c r="L167" t="n">
         <v>68.23999999999998</v>
@@ -8796,7 +8818,7 @@
         <v>43.30000000000013</v>
       </c>
       <c r="K168" t="n">
-        <v>-33.33333333333316</v>
+        <v>-53.84615384615275</v>
       </c>
       <c r="L168" t="n">
         <v>68.13</v>
@@ -8847,7 +8869,7 @@
         <v>43.40000000000012</v>
       </c>
       <c r="K169" t="n">
-        <v>-23.99999999999999</v>
+        <v>-66.66666666666647</v>
       </c>
       <c r="L169" t="n">
         <v>67.99999999999999</v>
@@ -8898,7 +8920,7 @@
         <v>44.20000000000012</v>
       </c>
       <c r="K170" t="n">
-        <v>-34.48275862068959</v>
+        <v>-74.99999999999977</v>
       </c>
       <c r="L170" t="n">
         <v>67.75999999999999</v>
@@ -8949,7 +8971,7 @@
         <v>44.80000000000011</v>
       </c>
       <c r="K171" t="n">
-        <v>-52.54237288135578</v>
+        <v>-78.9473684210524</v>
       </c>
       <c r="L171" t="n">
         <v>67.45999999999999</v>
@@ -9000,7 +9022,7 @@
         <v>45.20000000000012</v>
       </c>
       <c r="K172" t="n">
-        <v>-54.09836065573759</v>
+        <v>-80.95238095238075</v>
       </c>
       <c r="L172" t="n">
         <v>67.11999999999999</v>
@@ -9051,7 +9073,7 @@
         <v>46.40000000000012</v>
       </c>
       <c r="K173" t="n">
-        <v>-34.28571428571409</v>
+        <v>-40.74074074074064</v>
       </c>
       <c r="L173" t="n">
         <v>66.90000000000001</v>
@@ -9102,7 +9124,7 @@
         <v>46.70000000000012</v>
       </c>
       <c r="K174" t="n">
-        <v>-35.21126760563369</v>
+        <v>-40.74074074074049</v>
       </c>
       <c r="L174" t="n">
         <v>66.65000000000001</v>
@@ -9153,7 +9175,7 @@
         <v>48.20000000000012</v>
       </c>
       <c r="K175" t="n">
-        <v>-12.94117647058813</v>
+        <v>-15.15151515151517</v>
       </c>
       <c r="L175" t="n">
         <v>66.58</v>
@@ -9204,7 +9226,7 @@
         <v>49.80000000000013</v>
       </c>
       <c r="K176" t="n">
-        <v>-25.99999999999997</v>
+        <v>-28.20512820512825</v>
       </c>
       <c r="L176" t="n">
         <v>66.31999999999999</v>
@@ -9255,7 +9277,7 @@
         <v>50.00000000000013</v>
       </c>
       <c r="K177" t="n">
-        <v>-23.52941176470583</v>
+        <v>-10.44776119402989</v>
       </c>
       <c r="L177" t="n">
         <v>66.11999999999999</v>
@@ -9306,7 +9328,7 @@
         <v>50.80000000000013</v>
       </c>
       <c r="K178" t="n">
-        <v>-9.615384615384585</v>
+        <v>0</v>
       </c>
       <c r="L178" t="n">
         <v>66.12999999999998</v>
@@ -9357,7 +9379,7 @@
         <v>51.20000000000013</v>
       </c>
       <c r="K179" t="n">
-        <v>-8.571428571428456</v>
+        <v>17.14285714285715</v>
       </c>
       <c r="L179" t="n">
         <v>66.16999999999999</v>
@@ -9408,7 +9430,7 @@
         <v>52.10000000000014</v>
       </c>
       <c r="K180" t="n">
-        <v>-18.91891891891893</v>
+        <v>12.32876712328751</v>
       </c>
       <c r="L180" t="n">
         <v>66.19999999999999</v>
@@ -9459,7 +9481,7 @@
         <v>52.50000000000014</v>
       </c>
       <c r="K181" t="n">
-        <v>-14.78260869565214</v>
+        <v>23.28767123287667</v>
       </c>
       <c r="L181" t="n">
         <v>66.33</v>
@@ -9510,7 +9532,7 @@
         <v>53.00000000000014</v>
       </c>
       <c r="K182" t="n">
-        <v>-9.999999999999988</v>
+        <v>15.1515151515151</v>
       </c>
       <c r="L182" t="n">
         <v>66.55</v>
@@ -9561,7 +9583,7 @@
         <v>53.10000000000015</v>
       </c>
       <c r="K183" t="n">
-        <v>-10.74380165289261</v>
+        <v>18.74999999999972</v>
       </c>
       <c r="L183" t="n">
         <v>66.64</v>
@@ -9612,7 +9634,7 @@
         <v>53.40000000000016</v>
       </c>
       <c r="K184" t="n">
-        <v>-8.064516129032217</v>
+        <v>0</v>
       </c>
       <c r="L184" t="n">
         <v>66.78999999999999</v>
@@ -9663,7 +9685,7 @@
         <v>54.00000000000017</v>
       </c>
       <c r="K185" t="n">
-        <v>-10.23622047244087</v>
+        <v>23.80952380952355</v>
       </c>
       <c r="L185" t="n">
         <v>66.72999999999999</v>
@@ -9714,7 +9736,7 @@
         <v>54.00000000000017</v>
       </c>
       <c r="K186" t="n">
-        <v>-12.90322580645163</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L186" t="n">
         <v>66.83</v>
@@ -9765,7 +9787,7 @@
         <v>54.40000000000018</v>
       </c>
       <c r="K187" t="n">
-        <v>-6.451612903225758</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L187" t="n">
         <v>66.95</v>
@@ -9816,7 +9838,7 @@
         <v>55.00000000000018</v>
       </c>
       <c r="K188" t="n">
-        <v>-0.8547008547009232</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L188" t="n">
         <v>66.93000000000001</v>
@@ -9867,7 +9889,7 @@
         <v>55.10000000000018</v>
       </c>
       <c r="K189" t="n">
-        <v>-2.564102564102527</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L189" t="n">
         <v>66.86</v>
@@ -9918,7 +9940,7 @@
         <v>55.30000000000018</v>
       </c>
       <c r="K190" t="n">
-        <v>6.306306306306294</v>
+        <v>0</v>
       </c>
       <c r="L190" t="n">
         <v>66.90000000000001</v>
@@ -9969,7 +9991,7 @@
         <v>55.50000000000018</v>
       </c>
       <c r="K191" t="n">
-        <v>10.28037383177558</v>
+        <v>-27.99999999999964</v>
       </c>
       <c r="L191" t="n">
         <v>66.88000000000001</v>
@@ -10020,7 +10042,7 @@
         <v>55.60000000000018</v>
       </c>
       <c r="K192" t="n">
-        <v>13.46153846153844</v>
+        <v>-27.99999999999923</v>
       </c>
       <c r="L192" t="n">
         <v>66.8</v>
@@ -10071,7 +10093,7 @@
         <v>55.90000000000019</v>
       </c>
       <c r="K193" t="n">
-        <v>-1.05263157894745</v>
+        <v>-51.99999999999987</v>
       </c>
       <c r="L193" t="n">
         <v>66.7</v>
@@ -10122,7 +10144,7 @@
         <v>56.0000000000002</v>
       </c>
       <c r="K194" t="n">
-        <v>3.225806451612844</v>
+        <v>-29.99999999999929</v>
       </c>
       <c r="L194" t="n">
         <v>66.58000000000001</v>
@@ -10173,7 +10195,7 @@
         <v>56.8000000000002</v>
       </c>
       <c r="K195" t="n">
-        <v>-4.651162790697697</v>
+        <v>7.142857142857179</v>
       </c>
       <c r="L195" t="n">
         <v>66.60000000000001</v>
@@ -10224,7 +10246,7 @@
         <v>57.0000000000002</v>
       </c>
       <c r="K196" t="n">
-        <v>19.44444444444432</v>
+        <v>0</v>
       </c>
       <c r="L196" t="n">
         <v>66.64000000000001</v>
@@ -10275,7 +10297,7 @@
         <v>57.2000000000002</v>
       </c>
       <c r="K197" t="n">
-        <v>19.44444444444432</v>
+        <v>36.3636363636366</v>
       </c>
       <c r="L197" t="n">
         <v>66.66000000000001</v>
@@ -10326,7 +10348,7 @@
         <v>57.60000000000021</v>
       </c>
       <c r="K198" t="n">
-        <v>2.941176470588242</v>
+        <v>19.99999999999977</v>
       </c>
       <c r="L198" t="n">
         <v>66.70000000000002</v>
@@ -10377,7 +10399,7 @@
         <v>57.60000000000021</v>
       </c>
       <c r="K199" t="n">
-        <v>-3.125000000000007</v>
+        <v>13.0434782608693</v>
       </c>
       <c r="L199" t="n">
         <v>66.75000000000001</v>
@@ -10428,7 +10450,7 @@
         <v>57.60000000000021</v>
       </c>
       <c r="K200" t="n">
-        <v>12.72727272727261</v>
+        <v>23.80952380952355</v>
       </c>
       <c r="L200" t="n">
         <v>66.78</v>
@@ -10479,7 +10501,7 @@
         <v>58.2000000000002</v>
       </c>
       <c r="K201" t="n">
-        <v>15.78947368421021</v>
+        <v>46.15384615384531</v>
       </c>
       <c r="L201" t="n">
         <v>66.89000000000001</v>
@@ -10530,7 +10552,7 @@
         <v>59.10000000000019</v>
       </c>
       <c r="K202" t="n">
-        <v>-8.196721311475342</v>
+        <v>18.75000000000025</v>
       </c>
       <c r="L202" t="n">
         <v>66.92000000000002</v>
@@ -10581,7 +10603,7 @@
         <v>59.20000000000019</v>
       </c>
       <c r="K203" t="n">
-        <v>-4.91803278688517</v>
+        <v>18.74999999999989</v>
       </c>
       <c r="L203" t="n">
         <v>66.99000000000001</v>
@@ -10632,7 +10654,7 @@
         <v>59.30000000000018</v>
       </c>
       <c r="K204" t="n">
-        <v>-11.86440677966103</v>
+        <v>-11.99999999999996</v>
       </c>
       <c r="L204" t="n">
         <v>67.04000000000001</v>
@@ -10683,7 +10705,7 @@
         <v>59.80000000000018</v>
       </c>
       <c r="K205" t="n">
-        <v>6.896551724138016</v>
+        <v>0</v>
       </c>
       <c r="L205" t="n">
         <v>67.06000000000002</v>
@@ -10734,7 +10756,7 @@
         <v>60.70000000000019</v>
       </c>
       <c r="K206" t="n">
-        <v>-7.462686567164161</v>
+        <v>-31.4285714285718</v>
       </c>
       <c r="L206" t="n">
         <v>66.97</v>
@@ -10785,7 +10807,7 @@
         <v>60.70000000000019</v>
       </c>
       <c r="K207" t="n">
-        <v>-14.28571428571435</v>
+        <v>-22.58064516129056</v>
       </c>
       <c r="L207" t="n">
         <v>66.86</v>
@@ -10836,7 +10858,7 @@
         <v>60.90000000000019</v>
       </c>
       <c r="K208" t="n">
-        <v>-8.474576271186432</v>
+        <v>-27.27272727272759</v>
       </c>
       <c r="L208" t="n">
         <v>66.77000000000001</v>
@@ -10887,7 +10909,7 @@
         <v>60.90000000000019</v>
       </c>
       <c r="K209" t="n">
-        <v>-6.896551724138016</v>
+        <v>-27.27272727272759</v>
       </c>
       <c r="L209" t="n">
         <v>66.68000000000001</v>
@@ -10938,7 +10960,7 @@
         <v>61.2000000000002</v>
       </c>
       <c r="K210" t="n">
-        <v>-5.084745762711798</v>
+        <v>-39.99999999999962</v>
       </c>
       <c r="L210" t="n">
         <v>66.62</v>
@@ -10989,7 +11011,7 @@
         <v>61.30000000000021</v>
       </c>
       <c r="K211" t="n">
-        <v>-3.448275862068999</v>
+        <v>-18.1818181818183</v>
       </c>
       <c r="L211" t="n">
         <v>66.48999999999999</v>
@@ -11040,7 +11062,7 @@
         <v>61.50000000000021</v>
       </c>
       <c r="K212" t="n">
-        <v>-5.084745762712028</v>
+        <v>-30.43478260869544</v>
       </c>
       <c r="L212" t="n">
         <v>66.42999999999999</v>
@@ -11091,7 +11113,7 @@
         <v>61.50000000000021</v>
       </c>
       <c r="K213" t="n">
-        <v>0</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L213" t="n">
         <v>66.36</v>
@@ -11142,7 +11164,7 @@
         <v>61.70000000000022</v>
       </c>
       <c r="K214" t="n">
-        <v>1.754385964912176</v>
+        <v>-47.36842105263103</v>
       </c>
       <c r="L214" t="n">
         <v>66.31999999999999</v>
@@ -11193,7 +11215,7 @@
         <v>62.10000000000021</v>
       </c>
       <c r="K215" t="n">
-        <v>-20.75471698113192</v>
+        <v>-28.57142857142755</v>
       </c>
       <c r="L215" t="n">
         <v>66.18999999999998</v>
@@ -11244,7 +11266,7 @@
         <v>62.10000000000021</v>
       </c>
       <c r="K216" t="n">
-        <v>-25.49019607843127</v>
+        <v>-28.57142857142755</v>
       </c>
       <c r="L216" t="n">
         <v>66.14999999999999</v>
@@ -11295,7 +11317,7 @@
         <v>62.20000000000022</v>
       </c>
       <c r="K217" t="n">
-        <v>-32.00000000000008</v>
+        <v>-23.07692307692241</v>
       </c>
       <c r="L217" t="n">
         <v>66.09999999999999</v>
@@ -11346,7 +11368,7 @@
         <v>62.80000000000021</v>
       </c>
       <c r="K218" t="n">
-        <v>-34.61538461538454</v>
+        <v>-47.36842105263063</v>
       </c>
       <c r="L218" t="n">
         <v>66.00999999999999</v>
@@ -11397,7 +11419,7 @@
         <v>63.7000000000002</v>
       </c>
       <c r="K219" t="n">
-        <v>-14.75409836065585</v>
+        <v>-12.00000000000045</v>
       </c>
       <c r="L219" t="n">
         <v>66.00999999999999</v>
@@ -11448,7 +11470,7 @@
         <v>64.5000000000002</v>
       </c>
       <c r="K220" t="n">
-        <v>-24.63768115942036</v>
+        <v>-31.25000000000011</v>
       </c>
       <c r="L220" t="n">
         <v>65.89999999999999</v>
@@ -11499,7 +11521,7 @@
         <v>64.7000000000002</v>
       </c>
       <c r="K221" t="n">
-        <v>-38.46153846153847</v>
+        <v>-31.25000000000011</v>
       </c>
       <c r="L221" t="n">
         <v>65.78</v>
@@ -11550,7 +11572,7 @@
         <v>65.7000000000002</v>
       </c>
       <c r="K222" t="n">
-        <v>-9.090909090909207</v>
+        <v>0</v>
       </c>
       <c r="L222" t="n">
         <v>65.78</v>
@@ -11601,7 +11623,7 @@
         <v>66.10000000000019</v>
       </c>
       <c r="K223" t="n">
-        <v>-15.94202898550715</v>
+        <v>-13.63636363636358</v>
       </c>
       <c r="L223" t="n">
         <v>65.73999999999999</v>
@@ -11652,7 +11674,7 @@
         <v>66.3000000000002</v>
       </c>
       <c r="K224" t="n">
-        <v>-17.14285714285715</v>
+        <v>-9.523809523809684</v>
       </c>
       <c r="L224" t="n">
         <v>65.66</v>
@@ -11703,7 +11725,7 @@
         <v>66.90000000000019</v>
       </c>
       <c r="K225" t="n">
-        <v>-15.49295774647898</v>
+        <v>4.166666666666444</v>
       </c>
       <c r="L225" t="n">
         <v>65.68000000000001</v>
@@ -11754,7 +11776,7 @@
         <v>67.50000000000018</v>
       </c>
       <c r="K226" t="n">
-        <v>-11.7647058823529</v>
+        <v>-5.660377358490546</v>
       </c>
       <c r="L226" t="n">
         <v>65.64000000000001</v>
@@ -11805,7 +11827,7 @@
         <v>67.50000000000018</v>
       </c>
       <c r="K227" t="n">
-        <v>-11.7647058823529</v>
+        <v>6.382978723404229</v>
       </c>
       <c r="L227" t="n">
         <v>65.61000000000001</v>
@@ -11856,7 +11878,7 @@
         <v>67.60000000000018</v>
       </c>
       <c r="K228" t="n">
-        <v>-10.4477611940297</v>
+        <v>-17.94871794871776</v>
       </c>
       <c r="L228" t="n">
         <v>65.63000000000001</v>
@@ -11907,7 +11929,7 @@
         <v>67.70000000000017</v>
       </c>
       <c r="K229" t="n">
-        <v>-8.823529411764644</v>
+        <v>6.250000000000139</v>
       </c>
       <c r="L229" t="n">
         <v>65.57000000000001</v>
@@ -11958,7 +11980,7 @@
         <v>67.90000000000018</v>
       </c>
       <c r="K230" t="n">
-        <v>-10.44776119402993</v>
+        <v>18.75000000000042</v>
       </c>
       <c r="L230" t="n">
         <v>65.61000000000001</v>
@@ -12009,7 +12031,7 @@
         <v>67.90000000000018</v>
       </c>
       <c r="K231" t="n">
-        <v>-9.090909090909053</v>
+        <v>-18.18181818181801</v>
       </c>
       <c r="L231" t="n">
         <v>65.67000000000002</v>
@@ -12060,7 +12082,7 @@
         <v>68.10000000000018</v>
       </c>
       <c r="K232" t="n">
-        <v>-9.090909090909053</v>
+        <v>-10.00000000000021</v>
       </c>
       <c r="L232" t="n">
         <v>65.61000000000001</v>
@@ -12111,7 +12133,7 @@
         <v>68.50000000000018</v>
       </c>
       <c r="K233" t="n">
-        <v>-2.857142857142707</v>
+        <v>18.18181818181854</v>
       </c>
       <c r="L233" t="n">
         <v>65.63000000000001</v>
@@ -12162,7 +12184,7 @@
         <v>68.60000000000019</v>
       </c>
       <c r="K234" t="n">
-        <v>-7.246376811594227</v>
+        <v>-17.64705882352921</v>
       </c>
       <c r="L234" t="n">
         <v>65.66</v>
@@ -12213,7 +12235,7 @@
         <v>68.70000000000019</v>
       </c>
       <c r="K235" t="n">
-        <v>-3.030303030303082</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L235" t="n">
         <v>65.62</v>
@@ -12264,7 +12286,7 @@
         <v>69.00000000000018</v>
       </c>
       <c r="K236" t="n">
-        <v>-7.246376811594227</v>
+        <v>-6.666666666666288</v>
       </c>
       <c r="L236" t="n">
         <v>65.61</v>
@@ -12315,7 +12337,7 @@
         <v>69.10000000000019</v>
       </c>
       <c r="K237" t="n">
-        <v>-7.246376811594227</v>
+        <v>-6.666666666667171</v>
       </c>
       <c r="L237" t="n">
         <v>65.59</v>
@@ -12366,7 +12388,7 @@
         <v>70.5000000000002</v>
       </c>
       <c r="K238" t="n">
-        <v>19.48051948051951</v>
+        <v>42.85714285714256</v>
       </c>
       <c r="L238" t="n">
         <v>65.72</v>
@@ -12417,7 +12439,7 @@
         <v>71.4000000000002</v>
       </c>
       <c r="K239" t="n">
-        <v>-3.896103896103858</v>
+        <v>2.857142857142672</v>
       </c>
       <c r="L239" t="n">
         <v>65.75</v>
@@ -12468,7 +12490,7 @@
         <v>71.50000000000021</v>
       </c>
       <c r="K240" t="n">
-        <v>8.571428571428676</v>
+        <v>5.555555555555578</v>
       </c>
       <c r="L240" t="n">
         <v>65.77</v>
@@ -12519,7 +12541,7 @@
         <v>71.70000000000022</v>
       </c>
       <c r="K241" t="n">
-        <v>8.571428571428676</v>
+        <v>5.555555555555578</v>
       </c>
       <c r="L241" t="n">
         <v>65.77</v>
@@ -12570,7 +12592,7 @@
         <v>71.80000000000022</v>
       </c>
       <c r="K242" t="n">
-        <v>-8.196721311475379</v>
+        <v>-9.090909090909326</v>
       </c>
       <c r="L242" t="n">
         <v>65.78</v>
@@ -12621,7 +12643,7 @@
         <v>72.10000000000022</v>
       </c>
       <c r="K243" t="n">
-        <v>-6.66666666666673</v>
+        <v>-14.28571428571417</v>
       </c>
       <c r="L243" t="n">
         <v>65.72</v>
@@ -12672,7 +12694,7 @@
         <v>73.00000000000023</v>
       </c>
       <c r="K244" t="n">
-        <v>10.44776119402984</v>
+        <v>11.62790697674408</v>
       </c>
       <c r="L244" t="n">
         <v>65.76000000000001</v>
@@ -12723,7 +12745,7 @@
         <v>73.10000000000024</v>
       </c>
       <c r="K245" t="n">
-        <v>0</v>
+        <v>17.07317073170683</v>
       </c>
       <c r="L245" t="n">
         <v>65.8</v>
@@ -12774,7 +12796,7 @@
         <v>73.10000000000024</v>
       </c>
       <c r="K246" t="n">
-        <v>10.71428571428551</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L246" t="n">
         <v>65.87</v>
@@ -12825,7 +12847,7 @@
         <v>73.60000000000024</v>
       </c>
       <c r="K247" t="n">
-        <v>18.03278688524566</v>
+        <v>-3.22580645161314</v>
       </c>
       <c r="L247" t="n">
         <v>66.00000000000001</v>
@@ -12876,7 +12898,7 @@
         <v>73.80000000000024</v>
       </c>
       <c r="K248" t="n">
-        <v>22.58064516128997</v>
+        <v>41.66666666666607</v>
       </c>
       <c r="L248" t="n">
         <v>66.01000000000001</v>
@@ -12927,7 +12949,7 @@
         <v>73.90000000000023</v>
       </c>
       <c r="K249" t="n">
-        <v>19.35483870967728</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L249" t="n">
         <v>66.10000000000001</v>
@@ -12978,7 +13000,7 @@
         <v>74.10000000000024</v>
       </c>
       <c r="K250" t="n">
-        <v>19.35483870967728</v>
+        <v>49.99999999999971</v>
       </c>
       <c r="L250" t="n">
         <v>66.20000000000002</v>
@@ -13029,7 +13051,7 @@
         <v>74.20000000000024</v>
       </c>
       <c r="K251" t="n">
-        <v>17.46031746031718</v>
+        <v>49.99999999999971</v>
       </c>
       <c r="L251" t="n">
         <v>66.31</v>
@@ -13080,7 +13102,7 @@
         <v>74.20000000000024</v>
       </c>
       <c r="K252" t="n">
-        <v>21.31147540983579</v>
+        <v>71.42857142857065</v>
       </c>
       <c r="L252" t="n">
         <v>66.42999999999999</v>
@@ -13131,7 +13153,7 @@
         <v>74.30000000000024</v>
       </c>
       <c r="K253" t="n">
-        <v>13.79310344827568</v>
+        <v>38.46153846153813</v>
       </c>
       <c r="L253" t="n">
         <v>66.57000000000001</v>
@@ -13182,7 +13204,7 @@
         <v>74.60000000000024</v>
       </c>
       <c r="K254" t="n">
-        <v>10.00000000000007</v>
+        <v>20.00000000000076</v>
       </c>
       <c r="L254" t="n">
         <v>66.59</v>
@@ -13233,7 +13255,7 @@
         <v>74.70000000000023</v>
       </c>
       <c r="K255" t="n">
-        <v>13.33333333333319</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L255" t="n">
         <v>66.63</v>
@@ -13284,7 +13306,7 @@
         <v>74.80000000000022</v>
       </c>
       <c r="K256" t="n">
-        <v>17.24137931034471</v>
+        <v>-16.66666666666588</v>
       </c>
       <c r="L256" t="n">
         <v>66.66</v>
@@ -13335,7 +13357,7 @@
         <v>74.90000000000022</v>
       </c>
       <c r="K257" t="n">
-        <v>20.68965517241375</v>
+        <v>-27.27272727272751</v>
       </c>
       <c r="L257" t="n">
         <v>66.64999999999999</v>
@@ -13386,7 +13408,7 @@
         <v>75.00000000000021</v>
       </c>
       <c r="K258" t="n">
-        <v>-2.222222222222405</v>
+        <v>-9.090909090910031</v>
       </c>
       <c r="L258" t="n">
         <v>66.63</v>
@@ -13437,7 +13459,7 @@
         <v>75.2000000000002</v>
       </c>
       <c r="K259" t="n">
-        <v>15.78947368421076</v>
+        <v>-45.45454545454686</v>
       </c>
       <c r="L259" t="n">
         <v>66.59999999999999</v>
@@ -13488,7 +13510,7 @@
         <v>75.2000000000002</v>
       </c>
       <c r="K260" t="n">
-        <v>13.51351351351356</v>
+        <v>-40.00000000000085</v>
       </c>
       <c r="L260" t="n">
         <v>66.54999999999998</v>
@@ -13539,7 +13561,7 @@
         <v>75.2000000000002</v>
       </c>
       <c r="K261" t="n">
-        <v>20.00000000000016</v>
+        <v>-40.00000000000085</v>
       </c>
       <c r="L261" t="n">
         <v>66.50999999999999</v>
@@ -13590,7 +13612,7 @@
         <v>75.2000000000002</v>
       </c>
       <c r="K262" t="n">
-        <v>23.52941176470637</v>
+        <v>-33.33333333333439</v>
       </c>
       <c r="L262" t="n">
         <v>66.47</v>
@@ -13641,7 +13663,7 @@
         <v>75.5000000000002</v>
       </c>
       <c r="K263" t="n">
-        <v>41.17647058823574</v>
+        <v>33.33333333333439</v>
       </c>
       <c r="L263" t="n">
         <v>66.47</v>
@@ -13692,7 +13714,7 @@
         <v>75.8000000000002</v>
       </c>
       <c r="K264" t="n">
-        <v>7.142857142857324</v>
+        <v>-9.090909090908857</v>
       </c>
       <c r="L264" t="n">
         <v>66.47</v>
@@ -13743,7 +13765,7 @@
         <v>76.4000000000002</v>
       </c>
       <c r="K265" t="n">
-        <v>-9.090909090909092</v>
+        <v>-37.500000000001</v>
       </c>
       <c r="L265" t="n">
         <v>66.39999999999999</v>
@@ -13794,7 +13816,7 @@
         <v>76.4000000000002</v>
       </c>
       <c r="K266" t="n">
-        <v>-9.090909090909092</v>
+        <v>-46.6666666666673</v>
       </c>
       <c r="L266" t="n">
         <v>66.33999999999999</v>
@@ -13845,7 +13867,7 @@
         <v>76.60000000000021</v>
       </c>
       <c r="K267" t="n">
-        <v>-33.33333333333365</v>
+        <v>-62.50000000000022</v>
       </c>
       <c r="L267" t="n">
         <v>66.24999999999999</v>
@@ -13896,7 +13918,7 @@
         <v>77.30000000000021</v>
       </c>
       <c r="K268" t="n">
-        <v>-14.2857142857144</v>
+        <v>-4.761904761905149</v>
       </c>
       <c r="L268" t="n">
         <v>66.21999999999998</v>
@@ -13947,7 +13969,7 @@
         <v>78.00000000000021</v>
       </c>
       <c r="K269" t="n">
-        <v>-26.82926829268327</v>
+        <v>-28.57142857142886</v>
       </c>
       <c r="L269" t="n">
         <v>66.13999999999999</v>
@@ -13998,7 +14020,7 @@
         <v>78.00000000000021</v>
       </c>
       <c r="K270" t="n">
-        <v>-33.33333333333382</v>
+        <v>-28.57142857142886</v>
       </c>
       <c r="L270" t="n">
         <v>66.05999999999999</v>
@@ -14049,7 +14071,7 @@
         <v>78.00000000000021</v>
       </c>
       <c r="K271" t="n">
-        <v>-31.57894736842139</v>
+        <v>-28.57142857142886</v>
       </c>
       <c r="L271" t="n">
         <v>65.97999999999999</v>
@@ -14100,7 +14122,7 @@
         <v>79.20000000000022</v>
       </c>
       <c r="K272" t="n">
-        <v>0</v>
+        <v>2.702702702702537</v>
       </c>
       <c r="L272" t="n">
         <v>66.02</v>
@@ -14151,7 +14173,7 @@
         <v>80.00000000000021</v>
       </c>
       <c r="K273" t="n">
-        <v>-12.28070175438607</v>
+        <v>-9.52380952380962</v>
       </c>
       <c r="L273" t="n">
         <v>65.94999999999999</v>
@@ -14202,7 +14224,7 @@
         <v>80.00000000000021</v>
       </c>
       <c r="K274" t="n">
-        <v>-7.407407407407544</v>
+        <v>5.555555555555621</v>
       </c>
       <c r="L274" t="n">
         <v>65.91</v>
@@ -14253,7 +14275,7 @@
         <v>80.80000000000021</v>
       </c>
       <c r="K275" t="n">
-        <v>4.918032786885215</v>
+        <v>22.7272727272727</v>
       </c>
       <c r="L275" t="n">
         <v>66.00999999999999</v>
@@ -14304,7 +14326,7 @@
         <v>81.60000000000021</v>
       </c>
       <c r="K276" t="n">
-        <v>-5.882352941176569</v>
+        <v>8.000000000000114</v>
       </c>
       <c r="L276" t="n">
         <v>66.03</v>
@@ -14355,7 +14377,7 @@
         <v>81.60000000000021</v>
       </c>
       <c r="K277" t="n">
-        <v>-7.462686567164193</v>
+        <v>-6.97674418604645</v>
       </c>
       <c r="L277" t="n">
         <v>66.06999999999999</v>
@@ -14406,7 +14428,7 @@
         <v>81.9000000000002</v>
       </c>
       <c r="K278" t="n">
-        <v>-13.04347826086946</v>
+        <v>2.564102564102789</v>
       </c>
       <c r="L278" t="n">
         <v>66.01000000000001</v>
@@ -14457,7 +14479,7 @@
         <v>81.9000000000002</v>
       </c>
       <c r="K279" t="n">
-        <v>-10.44776119402989</v>
+        <v>2.564102564102789</v>
       </c>
       <c r="L279" t="n">
         <v>66.02000000000001</v>
@@ -14508,7 +14530,7 @@
         <v>82.0000000000002</v>
       </c>
       <c r="K280" t="n">
-        <v>-8.823529411764836</v>
+        <v>5.000000000000089</v>
       </c>
       <c r="L280" t="n">
         <v>66.03999999999999</v>
@@ -14559,7 +14581,7 @@
         <v>82.0000000000002</v>
       </c>
       <c r="K281" t="n">
-        <v>-8.823529411764836</v>
+        <v>-35.71428571428593</v>
       </c>
       <c r="L281" t="n">
         <v>66.05999999999999</v>
@@ -14610,7 +14632,7 @@
         <v>82.10000000000021</v>
       </c>
       <c r="K282" t="n">
-        <v>-7.246376811594198</v>
+        <v>-4.761904761904504</v>
       </c>
       <c r="L282" t="n">
         <v>65.97</v>
@@ -14661,7 +14683,7 @@
         <v>82.20000000000022</v>
       </c>
       <c r="K283" t="n">
-        <v>-13.43283582089557</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L283" t="n">
         <v>65.94999999999999</v>
@@ -14712,7 +14734,7 @@
         <v>82.50000000000021</v>
       </c>
       <c r="K284" t="n">
-        <v>-4.477611940298665</v>
+        <v>-41.17647058823539</v>
       </c>
       <c r="L284" t="n">
         <v>65.95999999999999</v>
@@ -14763,7 +14785,7 @@
         <v>82.7000000000002</v>
       </c>
       <c r="K285" t="n">
-        <v>1.587301587301723</v>
+        <v>-9.090909090908621</v>
       </c>
       <c r="L285" t="n">
         <v>65.86999999999999</v>
@@ -14814,7 +14836,7 @@
         <v>82.7000000000002</v>
       </c>
       <c r="K286" t="n">
-        <v>1.587301587301723</v>
+        <v>-9.090909090908621</v>
       </c>
       <c r="L286" t="n">
         <v>65.85999999999999</v>
@@ -14865,7 +14887,7 @@
         <v>82.8000000000002</v>
       </c>
       <c r="K287" t="n">
-        <v>6.45161290322591</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L287" t="n">
         <v>65.85999999999999</v>
@@ -14916,7 +14938,7 @@
         <v>82.8000000000002</v>
       </c>
       <c r="K288" t="n">
-        <v>-5.454545454545417</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L288" t="n">
         <v>65.88999999999999</v>
@@ -14967,7 +14989,7 @@
         <v>82.8000000000002</v>
       </c>
       <c r="K289" t="n">
-        <v>8.333333333333481</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L289" t="n">
         <v>65.91999999999999</v>
@@ -15018,7 +15040,7 @@
         <v>83.0000000000002</v>
       </c>
       <c r="K290" t="n">
-        <v>4.000000000000068</v>
+        <v>0</v>
       </c>
       <c r="L290" t="n">
         <v>65.91999999999999</v>
@@ -15069,7 +15091,7 @@
         <v>83.0000000000002</v>
       </c>
       <c r="K291" t="n">
-        <v>4.000000000000068</v>
+        <v>-11.11111111111216</v>
       </c>
       <c r="L291" t="n">
         <v>65.91999999999999</v>
@@ -15120,7 +15142,7 @@
         <v>83.2000000000002</v>
       </c>
       <c r="K292" t="n">
-        <v>-30.00000000000018</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L292" t="n">
         <v>65.88999999999999</v>
@@ -15171,7 +15193,7 @@
         <v>83.2000000000002</v>
       </c>
       <c r="K293" t="n">
-        <v>-12.50000000000022</v>
+        <v>-71.42857142857258</v>
       </c>
       <c r="L293" t="n">
         <v>65.86999999999999</v>
@@ -15222,7 +15244,7 @@
         <v>83.2000000000002</v>
       </c>
       <c r="K294" t="n">
-        <v>-12.50000000000022</v>
+        <v>-60.00000000000227</v>
       </c>
       <c r="L294" t="n">
         <v>65.81999999999999</v>
@@ -15273,7 +15295,7 @@
         <v>83.3000000000002</v>
       </c>
       <c r="K295" t="n">
-        <v>-52.00000000000018</v>
+        <v>-66.66666666666825</v>
       </c>
       <c r="L295" t="n">
         <v>65.78</v>
@@ -15324,7 +15346,7 @@
         <v>83.3000000000002</v>
       </c>
       <c r="K296" t="n">
-        <v>-29.41176470588255</v>
+        <v>-100</v>
       </c>
       <c r="L296" t="n">
         <v>65.73999999999999</v>
@@ -15375,7 +15397,7 @@
         <v>83.3000000000002</v>
       </c>
       <c r="K297" t="n">
-        <v>-29.41176470588255</v>
+        <v>-100</v>
       </c>
       <c r="L297" t="n">
         <v>65.69</v>
@@ -15426,7 +15448,7 @@
         <v>83.60000000000019</v>
       </c>
       <c r="K298" t="n">
-        <v>5.882352941176175</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L298" t="n">
         <v>65.66999999999999</v>
@@ -15477,7 +15499,7 @@
         <v>83.8000000000002</v>
       </c>
       <c r="K299" t="n">
-        <v>15.78947368421045</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L299" t="n">
         <v>65.66999999999999</v>
@@ -15528,7 +15550,7 @@
         <v>83.90000000000019</v>
       </c>
       <c r="K300" t="n">
-        <v>5.263157894737314</v>
+        <v>11.11111111111216</v>
       </c>
       <c r="L300" t="n">
         <v>65.67999999999999</v>
@@ -15579,7 +15601,7 @@
         <v>83.90000000000019</v>
       </c>
       <c r="K301" t="n">
-        <v>5.263157894737314</v>
+        <v>42.85714285714518</v>
       </c>
       <c r="L301" t="n">
         <v>65.69</v>
@@ -15630,7 +15652,7 @@
         <v>83.90000000000019</v>
       </c>
       <c r="K302" t="n">
-        <v>0</v>
+        <v>42.85714285714518</v>
       </c>
       <c r="L302" t="n">
         <v>65.72</v>
@@ -15681,7 +15703,7 @@
         <v>84.00000000000018</v>
       </c>
       <c r="K303" t="n">
-        <v>11.11111111111146</v>
+        <v>50.00000000000178</v>
       </c>
       <c r="L303" t="n">
         <v>65.75999999999999</v>
@@ -15732,7 +15754,7 @@
         <v>84.30000000000018</v>
       </c>
       <c r="K304" t="n">
-        <v>-22.22222222222214</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L304" t="n">
         <v>65.77</v>
@@ -15783,7 +15805,7 @@
         <v>84.50000000000018</v>
       </c>
       <c r="K305" t="n">
-        <v>0</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L305" t="n">
         <v>65.80999999999999</v>
@@ -15834,7 +15856,7 @@
         <v>84.60000000000019</v>
       </c>
       <c r="K306" t="n">
-        <v>-5.263157894737314</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L306" t="n">
         <v>65.83999999999999</v>
@@ -15885,7 +15907,7 @@
         <v>85.3000000000002</v>
       </c>
       <c r="K307" t="n">
-        <v>20</v>
+        <v>41.17647058823539</v>
       </c>
       <c r="L307" t="n">
         <v>65.93999999999998</v>
@@ -15936,7 +15958,7 @@
         <v>85.40000000000019</v>
       </c>
       <c r="K308" t="n">
-        <v>15.38461538461564</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L308" t="n">
         <v>65.99999999999999</v>
@@ -15987,7 +16009,7 @@
         <v>85.60000000000019</v>
       </c>
       <c r="K309" t="n">
-        <v>7.142857142857252</v>
+        <v>17.64705882352921</v>
       </c>
       <c r="L309" t="n">
         <v>66.02</v>
@@ -16038,7 +16060,7 @@
         <v>86.2000000000002</v>
       </c>
       <c r="K310" t="n">
-        <v>-6.250000000000083</v>
+        <v>-13.04347826086999</v>
       </c>
       <c r="L310" t="n">
         <v>65.98999999999999</v>
@@ -16089,7 +16111,7 @@
         <v>86.4000000000002</v>
       </c>
       <c r="K311" t="n">
-        <v>0</v>
+        <v>-4.000000000000319</v>
       </c>
       <c r="L311" t="n">
         <v>65.97999999999999</v>
@@ -16140,7 +16162,7 @@
         <v>86.7000000000002</v>
       </c>
       <c r="K312" t="n">
-        <v>14.28571428571428</v>
+        <v>3.70370370370347</v>
       </c>
       <c r="L312" t="n">
         <v>66</v>
@@ -16191,7 +16213,7 @@
         <v>86.80000000000021</v>
       </c>
       <c r="K313" t="n">
-        <v>16.66666666666686</v>
+        <v>19.99999999999977</v>
       </c>
       <c r="L313" t="n">
         <v>66.02000000000001</v>
@@ -16242,7 +16264,7 @@
         <v>87.4000000000002</v>
       </c>
       <c r="K314" t="n">
-        <v>28.57142857142862</v>
+        <v>31.03448275862019</v>
       </c>
       <c r="L314" t="n">
         <v>66.13</v>
@@ -16293,7 +16315,7 @@
         <v>87.60000000000021</v>
       </c>
       <c r="K315" t="n">
-        <v>25.58139534883701</v>
+        <v>26.66666666666644</v>
       </c>
       <c r="L315" t="n">
         <v>66.2</v>
@@ -16344,7 +16366,7 @@
         <v>87.7000000000002</v>
       </c>
       <c r="K316" t="n">
-        <v>22.7272727272727</v>
+        <v>0</v>
       </c>
       <c r="L316" t="n">
         <v>66.27000000000001</v>
@@ -16395,7 +16417,7 @@
         <v>88.2000000000002</v>
       </c>
       <c r="K317" t="n">
-        <v>30.61224489795914</v>
+        <v>21.42857142857114</v>
       </c>
       <c r="L317" t="n">
         <v>66.32000000000001</v>
@@ -16446,7 +16468,7 @@
         <v>88.7000000000002</v>
       </c>
       <c r="K318" t="n">
-        <v>33.33333333333333</v>
+        <v>41.93548387096753</v>
       </c>
       <c r="L318" t="n">
         <v>66.43000000000001</v>
@@ -16497,7 +16519,7 @@
         <v>88.8000000000002</v>
       </c>
       <c r="K319" t="n">
-        <v>31.99999999999988</v>
+        <v>76.92307692307709</v>
       </c>
       <c r="L319" t="n">
         <v>66.57000000000001</v>
@@ -16548,7 +16570,7 @@
         <v>88.8000000000002</v>
       </c>
       <c r="K320" t="n">
-        <v>34.69387755102014</v>
+        <v>75.00000000000014</v>
       </c>
       <c r="L320" t="n">
         <v>66.77000000000001</v>
@@ -16599,7 +16621,7 @@
         <v>89.9000000000002</v>
       </c>
       <c r="K321" t="n">
-        <v>46.66666666666651</v>
+        <v>81.25000000000018</v>
       </c>
       <c r="L321" t="n">
         <v>67.06000000000002</v>
@@ -16650,7 +16672,7 @@
         <v>89.9000000000002</v>
       </c>
       <c r="K322" t="n">
-        <v>46.66666666666651</v>
+        <v>80.64516129032273</v>
       </c>
       <c r="L322" t="n">
         <v>67.32000000000002</v>
@@ -16701,7 +16723,7 @@
         <v>89.9000000000002</v>
       </c>
       <c r="K323" t="n">
-        <v>45.76271186440668</v>
+        <v>76.00000000000023</v>
       </c>
       <c r="L323" t="n">
         <v>67.57000000000002</v>
@@ -16752,7 +16774,7 @@
         <v>89.9000000000002</v>
       </c>
       <c r="K324" t="n">
-        <v>53.57142857142836</v>
+        <v>91.30434782608744</v>
       </c>
       <c r="L324" t="n">
         <v>67.76000000000002</v>
@@ -16803,7 +16825,7 @@
         <v>90.30000000000021</v>
       </c>
       <c r="K325" t="n">
-        <v>41.37931034482726</v>
+        <v>69.2307692307689</v>
       </c>
       <c r="L325" t="n">
         <v>67.93000000000002</v>
@@ -16854,7 +16876,7 @@
         <v>90.50000000000021</v>
       </c>
       <c r="K326" t="n">
-        <v>38.98305084745745</v>
+        <v>47.82608695652126</v>
       </c>
       <c r="L326" t="n">
         <v>68.09000000000002</v>
@@ -16905,7 +16927,7 @@
         <v>90.70000000000022</v>
       </c>
       <c r="K327" t="n">
-        <v>33.33333333333316</v>
+        <v>39.99999999999957</v>
       </c>
       <c r="L327" t="n">
         <v>68.22000000000001</v>
@@ -16956,7 +16978,7 @@
         <v>91.00000000000021</v>
       </c>
       <c r="K328" t="n">
-        <v>28.57142857142835</v>
+        <v>18.1818181818183</v>
       </c>
       <c r="L328" t="n">
         <v>68.27000000000001</v>
@@ -17007,7 +17029,7 @@
         <v>91.10000000000021</v>
       </c>
       <c r="K329" t="n">
-        <v>30.90909090909088</v>
+        <v>13.04347826086999</v>
       </c>
       <c r="L329" t="n">
         <v>68.30000000000001</v>
@@ -17058,7 +17080,7 @@
         <v>91.5000000000002</v>
       </c>
       <c r="K330" t="n">
-        <v>50.94339622641517</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L330" t="n">
         <v>68.37</v>
@@ -17109,7 +17131,7 @@
         <v>92.0000000000002</v>
       </c>
       <c r="K331" t="n">
-        <v>35.71428571428575</v>
+        <v>-42.85714285714324</v>
       </c>
       <c r="L331" t="n">
         <v>68.28</v>
@@ -17160,7 +17182,7 @@
         <v>92.7000000000002</v>
       </c>
       <c r="K332" t="n">
-        <v>40.0000000000001</v>
+        <v>-7.142857142857252</v>
       </c>
       <c r="L332" t="n">
         <v>68.25999999999999</v>
@@ -17211,7 +17233,7 @@
         <v>93.60000000000021</v>
       </c>
       <c r="K333" t="n">
-        <v>20.58823529411753</v>
+        <v>-29.72972972972994</v>
       </c>
       <c r="L333" t="n">
         <v>68.14999999999999</v>
@@ -17262,7 +17284,7 @@
         <v>93.80000000000021</v>
       </c>
       <c r="K334" t="n">
-        <v>15.62499999999999</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L334" t="n">
         <v>68.05999999999997</v>
@@ -17313,7 +17335,7 @@
         <v>93.9000000000002</v>
       </c>
       <c r="K335" t="n">
-        <v>17.4603174603176</v>
+        <v>-11.76470588235272</v>
       </c>
       <c r="L335" t="n">
         <v>67.99999999999999</v>
@@ -17364,7 +17386,7 @@
         <v>93.9000000000002</v>
       </c>
       <c r="K336" t="n">
-        <v>19.35483870967746</v>
+        <v>-18.74999999999989</v>
       </c>
       <c r="L336" t="n">
         <v>67.95999999999999</v>
@@ -17415,7 +17437,7 @@
         <v>94.10000000000021</v>
       </c>
       <c r="K337" t="n">
-        <v>8.474576271186432</v>
+        <v>-16.12903225806455</v>
       </c>
       <c r="L337" t="n">
         <v>67.88</v>
@@ -17466,7 +17488,7 @@
         <v>94.60000000000021</v>
       </c>
       <c r="K338" t="n">
-        <v>8.474576271186432</v>
+        <v>2.857142857142695</v>
       </c>
       <c r="L338" t="n">
         <v>67.88</v>
@@ -17517,7 +17539,7 @@
         <v>94.60000000000021</v>
       </c>
       <c r="K339" t="n">
-        <v>6.896551724138016</v>
+        <v>-9.677419354838591</v>
       </c>
       <c r="L339" t="n">
         <v>67.89</v>
@@ -17568,7 +17590,7 @@
         <v>95.10000000000021</v>
       </c>
       <c r="K340" t="n">
-        <v>-1.587301587301494</v>
+        <v>-9.677419354838591</v>
       </c>
       <c r="L340" t="n">
         <v>67.81</v>
@@ -17619,7 +17641,7 @@
         <v>95.60000000000021</v>
       </c>
       <c r="K341" t="n">
-        <v>-12.28070175438601</v>
+        <v>-17.24137931034479</v>
       </c>
       <c r="L341" t="n">
         <v>67.83000000000001</v>
@@ -17670,7 +17692,7 @@
         <v>96.00000000000021</v>
       </c>
       <c r="K342" t="n">
-        <v>-18.03278688524601</v>
+        <v>0</v>
       </c>
       <c r="L342" t="n">
         <v>67.74000000000001</v>
@@ -17721,7 +17743,7 @@
         <v>96.20000000000022</v>
       </c>
       <c r="K343" t="n">
-        <v>-14.28571428571435</v>
+        <v>0</v>
       </c>
       <c r="L343" t="n">
         <v>67.76000000000001</v>
@@ -17772,7 +17794,7 @@
         <v>96.20000000000022</v>
       </c>
       <c r="K344" t="n">
-        <v>-14.28571428571435</v>
+        <v>4.347826086956253</v>
       </c>
       <c r="L344" t="n">
         <v>67.76000000000001</v>
@@ -17823,7 +17845,7 @@
         <v>96.30000000000021</v>
       </c>
       <c r="K345" t="n">
-        <v>-9.999999999999904</v>
+        <v>0</v>
       </c>
       <c r="L345" t="n">
         <v>67.76000000000001</v>
@@ -17874,7 +17896,7 @@
         <v>96.4000000000002</v>
       </c>
       <c r="K346" t="n">
-        <v>-5.084745762711824</v>
+        <v>13.04347826086946</v>
       </c>
       <c r="L346" t="n">
         <v>67.77</v>
@@ -17925,7 +17947,7 @@
         <v>96.60000000000021</v>
       </c>
       <c r="K347" t="n">
-        <v>-5.084745762711824</v>
+        <v>0</v>
       </c>
       <c r="L347" t="n">
         <v>67.81999999999999</v>
@@ -17976,7 +17998,7 @@
         <v>96.80000000000021</v>
       </c>
       <c r="K348" t="n">
-        <v>-3.448275862069016</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L348" t="n">
         <v>67.79999999999998</v>
@@ -18027,7 +18049,7 @@
         <v>96.90000000000022</v>
       </c>
       <c r="K349" t="n">
-        <v>0</v>
+        <v>22.2222222222224</v>
       </c>
       <c r="L349" t="n">
         <v>67.78999999999999</v>
@@ -18078,7 +18100,7 @@
         <v>97.00000000000021</v>
       </c>
       <c r="K350" t="n">
-        <v>-5.454545454545389</v>
+        <v>0</v>
       </c>
       <c r="L350" t="n">
         <v>67.83999999999999</v>
@@ -18129,7 +18151,7 @@
         <v>97.10000000000021</v>
       </c>
       <c r="K351" t="n">
-        <v>1.960784313725654</v>
+        <v>27.27272727272845</v>
       </c>
       <c r="L351" t="n">
         <v>67.82999999999998</v>
@@ -18180,7 +18202,7 @@
         <v>97.2000000000002</v>
       </c>
       <c r="K352" t="n">
-        <v>-11.11111111111111</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L352" t="n">
         <v>67.86999999999998</v>
@@ -18231,7 +18253,7 @@
         <v>97.3000000000002</v>
       </c>
       <c r="K353" t="n">
-        <v>13.51351351351356</v>
+        <v>27.27272727272751</v>
       </c>
       <c r="L353" t="n">
         <v>67.89999999999999</v>
@@ -18282,7 +18304,7 @@
         <v>97.4000000000002</v>
       </c>
       <c r="K354" t="n">
-        <v>11.11111111111129</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L354" t="n">
         <v>67.94</v>
@@ -18333,7 +18355,7 @@
         <v>97.5000000000002</v>
       </c>
       <c r="K355" t="n">
-        <v>16.66666666666654</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L355" t="n">
         <v>67.99999999999999</v>
@@ -18384,7 +18406,7 @@
         <v>97.9000000000002</v>
       </c>
       <c r="K356" t="n">
-        <v>25</v>
+        <v>53.84615384615419</v>
       </c>
       <c r="L356" t="n">
         <v>68.09</v>
@@ -18435,7 +18457,7 @@
         <v>97.9000000000002</v>
       </c>
       <c r="K357" t="n">
-        <v>31.57894736842115</v>
+        <v>81.81818181818275</v>
       </c>
       <c r="L357" t="n">
         <v>68.16</v>
@@ -18486,7 +18508,7 @@
         <v>98.0000000000002</v>
       </c>
       <c r="K358" t="n">
-        <v>23.52941176470586</v>
+        <v>81.81818181818252</v>
       </c>
       <c r="L358" t="n">
         <v>68.26000000000001</v>
@@ -18537,7 +18559,7 @@
         <v>98.0000000000002</v>
       </c>
       <c r="K359" t="n">
-        <v>23.52941176470586</v>
+        <v>80.00000000000085</v>
       </c>
       <c r="L359" t="n">
         <v>68.34999999999999</v>
@@ -18588,7 +18610,7 @@
         <v>98.0000000000002</v>
       </c>
       <c r="K360" t="n">
-        <v>44.82758620689658</v>
+        <v>100</v>
       </c>
       <c r="L360" t="n">
         <v>68.42999999999999</v>
@@ -18639,7 +18661,7 @@
         <v>98.10000000000021</v>
       </c>
       <c r="K361" t="n">
-        <v>36.00000000000023</v>
+        <v>100</v>
       </c>
       <c r="L361" t="n">
         <v>68.53</v>
@@ -18690,7 +18712,7 @@
         <v>98.2000000000002</v>
       </c>
       <c r="K362" t="n">
-        <v>63.63636363636422</v>
+        <v>100</v>
       </c>
       <c r="L362" t="n">
         <v>68.63</v>
@@ -18741,7 +18763,7 @@
         <v>98.60000000000021</v>
       </c>
       <c r="K363" t="n">
-        <v>66.66666666666727</v>
+        <v>100</v>
       </c>
       <c r="L363" t="n">
         <v>68.75999999999999</v>
@@ -18792,7 +18814,7 @@
         <v>98.60000000000021</v>
       </c>
       <c r="K364" t="n">
-        <v>66.66666666666727</v>
+        <v>100</v>
       </c>
       <c r="L364" t="n">
         <v>68.87999999999998</v>
@@ -18843,7 +18865,7 @@
         <v>99.00000000000021</v>
       </c>
       <c r="K365" t="n">
-        <v>48.14814814814799</v>
+        <v>27.2727272727268</v>
       </c>
       <c r="L365" t="n">
         <v>68.94999999999999</v>
@@ -18894,7 +18916,7 @@
         <v>99.10000000000021</v>
       </c>
       <c r="K366" t="n">
-        <v>40.74074074074102</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L366" t="n">
         <v>68.96999999999998</v>
@@ -18945,7 +18967,7 @@
         <v>99.4000000000002</v>
       </c>
       <c r="K367" t="n">
-        <v>42.857142857143</v>
+        <v>28.57142857142886</v>
       </c>
       <c r="L367" t="n">
         <v>69.01999999999998</v>
@@ -18996,7 +19018,7 @@
         <v>99.50000000000021</v>
       </c>
       <c r="K368" t="n">
-        <v>48.14814814814799</v>
+        <v>19.99999999999962</v>
       </c>
       <c r="L368" t="n">
         <v>69.04999999999998</v>
@@ -19047,7 +19069,7 @@
         <v>99.7000000000002</v>
       </c>
       <c r="K369" t="n">
-        <v>35.71428571428593</v>
+        <v>5.882352941176962</v>
       </c>
       <c r="L369" t="n">
         <v>69.05999999999999</v>
@@ -19098,7 +19120,7 @@
         <v>100.0000000000002</v>
       </c>
       <c r="K370" t="n">
-        <v>19.99999999999981</v>
+        <v>-15.78947368421108</v>
       </c>
       <c r="L370" t="n">
         <v>69.03999999999999</v>
@@ -19149,7 +19171,7 @@
         <v>100.0000000000002</v>
       </c>
       <c r="K371" t="n">
-        <v>24.13793103448232</v>
+        <v>-22.2222222222224</v>
       </c>
       <c r="L371" t="n">
         <v>69.01000000000001</v>
@@ -19200,7 +19222,7 @@
         <v>100.3000000000002</v>
       </c>
       <c r="K372" t="n">
-        <v>9.677419354838591</v>
+        <v>-64.70588235294157</v>
       </c>
       <c r="L372" t="n">
         <v>68.94</v>
@@ -19251,7 +19273,7 @@
         <v>100.4000000000002</v>
       </c>
       <c r="K373" t="n">
-        <v>3.225806451613169</v>
+        <v>-66.66666666666693</v>
       </c>
       <c r="L373" t="n">
         <v>68.82000000000001</v>
@@ -19302,7 +19324,7 @@
         <v>100.6000000000002</v>
       </c>
       <c r="K374" t="n">
-        <v>-6.250000000000083</v>
+        <v>-62.50000000000022</v>
       </c>
       <c r="L374" t="n">
         <v>68.68000000000001</v>
@@ -19353,7 +19375,7 @@
         <v>100.9000000000002</v>
       </c>
       <c r="K375" t="n">
-        <v>-17.64705882352921</v>
+        <v>-66.66666666666693</v>
       </c>
       <c r="L375" t="n">
         <v>68.55000000000001</v>
@@ -19404,7 +19426,7 @@
         <v>101.4000000000002</v>
       </c>
       <c r="K376" t="n">
-        <v>-14.28571428571428</v>
+        <v>-50</v>
       </c>
       <c r="L376" t="n">
         <v>68.48000000000002</v>
@@ -19455,7 +19477,7 @@
         <v>101.8000000000002</v>
       </c>
       <c r="K377" t="n">
-        <v>-23.07692307692319</v>
+        <v>-56.52173913043473</v>
       </c>
       <c r="L377" t="n">
         <v>68.34</v>
@@ -19506,7 +19528,7 @@
         <v>101.8000000000002</v>
       </c>
       <c r="K378" t="n">
-        <v>-26.31578947368413</v>
+        <v>-52.38095238095257</v>
       </c>
       <c r="L378" t="n">
         <v>68.21000000000001</v>
@@ -19557,7 +19579,7 @@
         <v>102.1000000000002</v>
       </c>
       <c r="K379" t="n">
-        <v>-31.7073170731706</v>
+        <v>-52.38095238095225</v>
       </c>
       <c r="L379" t="n">
         <v>68.07000000000001</v>
@@ -19608,7 +19630,7 @@
         <v>102.2000000000002</v>
       </c>
       <c r="K380" t="n">
-        <v>-28.57142857142862</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L380" t="n">
         <v>67.97</v>
@@ -19659,7 +19681,7 @@
         <v>102.6000000000002</v>
       </c>
       <c r="K381" t="n">
-        <v>-20.00000000000012</v>
+        <v>-13.04347826086946</v>
       </c>
       <c r="L381" t="n">
         <v>67.91</v>
@@ -19710,7 +19732,7 @@
         <v>102.8000000000002</v>
       </c>
       <c r="K382" t="n">
-        <v>-26.08695652173915</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L382" t="n">
         <v>67.86</v>
@@ -19761,7 +19783,7 @@
         <v>103.0000000000002</v>
       </c>
       <c r="K383" t="n">
-        <v>-40.90909090909112</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L383" t="n">
         <v>67.8</v>
@@ -19812,7 +19834,7 @@
         <v>103.2000000000002</v>
       </c>
       <c r="K384" t="n">
-        <v>-43.47826086956527</v>
+        <v>-13.04347826086946</v>
       </c>
       <c r="L384" t="n">
         <v>67.73999999999999</v>
@@ -19863,7 +19885,7 @@
         <v>103.5000000000002</v>
       </c>
       <c r="K385" t="n">
-        <v>-28.88888888888892</v>
+        <v>-23.80952380952387</v>
       </c>
       <c r="L385" t="n">
         <v>67.73999999999999</v>
@@ -19914,7 +19936,7 @@
         <v>104.1000000000002</v>
       </c>
       <c r="K386" t="n">
-        <v>-12.0000000000002</v>
+        <v>21.73913043478277</v>
       </c>
       <c r="L386" t="n">
         <v>67.74999999999999</v>
@@ -19965,7 +19987,7 @@
         <v>104.7000000000002</v>
       </c>
       <c r="K387" t="n">
-        <v>-28.30188679245292</v>
+        <v>-3.448275862068797</v>
       </c>
       <c r="L387" t="n">
         <v>67.73999999999999</v>
@@ -20016,7 +20038,7 @@
         <v>104.7000000000002</v>
       </c>
       <c r="K388" t="n">
-        <v>-26.92307692307689</v>
+        <v>7.69230769230786</v>
       </c>
       <c r="L388" t="n">
         <v>67.73</v>
@@ -20067,7 +20089,7 @@
         <v>104.9000000000002</v>
       </c>
       <c r="K389" t="n">
-        <v>-19.23076923076927</v>
+        <v>11.11111111111158</v>
       </c>
       <c r="L389" t="n">
         <v>67.77000000000001</v>
@@ -20118,7 +20140,7 @@
         <v>105.1000000000002</v>
       </c>
       <c r="K390" t="n">
-        <v>-9.803921568627516</v>
+        <v>3.999999999999818</v>
       </c>
       <c r="L390" t="n">
         <v>67.82000000000001</v>
@@ -20169,7 +20191,7 @@
         <v>105.4000000000002</v>
       </c>
       <c r="K391" t="n">
-        <v>-3.703703703703508</v>
+        <v>23.07692307692358</v>
       </c>
       <c r="L391" t="n">
         <v>67.86</v>
@@ -20220,7 +20242,7 @@
         <v>105.7000000000002</v>
       </c>
       <c r="K392" t="n">
-        <v>-3.703703703703762</v>
+        <v>18.51851851851859</v>
       </c>
       <c r="L392" t="n">
         <v>67.89000000000001</v>
@@ -20271,7 +20293,7 @@
         <v>106.0000000000002</v>
       </c>
       <c r="K393" t="n">
-        <v>3.571428571428617</v>
+        <v>35.71428571428557</v>
       </c>
       <c r="L393" t="n">
         <v>67.97</v>
@@ -20322,7 +20344,7 @@
         <v>106.1000000000002</v>
       </c>
       <c r="K394" t="n">
-        <v>9.090909090909092</v>
+        <v>30.76923076923056</v>
       </c>
       <c r="L394" t="n">
         <v>68.08000000000001</v>
@@ -20373,7 +20395,7 @@
         <v>106.5000000000002</v>
       </c>
       <c r="K395" t="n">
-        <v>7.14285714285698</v>
+        <v>-8.333333333333384</v>
       </c>
       <c r="L395" t="n">
         <v>68.12</v>
@@ -20424,7 +20446,7 @@
         <v>106.8000000000002</v>
       </c>
       <c r="K396" t="n">
-        <v>3.703703703703742</v>
+        <v>33.33333333333288</v>
       </c>
       <c r="L396" t="n">
         <v>68.13000000000001</v>
@@ -20475,7 +20497,7 @@
         <v>106.8000000000002</v>
       </c>
       <c r="K397" t="n">
-        <v>12.00000000000014</v>
+        <v>33.33333333333288</v>
       </c>
       <c r="L397" t="n">
         <v>68.2</v>
@@ -20526,7 +20548,7 @@
         <v>106.9000000000002</v>
       </c>
       <c r="K398" t="n">
-        <v>13.72549019607846</v>
+        <v>29.99999999999929</v>
       </c>
       <c r="L398" t="n">
         <v>68.28</v>
@@ -20577,7 +20599,7 @@
         <v>107.2000000000002</v>
       </c>
       <c r="K399" t="n">
-        <v>13.72549019607846</v>
+        <v>4.761904761905084</v>
       </c>
       <c r="L399" t="n">
         <v>68.31</v>
@@ -20628,7 +20650,7 @@
         <v>107.2000000000002</v>
       </c>
       <c r="K400" t="n">
-        <v>12.00000000000014</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L400" t="n">
         <v>68.32000000000001</v>
@@ -20679,7 +20701,7 @@
         <v>107.4000000000002</v>
       </c>
       <c r="K401" t="n">
-        <v>8.333333333333432</v>
+        <v>17.6470588235299</v>
       </c>
       <c r="L401" t="n">
         <v>68.32000000000001</v>
@@ -20730,7 +20752,7 @@
         <v>107.4000000000002</v>
       </c>
       <c r="K402" t="n">
-        <v>13.04347826086973</v>
+        <v>0</v>
       </c>
       <c r="L402" t="n">
         <v>68.34999999999999</v>
@@ -20781,7 +20803,7 @@
         <v>107.6000000000002</v>
       </c>
       <c r="K403" t="n">
-        <v>21.73913043478263</v>
+        <v>6.666666666666288</v>
       </c>
       <c r="L403" t="n">
         <v>68.37</v>
@@ -20832,7 +20854,7 @@
         <v>107.9000000000002</v>
       </c>
       <c r="K404" t="n">
-        <v>19.14893617021258</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L404" t="n">
         <v>68.34999999999999</v>
@@ -20883,7 +20905,7 @@
         <v>108.0000000000002</v>
       </c>
       <c r="K405" t="n">
-        <v>11.11111111111111</v>
+        <v>-16.66666666666726</v>
       </c>
       <c r="L405" t="n">
         <v>68.36</v>
@@ -20934,7 +20956,7 @@
         <v>108.2000000000002</v>
       </c>
       <c r="K406" t="n">
-        <v>-7.317073170731622</v>
+        <v>-28.57142857142944</v>
       </c>
       <c r="L406" t="n">
         <v>68.32000000000001</v>
@@ -20985,7 +21007,7 @@
         <v>108.2000000000002</v>
       </c>
       <c r="K407" t="n">
-        <v>8.571428571428456</v>
+        <v>-38.46153846153897</v>
       </c>
       <c r="L407" t="n">
         <v>68.28</v>
@@ -21036,7 +21058,7 @@
         <v>108.2000000000002</v>
       </c>
       <c r="K408" t="n">
-        <v>8.571428571428456</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L408" t="n">
         <v>68.23</v>
@@ -21087,7 +21109,7 @@
         <v>108.2000000000002</v>
       </c>
       <c r="K409" t="n">
-        <v>3.030303030302848</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L409" t="n">
         <v>68.21000000000001</v>
@@ -21138,7 +21160,7 @@
         <v>108.4000000000002</v>
       </c>
       <c r="K410" t="n">
-        <v>3.030303030303265</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L410" t="n">
         <v>68.21000000000001</v>
@@ -21189,7 +21211,7 @@
         <v>108.6000000000002</v>
       </c>
       <c r="K411" t="n">
-        <v>-12.50000000000011</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L411" t="n">
         <v>68.17</v>
@@ -21240,7 +21262,7 @@
         <v>108.9000000000002</v>
       </c>
       <c r="K412" t="n">
-        <v>6.250000000000083</v>
+        <v>-23.07692307692291</v>
       </c>
       <c r="L412" t="n">
         <v>68.16</v>
@@ -21291,7 +21313,7 @@
         <v>109.0000000000002</v>
       </c>
       <c r="K413" t="n">
-        <v>-6.666666666666793</v>
+        <v>-9.090909090908621</v>
       </c>
       <c r="L413" t="n">
         <v>68.12</v>
@@ -21342,7 +21364,7 @@
         <v>109.2000000000002</v>
       </c>
       <c r="K414" t="n">
-        <v>-16.12903225806455</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L414" t="n">
         <v>68.09</v>
@@ -21393,7 +21415,7 @@
         <v>109.2000000000002</v>
       </c>
       <c r="K415" t="n">
-        <v>-3.703703703703508</v>
+        <v>0</v>
       </c>
       <c r="L415" t="n">
         <v>68.07000000000001</v>
@@ -21444,7 +21466,7 @@
         <v>109.2000000000002</v>
       </c>
       <c r="K416" t="n">
-        <v>-16.66666666666706</v>
+        <v>0</v>
       </c>
       <c r="L416" t="n">
         <v>68.07000000000001</v>
@@ -21495,7 +21517,7 @@
         <v>109.4000000000002</v>
       </c>
       <c r="K417" t="n">
-        <v>-7.69230769230786</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L417" t="n">
         <v>68.09</v>
@@ -21546,7 +21568,7 @@
         <v>109.4000000000002</v>
       </c>
       <c r="K418" t="n">
-        <v>-11.99999999999996</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L418" t="n">
         <v>68.11000000000001</v>
@@ -21597,7 +21619,7 @@
         <v>109.5000000000002</v>
       </c>
       <c r="K419" t="n">
-        <v>4.347826086956307</v>
+        <v>9.090909090908621</v>
       </c>
       <c r="L419" t="n">
         <v>68.14000000000001</v>
@@ -21648,7 +21670,7 @@
         <v>109.8000000000002</v>
       </c>
       <c r="K420" t="n">
-        <v>-7.69230769230786</v>
+        <v>0</v>
       </c>
       <c r="L420" t="n">
         <v>68.12</v>
@@ -21699,7 +21721,7 @@
         <v>109.8000000000002</v>
       </c>
       <c r="K421" t="n">
-        <v>-16.66666666666706</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L421" t="n">
         <v>68.12</v>
@@ -21750,7 +21772,7 @@
         <v>109.9000000000002</v>
       </c>
       <c r="K422" t="n">
-        <v>-20.00000000000023</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L422" t="n">
         <v>68.08000000000001</v>
@@ -21801,7 +21823,7 @@
         <v>110.2000000000002</v>
       </c>
       <c r="K423" t="n">
-        <v>-15.38461538461517</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L423" t="n">
         <v>68.08000000000001</v>
@@ -21852,7 +21874,7 @@
         <v>110.3000000000002</v>
       </c>
       <c r="K424" t="n">
-        <v>-8.333333333333481</v>
+        <v>9.090909090908621</v>
       </c>
       <c r="L424" t="n">
         <v>68.09</v>
@@ -21903,7 +21925,7 @@
         <v>110.7000000000002</v>
       </c>
       <c r="K425" t="n">
-        <v>11.11111111111099</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L425" t="n">
         <v>68.14000000000001</v>
@@ -21954,7 +21976,7 @@
         <v>111.3000000000002</v>
       </c>
       <c r="K426" t="n">
-        <v>-3.225806451612725</v>
+        <v>-15.78947368421045</v>
       </c>
       <c r="L426" t="n">
         <v>68.13000000000001</v>
@@ -22005,7 +22027,7 @@
         <v>111.7000000000002</v>
       </c>
       <c r="K427" t="n">
-        <v>8.571428571428525</v>
+        <v>4.347826086956307</v>
       </c>
       <c r="L427" t="n">
         <v>68.14</v>
@@ -22056,7 +22078,7 @@
         <v>111.8000000000002</v>
       </c>
       <c r="K428" t="n">
-        <v>5.555555555555665</v>
+        <v>-4.347826086956307</v>
       </c>
       <c r="L428" t="n">
         <v>68.14</v>
@@ -22107,7 +22129,7 @@
         <v>111.9000000000002</v>
       </c>
       <c r="K429" t="n">
-        <v>2.702702702702557</v>
+        <v>4.761904761904504</v>
       </c>
       <c r="L429" t="n">
         <v>68.12</v>
@@ -22158,7 +22180,7 @@
         <v>111.9000000000002</v>
       </c>
       <c r="K430" t="n">
-        <v>-2.857142857143113</v>
+        <v>4.761904761904504</v>
       </c>
       <c r="L430" t="n">
         <v>68.13000000000001</v>
@@ -22209,7 +22231,7 @@
         <v>111.9000000000002</v>
       </c>
       <c r="K431" t="n">
-        <v>3.030303030302874</v>
+        <v>9.999999999999432</v>
       </c>
       <c r="L431" t="n">
         <v>68.14000000000001</v>
@@ -22260,7 +22282,7 @@
         <v>111.9000000000002</v>
       </c>
       <c r="K432" t="n">
-        <v>-6.666666666666793</v>
+        <v>-5.882352941176962</v>
       </c>
       <c r="L432" t="n">
         <v>68.16000000000001</v>
@@ -22311,7 +22333,7 @@
         <v>112.1000000000002</v>
       </c>
       <c r="K433" t="n">
-        <v>-9.67741935483868</v>
+        <v>-11.11111111111058</v>
       </c>
       <c r="L433" t="n">
         <v>68.13000000000001</v>
@@ -22362,7 +22384,7 @@
         <v>112.2000000000002</v>
       </c>
       <c r="K434" t="n">
-        <v>0</v>
+        <v>-33.33333333333396</v>
       </c>
       <c r="L434" t="n">
         <v>68.12</v>
@@ -22413,7 +22435,7 @@
         <v>112.2000000000002</v>
       </c>
       <c r="K435" t="n">
-        <v>0</v>
+        <v>11.11111111111076</v>
       </c>
       <c r="L435" t="n">
         <v>68.07000000000001</v>
@@ -22464,7 +22486,7 @@
         <v>112.4000000000002</v>
       </c>
       <c r="K436" t="n">
-        <v>-6.250000000000139</v>
+        <v>-71.42857142857258</v>
       </c>
       <c r="L436" t="n">
         <v>68.06</v>
@@ -22515,7 +22537,7 @@
         <v>112.5000000000002</v>
       </c>
       <c r="K437" t="n">
-        <v>-16.12903225806469</v>
+        <v>-71.42857142857258</v>
       </c>
       <c r="L437" t="n">
         <v>68.00000000000001</v>
@@ -22566,7 +22588,7 @@
         <v>112.8000000000002</v>
       </c>
       <c r="K438" t="n">
-        <v>-23.52941176470605</v>
+        <v>-77.77777777777848</v>
       </c>
       <c r="L438" t="n">
         <v>67.92</v>
@@ -22617,7 +22639,7 @@
         <v>113.0000000000002</v>
       </c>
       <c r="K439" t="n">
-        <v>-20.00000000000033</v>
+        <v>-45.45454545454686</v>
       </c>
       <c r="L439" t="n">
         <v>67.87</v>
@@ -22668,7 +22690,7 @@
         <v>113.0000000000002</v>
       </c>
       <c r="K440" t="n">
-        <v>-12.50000000000033</v>
+        <v>-45.45454545454686</v>
       </c>
       <c r="L440" t="n">
         <v>67.82000000000001</v>
@@ -22719,7 +22741,7 @@
         <v>113.2000000000001</v>
       </c>
       <c r="K441" t="n">
-        <v>-17.64705882352951</v>
+        <v>-53.84615384615486</v>
       </c>
       <c r="L441" t="n">
         <v>67.75</v>
@@ -22770,7 +22792,7 @@
         <v>113.5000000000001</v>
       </c>
       <c r="K442" t="n">
-        <v>-5.555555555555709</v>
+        <v>-14.28571428571487</v>
       </c>
       <c r="L442" t="n">
         <v>67.71000000000001</v>
@@ -22821,7 +22843,7 @@
         <v>113.6000000000002</v>
       </c>
       <c r="K443" t="n">
-        <v>-17.64705882352985</v>
+        <v>-28.57142857142944</v>
       </c>
       <c r="L443" t="n">
         <v>67.68000000000001</v>
@@ -22872,7 +22894,7 @@
         <v>114.2000000000001</v>
       </c>
       <c r="K444" t="n">
-        <v>-28.20512820512843</v>
+        <v>-50.00000000000071</v>
       </c>
       <c r="L444" t="n">
         <v>67.58000000000001</v>
@@ -22923,7 +22945,7 @@
         <v>114.7000000000001</v>
       </c>
       <c r="K445" t="n">
-        <v>-25.00000000000036</v>
+        <v>-13.04347826086962</v>
       </c>
       <c r="L445" t="n">
         <v>67.53</v>
@@ -22974,7 +22996,7 @@
         <v>115.0000000000001</v>
       </c>
       <c r="K446" t="n">
-        <v>-18.91891891891927</v>
+        <v>-20.00000000000023</v>
       </c>
       <c r="L446" t="n">
         <v>67.47000000000001</v>
@@ -23025,7 +23047,7 @@
         <v>115.2000000000001</v>
       </c>
       <c r="K447" t="n">
-        <v>-37.14285714285752</v>
+        <v>-16.66666666666706</v>
       </c>
       <c r="L447" t="n">
         <v>67.40000000000001</v>
@@ -23076,7 +23098,7 @@
         <v>115.5000000000001</v>
       </c>
       <c r="K448" t="n">
-        <v>-40.54054054054097</v>
+        <v>-35.99999999999986</v>
       </c>
       <c r="L448" t="n">
         <v>67.33000000000001</v>
@@ -23127,7 +23149,7 @@
         <v>116.5000000000001</v>
       </c>
       <c r="K449" t="n">
-        <v>-52.17391304347863</v>
+        <v>-54.28571428571426</v>
       </c>
       <c r="L449" t="n">
         <v>67.14000000000001</v>
@@ -23178,7 +23200,7 @@
         <v>116.6000000000002</v>
       </c>
       <c r="K450" t="n">
-        <v>-53.19148936170258</v>
+        <v>-52.94117647058848</v>
       </c>
       <c r="L450" t="n">
         <v>66.94000000000003</v>
@@ -23229,7 +23251,7 @@
         <v>116.7000000000002</v>
       </c>
       <c r="K451" t="n">
-        <v>-50.00000000000014</v>
+        <v>-62.49999999999967</v>
       </c>
       <c r="L451" t="n">
         <v>66.77000000000002</v>
@@ -23280,7 +23302,7 @@
         <v>117.4000000000002</v>
       </c>
       <c r="K452" t="n">
-        <v>-30.90909090909086</v>
+        <v>-31.57894736842066</v>
       </c>
       <c r="L452" t="n">
         <v>66.64000000000001</v>
@@ -23331,7 +23353,7 @@
         <v>117.5000000000002</v>
       </c>
       <c r="K453" t="n">
-        <v>-25.92592592592614</v>
+        <v>-15.1515151515151</v>
       </c>
       <c r="L453" t="n">
         <v>66.53000000000002</v>
@@ -23382,7 +23404,7 @@
         <v>118.0000000000002</v>
       </c>
       <c r="K454" t="n">
-        <v>-34.48275862068976</v>
+        <v>-45.4545454545453</v>
       </c>
       <c r="L454" t="n">
         <v>66.43000000000002</v>
@@ -23433,7 +23455,7 @@
         <v>118.0000000000002</v>
       </c>
       <c r="K455" t="n">
-        <v>-34.48275862068976</v>
+        <v>-39.99999999999991</v>
       </c>
       <c r="L455" t="n">
         <v>66.28000000000002</v>
@@ -23484,7 +23506,7 @@
         <v>118.0000000000002</v>
       </c>
       <c r="K456" t="n">
-        <v>-32.14285714285721</v>
+        <v>-35.71428571428557</v>
       </c>
       <c r="L456" t="n">
         <v>66.16000000000001</v>
@@ -23535,7 +23557,7 @@
         <v>118.0000000000002</v>
       </c>
       <c r="K457" t="n">
-        <v>-30.90909090909104</v>
+        <v>-27.99999999999995</v>
       </c>
       <c r="L457" t="n">
         <v>66.06000000000002</v>
@@ -23586,7 +23608,7 @@
         <v>118.0000000000002</v>
       </c>
       <c r="K458" t="n">
-        <v>-26.92307692307709</v>
+        <v>19.99999999999962</v>
       </c>
       <c r="L458" t="n">
         <v>65.99000000000001</v>
@@ -23637,7 +23659,7 @@
         <v>118.1000000000002</v>
       </c>
       <c r="K459" t="n">
-        <v>-33.33333333333315</v>
+        <v>20.00000000000076</v>
       </c>
       <c r="L459" t="n">
         <v>66.01000000000001</v>
@@ -23688,7 +23710,7 @@
         <v>118.3000000000002</v>
       </c>
       <c r="K460" t="n">
-        <v>-35.84905660377344</v>
+        <v>0</v>
       </c>
       <c r="L460" t="n">
         <v>66.02000000000001</v>
@@ -23739,7 +23761,7 @@
         <v>118.3000000000002</v>
       </c>
       <c r="K461" t="n">
-        <v>-33.33333333333333</v>
+        <v>-77.77777777777884</v>
       </c>
       <c r="L461" t="n">
         <v>66.02000000000001</v>
@@ -23790,7 +23812,7 @@
         <v>118.6000000000002</v>
       </c>
       <c r="K462" t="n">
-        <v>-33.33333333333333</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L462" t="n">
         <v>65.98</v>
@@ -23841,7 +23863,7 @@
         <v>118.7000000000001</v>
       </c>
       <c r="K463" t="n">
-        <v>-33.33333333333315</v>
+        <v>-14.28571428571371</v>
       </c>
       <c r="L463" t="n">
         <v>65.92</v>
@@ -23892,7 +23914,7 @@
         <v>119.0000000000002</v>
       </c>
       <c r="K464" t="n">
-        <v>-29.16666666666672</v>
+        <v>-40.00000000000057</v>
       </c>
       <c r="L464" t="n">
         <v>65.88000000000001</v>
@@ -23943,7 +23965,7 @@
         <v>119.3000000000002</v>
       </c>
       <c r="K465" t="n">
-        <v>-34.78260869565188</v>
+        <v>-7.692307692307187</v>
       </c>
       <c r="L465" t="n">
         <v>65.87</v>
@@ -23994,7 +24016,7 @@
         <v>119.4000000000002</v>
       </c>
       <c r="K466" t="n">
-        <v>-31.8181818181817</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L466" t="n">
         <v>65.84999999999999</v>
@@ -24045,7 +24067,7 @@
         <v>119.5000000000002</v>
       </c>
       <c r="K467" t="n">
-        <v>-25.58139534883684</v>
+        <v>-6.666666666666162</v>
       </c>
       <c r="L467" t="n">
         <v>65.84</v>
@@ -24096,7 +24118,7 @@
         <v>119.5000000000002</v>
       </c>
       <c r="K468" t="n">
-        <v>-19.99999999999972</v>
+        <v>0</v>
       </c>
       <c r="L468" t="n">
         <v>65.83</v>
@@ -24147,7 +24169,7 @@
         <v>119.5000000000002</v>
       </c>
       <c r="K469" t="n">
-        <v>6.666666666666667</v>
+        <v>16.66666666666647</v>
       </c>
       <c r="L469" t="n">
         <v>65.83</v>
@@ -24198,7 +24220,7 @@
         <v>119.5000000000002</v>
       </c>
       <c r="K470" t="n">
-        <v>10.34482758620717</v>
+        <v>16.66666666666647</v>
       </c>
       <c r="L470" t="n">
         <v>65.84999999999999</v>
@@ -24249,7 +24271,7 @@
         <v>119.6000000000002</v>
       </c>
       <c r="K471" t="n">
-        <v>3.448275862068729</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L471" t="n">
         <v>65.85999999999999</v>
@@ -24300,7 +24322,7 @@
         <v>119.8000000000002</v>
       </c>
       <c r="K472" t="n">
-        <v>-16.66666666666666</v>
+        <v>9.090909090908152</v>
       </c>
       <c r="L472" t="n">
         <v>65.85999999999999</v>
@@ -24351,7 +24373,7 @@
         <v>119.8000000000002</v>
       </c>
       <c r="K473" t="n">
-        <v>-21.73913043478223</v>
+        <v>49.99999999999822</v>
       </c>
       <c r="L473" t="n">
         <v>65.86999999999998</v>
@@ -24402,7 +24424,7 @@
         <v>119.9000000000002</v>
       </c>
       <c r="K474" t="n">
-        <v>5.263157894736448</v>
+        <v>33.33333333333017</v>
       </c>
       <c r="L474" t="n">
         <v>65.91999999999999</v>
@@ -24453,7 +24475,7 @@
         <v>120.0000000000002</v>
       </c>
       <c r="K475" t="n">
-        <v>9.999999999999929</v>
+        <v>66.66666666666508</v>
       </c>
       <c r="L475" t="n">
         <v>65.94999999999999</v>
@@ -24504,7 +24526,7 @@
         <v>120.1000000000002</v>
       </c>
       <c r="K476" t="n">
-        <v>14.2857142857139</v>
+        <v>66.6666666666643</v>
       </c>
       <c r="L476" t="n">
         <v>65.99999999999999</v>
@@ -24555,7 +24577,7 @@
         <v>120.2000000000002</v>
       </c>
       <c r="K477" t="n">
-        <v>18.18181818181807</v>
+        <v>71.42857142856968</v>
       </c>
       <c r="L477" t="n">
         <v>66.04999999999998</v>
@@ -24606,7 +24628,7 @@
         <v>120.2000000000002</v>
       </c>
       <c r="K478" t="n">
-        <v>18.18181818181807</v>
+        <v>71.42857142856968</v>
       </c>
       <c r="L478" t="n">
         <v>66.09999999999999</v>
@@ -24657,7 +24679,7 @@
         <v>120.4000000000002</v>
       </c>
       <c r="K479" t="n">
-        <v>30.43478260869463</v>
+        <v>77.77777777777602</v>
       </c>
       <c r="L479" t="n">
         <v>66.16999999999999</v>
@@ -24708,7 +24730,7 @@
         <v>120.7000000000002</v>
       </c>
       <c r="K480" t="n">
-        <v>49.99999999999911</v>
+        <v>100</v>
       </c>
       <c r="L480" t="n">
         <v>66.27</v>
@@ -24759,7 +24781,7 @@
         <v>121.0000000000002</v>
       </c>
       <c r="K481" t="n">
-        <v>33.33333333333228</v>
+        <v>49.99999999999882</v>
       </c>
       <c r="L481" t="n">
         <v>66.34999999999999</v>
@@ -24810,7 +24832,7 @@
         <v>121.4000000000002</v>
       </c>
       <c r="K482" t="n">
-        <v>35.71428571428484</v>
+        <v>62.49999999999911</v>
       </c>
       <c r="L482" t="n">
         <v>66.45</v>
@@ -24861,7 +24883,7 @@
         <v>121.8000000000002</v>
       </c>
       <c r="K483" t="n">
-        <v>22.58064516128938</v>
+        <v>26.31578947368374</v>
       </c>
       <c r="L483" t="n">
         <v>66.51000000000001</v>
@@ -24912,7 +24934,7 @@
         <v>121.9000000000002</v>
       </c>
       <c r="K484" t="n">
-        <v>37.93103448275791</v>
+        <v>26.31578947368374</v>
       </c>
       <c r="L484" t="n">
         <v>66.57000000000001</v>
@@ -24963,7 +24985,7 @@
         <v>122.1000000000002</v>
       </c>
       <c r="K485" t="n">
-        <v>21.4285714285707</v>
+        <v>9.999999999999929</v>
       </c>
       <c r="L485" t="n">
         <v>66.59999999999999</v>
@@ -25014,7 +25036,7 @@
         <v>122.3000000000002</v>
       </c>
       <c r="K486" t="n">
-        <v>31.03448275862022</v>
+        <v>14.2857142857139</v>
       </c>
       <c r="L486" t="n">
         <v>66.64000000000001</v>
@@ -25065,7 +25087,7 @@
         <v>122.4000000000002</v>
       </c>
       <c r="K487" t="n">
-        <v>24.13793103448184</v>
+        <v>9.090909090908387</v>
       </c>
       <c r="L487" t="n">
         <v>66.66000000000001</v>
@@ -25116,7 +25138,7 @@
         <v>122.4000000000002</v>
       </c>
       <c r="K488" t="n">
-        <v>24.13793103448184</v>
+        <v>0</v>
       </c>
       <c r="L488" t="n">
         <v>66.68000000000002</v>
@@ -25167,7 +25189,7 @@
         <v>122.4000000000002</v>
       </c>
       <c r="K489" t="n">
-        <v>24.13793103448184</v>
+        <v>-17.64705882352961</v>
       </c>
       <c r="L489" t="n">
         <v>66.68000000000002</v>
@@ -25218,7 +25240,7 @@
         <v>122.5000000000002</v>
       </c>
       <c r="K490" t="n">
-        <v>19.99999999999943</v>
+        <v>-6.666666666666162</v>
       </c>
       <c r="L490" t="n">
         <v>66.64000000000001</v>
@@ -25269,7 +25291,7 @@
         <v>122.5000000000002</v>
       </c>
       <c r="K491" t="n">
-        <v>24.13793103448246</v>
+        <v>-45.45454545454452</v>
       </c>
       <c r="L491" t="n">
         <v>66.63000000000002</v>
@@ -25320,7 +25342,7 @@
         <v>122.5000000000002</v>
       </c>
       <c r="K492" t="n">
-        <v>18.51851851851821</v>
+        <v>-14.28571428571312</v>
       </c>
       <c r="L492" t="n">
         <v>66.58000000000001</v>
@@ -25371,7 +25393,7 @@
         <v>122.8000000000002</v>
       </c>
       <c r="K493" t="n">
-        <v>6.666666666666667</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L493" t="n">
         <v>66.54000000000002</v>
@@ -25422,7 +25444,7 @@
         <v>123.4000000000002</v>
       </c>
       <c r="K494" t="n">
-        <v>-14.28571428571405</v>
+        <v>-69.23076923076906</v>
       </c>
       <c r="L494" t="n">
         <v>66.43000000000002</v>
@@ -25473,7 +25495,7 @@
         <v>123.5000000000003</v>
       </c>
       <c r="K495" t="n">
-        <v>-14.28571428571405</v>
+        <v>-83.33333333333215</v>
       </c>
       <c r="L495" t="n">
         <v>66.35000000000002</v>
@@ -25524,7 +25546,7 @@
         <v>123.5000000000003</v>
       </c>
       <c r="K496" t="n">
-        <v>-17.64705882352892</v>
+        <v>-81.81818181818042</v>
       </c>
       <c r="L496" t="n">
         <v>66.25000000000003</v>
@@ -25575,7 +25597,7 @@
         <v>123.5000000000003</v>
       </c>
       <c r="K497" t="n">
-        <v>-21.21212121212095</v>
+        <v>-81.81818181818042</v>
       </c>
       <c r="L497" t="n">
         <v>66.16000000000003</v>
@@ -25626,7 +25648,7 @@
         <v>123.6000000000003</v>
       </c>
       <c r="K498" t="n">
-        <v>-23.52941176470578</v>
+        <v>-83.33333333333215</v>
       </c>
       <c r="L498" t="n">
         <v>66.06000000000003</v>
@@ -25677,7 +25699,7 @@
         <v>123.6000000000003</v>
       </c>
       <c r="K499" t="n">
-        <v>-31.24999999999928</v>
+        <v>-81.81818181818065</v>
       </c>
       <c r="L499" t="n">
         <v>65.96000000000002</v>
@@ -25728,7 +25750,7 @@
         <v>123.8000000000003</v>
       </c>
       <c r="K500" t="n">
-        <v>-48.38709677419275</v>
+        <v>-84.61538461538343</v>
       </c>
       <c r="L500" t="n">
         <v>65.85000000000002</v>
@@ -25779,7 +25801,7 @@
         <v>124.0000000000003</v>
       </c>
       <c r="K501" t="n">
-        <v>-46.66666666666572</v>
+        <v>-86.66666666666566</v>
       </c>
       <c r="L501" t="n">
         <v>65.72000000000003</v>
@@ -25830,7 +25852,7 @@
         <v>124.5000000000003</v>
       </c>
       <c r="K502" t="n">
-        <v>-74.1935483870958</v>
+        <v>-88.23529411764618</v>
       </c>
       <c r="L502" t="n">
         <v>65.54000000000003</v>
@@ -25881,7 +25903,7 @@
         <v>125.0000000000003</v>
       </c>
       <c r="K503" t="n">
-        <v>-74.99999999999901</v>
+        <v>-87.49999999999901</v>
       </c>
       <c r="L503" t="n">
         <v>65.34000000000003</v>
@@ -25932,7 +25954,7 @@
         <v>125.1000000000003</v>
       </c>
       <c r="K504" t="n">
-        <v>-74.99999999999977</v>
+        <v>-87.50000000000067</v>
       </c>
       <c r="L504" t="n">
         <v>65.21000000000002</v>
@@ -25983,7 +26005,7 @@
         <v>125.2000000000002</v>
       </c>
       <c r="K505" t="n">
-        <v>-74.19354838709647</v>
+        <v>-88.23529411764764</v>
       </c>
       <c r="L505" t="n">
         <v>65.06000000000003</v>
@@ -26034,7 +26056,7 @@
         <v>125.5000000000002</v>
       </c>
       <c r="K506" t="n">
-        <v>-68.75000000000003</v>
+        <v>-60.00000000000056</v>
       </c>
       <c r="L506" t="n">
         <v>64.94000000000003</v>
@@ -26085,7 +26107,7 @@
         <v>125.7000000000002</v>
       </c>
       <c r="K507" t="n">
-        <v>-69.69696969696967</v>
+        <v>-61.90476190476235</v>
       </c>
       <c r="L507" t="n">
         <v>64.80000000000001</v>
@@ -26136,7 +26158,7 @@
         <v>126.5000000000002</v>
       </c>
       <c r="K508" t="n">
-        <v>-75.60975609756095</v>
+        <v>-72.41379310344864</v>
       </c>
       <c r="L508" t="n">
         <v>64.59</v>
@@ -26187,7 +26209,7 @@
         <v>126.6000000000003</v>
       </c>
       <c r="K509" t="n">
-        <v>-76.19047619047605</v>
+        <v>-71.42857142857176</v>
       </c>
       <c r="L509" t="n">
         <v>64.37</v>
@@ -26238,7 +26260,7 @@
         <v>126.8000000000003</v>
       </c>
       <c r="K510" t="n">
-        <v>-67.44186046511606</v>
+        <v>-57.14285714285725</v>
       </c>
       <c r="L510" t="n">
         <v>64.19000000000001</v>
@@ -26289,7 +26311,7 @@
         <v>127.0000000000003</v>
       </c>
       <c r="K511" t="n">
-        <v>-59.99999999999987</v>
+        <v>-36.00000000000023</v>
       </c>
       <c r="L511" t="n">
         <v>64.05</v>
@@ -26340,7 +26362,7 @@
         <v>127.4000000000003</v>
       </c>
       <c r="K512" t="n">
-        <v>-63.26530612244875</v>
+        <v>-33.33333333333343</v>
       </c>
       <c r="L512" t="n">
         <v>63.91999999999999</v>
@@ -26391,7 +26413,7 @@
         <v>127.7000000000003</v>
       </c>
       <c r="K513" t="n">
-        <v>-51.02040816326495</v>
+        <v>-23.07692307692266</v>
       </c>
       <c r="L513" t="n">
         <v>63.86999999999999</v>
@@ -26442,7 +26464,7 @@
         <v>127.8000000000003</v>
       </c>
       <c r="K514" t="n">
-        <v>-40.90909090909066</v>
+        <v>-15.38461538461547</v>
       </c>
       <c r="L514" t="n">
         <v>63.81999999999999</v>
@@ -26493,7 +26515,7 @@
         <v>128.0000000000003</v>
       </c>
       <c r="K515" t="n">
-        <v>-37.77777777777761</v>
+        <v>-19.99999999999966</v>
       </c>
       <c r="L515" t="n">
         <v>63.79999999999999</v>
@@ -26544,7 +26566,7 @@
         <v>128.0000000000003</v>
       </c>
       <c r="K516" t="n">
-        <v>-37.77777777777761</v>
+        <v>-13.04347826086921</v>
       </c>
       <c r="L516" t="n">
         <v>63.74999999999999</v>
@@ -26595,7 +26617,7 @@
         <v>128.2000000000003</v>
       </c>
       <c r="K517" t="n">
-        <v>-40.42553191489359</v>
+        <v>17.64705882352892</v>
       </c>
       <c r="L517" t="n">
         <v>63.69999999999999</v>
@@ -26646,7 +26668,7 @@
         <v>128.3000000000003</v>
       </c>
       <c r="K518" t="n">
-        <v>-40.42553191489341</v>
+        <v>17.64705882352948</v>
       </c>
       <c r="L518" t="n">
         <v>63.71999999999999</v>
@@ -26697,7 +26719,7 @@
         <v>128.4000000000003</v>
       </c>
       <c r="K519" t="n">
-        <v>-37.49999999999996</v>
+        <v>12.49999999999967</v>
       </c>
       <c r="L519" t="n">
         <v>63.75999999999999</v>
@@ -26748,7 +26770,7 @@
         <v>128.5000000000003</v>
       </c>
       <c r="K520" t="n">
-        <v>-31.91489361702141</v>
+        <v>6.666666666666761</v>
       </c>
       <c r="L520" t="n">
         <v>63.78999999999998</v>
@@ -26799,7 +26821,7 @@
         <v>128.6000000000003</v>
       </c>
       <c r="K521" t="n">
-        <v>-30.43478260869582</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L521" t="n">
         <v>63.78999999999998</v>
@@ -26850,7 +26872,7 @@
         <v>128.8000000000002</v>
       </c>
       <c r="K522" t="n">
-        <v>-25.58139534883734</v>
+        <v>-9.090909090909502</v>
       </c>
       <c r="L522" t="n">
         <v>63.80999999999999</v>
@@ -26901,7 +26923,7 @@
         <v>129.0000000000002</v>
       </c>
       <c r="K523" t="n">
-        <v>-20.00000000000025</v>
+        <v>-33.33333333333432</v>
       </c>
       <c r="L523" t="n">
         <v>63.77999999999999</v>
@@ -26952,7 +26974,7 @@
         <v>129.4000000000002</v>
       </c>
       <c r="K524" t="n">
-        <v>-11.62790697674423</v>
+        <v>-14.28571428571501</v>
       </c>
       <c r="L524" t="n">
         <v>63.77999999999999</v>
@@ -27003,7 +27025,7 @@
         <v>129.4000000000002</v>
       </c>
       <c r="K525" t="n">
-        <v>-9.523809523809684</v>
+        <v>-14.28571428571501</v>
       </c>
       <c r="L525" t="n">
         <v>63.75999999999998</v>
@@ -27054,7 +27076,7 @@
         <v>129.5000000000002</v>
       </c>
       <c r="K526" t="n">
-        <v>-15.00000000000009</v>
+        <v>7.69230769230807</v>
       </c>
       <c r="L526" t="n">
         <v>63.74999999999998</v>
@@ -27105,7 +27127,7 @@
         <v>129.6000000000002</v>
       </c>
       <c r="K527" t="n">
-        <v>-12.82051282051289</v>
+        <v>7.692307692307525</v>
       </c>
       <c r="L527" t="n">
         <v>63.74999999999998</v>
@@ -27156,7 +27178,7 @@
         <v>129.8000000000002</v>
       </c>
       <c r="K528" t="n">
-        <v>3.030303030303102</v>
+        <v>-14.2857142857145</v>
       </c>
       <c r="L528" t="n">
         <v>63.73999999999997</v>
@@ -27207,7 +27229,7 @@
         <v>130.0000000000002</v>
       </c>
       <c r="K529" t="n">
-        <v>11.76470588235308</v>
+        <v>-6.666666666667013</v>
       </c>
       <c r="L529" t="n">
         <v>63.73999999999997</v>
@@ -27258,7 +27280,7 @@
         <v>130.2000000000002</v>
       </c>
       <c r="K530" t="n">
-        <v>11.76470588235303</v>
+        <v>12.50000000000044</v>
       </c>
       <c r="L530" t="n">
         <v>63.74999999999998</v>
@@ -27309,7 +27331,7 @@
         <v>130.2000000000002</v>
       </c>
       <c r="K531" t="n">
-        <v>6.250000000000167</v>
+        <v>28.57142857142894</v>
       </c>
       <c r="L531" t="n">
         <v>63.76999999999998</v>
@@ -27360,7 +27382,7 @@
         <v>130.2000000000002</v>
       </c>
       <c r="K532" t="n">
-        <v>21.42857142857183</v>
+        <v>50.00000000000059</v>
       </c>
       <c r="L532" t="n">
         <v>63.80999999999998</v>
@@ -27411,7 +27433,7 @@
         <v>130.5000000000002</v>
       </c>
       <c r="K533" t="n">
-        <v>21.42857142857157</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L533" t="n">
         <v>63.89999999999998</v>
@@ -27462,7 +27484,7 @@
         <v>130.8000000000002</v>
       </c>
       <c r="K534" t="n">
-        <v>26.66666666666683</v>
+        <v>57.14285714285671</v>
       </c>
       <c r="L534" t="n">
         <v>63.97999999999998</v>
@@ -27513,7 +27535,7 @@
         <v>130.8000000000002</v>
       </c>
       <c r="K535" t="n">
-        <v>21.42857142857157</v>
+        <v>53.84615384615304</v>
       </c>
       <c r="L535" t="n">
         <v>64.05999999999999</v>
@@ -27564,7 +27586,7 @@
         <v>131.2000000000002</v>
       </c>
       <c r="K536" t="n">
-        <v>6.250000000000222</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L536" t="n">
         <v>64.09</v>
@@ -27615,7 +27637,7 @@
         <v>132.7000000000002</v>
       </c>
       <c r="K537" t="n">
-        <v>42.22222222222288</v>
+        <v>72.41379310344819</v>
       </c>
       <c r="L537" t="n">
         <v>64.28</v>
@@ -27666,7 +27688,7 @@
         <v>133.8000000000002</v>
       </c>
       <c r="K538" t="n">
-        <v>16.3636363636363</v>
+        <v>21.05263157894707</v>
       </c>
       <c r="L538" t="n">
         <v>64.38000000000001</v>
@@ -27717,7 +27739,7 @@
         <v>133.8000000000002</v>
       </c>
       <c r="K539" t="n">
-        <v>14.81481481481483</v>
+        <v>16.6666666666664</v>
       </c>
       <c r="L539" t="n">
         <v>64.46000000000001</v>
@@ -27768,7 +27790,7 @@
         <v>133.9000000000003</v>
       </c>
       <c r="K540" t="n">
-        <v>14.81481481481488</v>
+        <v>18.91891891891876</v>
       </c>
       <c r="L540" t="n">
         <v>64.53000000000002</v>
@@ -27819,7 +27841,7 @@
         <v>134.2000000000003</v>
       </c>
       <c r="K541" t="n">
-        <v>21.42857142857139</v>
+        <v>24.99999999999964</v>
       </c>
       <c r="L541" t="n">
         <v>64.63000000000002</v>
@@ -27870,7 +27892,7 @@
         <v>135.0000000000003</v>
       </c>
       <c r="K542" t="n">
-        <v>9.677419354838662</v>
+        <v>-2.222222222222068</v>
       </c>
       <c r="L542" t="n">
         <v>64.65000000000002</v>
@@ -27921,7 +27943,7 @@
         <v>135.6000000000003</v>
       </c>
       <c r="K543" t="n">
-        <v>21.21212121212103</v>
+        <v>4.166666666666692</v>
       </c>
       <c r="L543" t="n">
         <v>64.70000000000002</v>
@@ -27972,7 +27994,7 @@
         <v>135.7000000000003</v>
       </c>
       <c r="K544" t="n">
-        <v>17.46031746031748</v>
+        <v>6.122448979592026</v>
       </c>
       <c r="L544" t="n">
         <v>64.73000000000002</v>
@@ -28023,7 +28045,7 @@
         <v>135.9000000000003</v>
       </c>
       <c r="K545" t="n">
-        <v>13.84615384615387</v>
+        <v>10.63829787234032</v>
       </c>
       <c r="L545" t="n">
         <v>64.74000000000002</v>
@@ -28074,7 +28096,7 @@
         <v>136.2000000000003</v>
       </c>
       <c r="K546" t="n">
-        <v>16.4179104477611</v>
+        <v>-19.99999999999976</v>
       </c>
       <c r="L546" t="n">
         <v>64.82000000000002</v>
@@ -28125,7 +28147,7 @@
         <v>136.2000000000003</v>
       </c>
       <c r="K547" t="n">
-        <v>18.18181818181808</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L547" t="n">
         <v>64.75000000000001</v>
@@ -28176,7 +28198,7 @@
         <v>136.2000000000003</v>
       </c>
       <c r="K548" t="n">
-        <v>21.87499999999977</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L548" t="n">
         <v>64.79000000000001</v>
@@ -28227,7 +28249,7 @@
         <v>136.2000000000003</v>
       </c>
       <c r="K549" t="n">
-        <v>19.35483870967724</v>
+        <v>13.04347826086938</v>
       </c>
       <c r="L549" t="n">
         <v>64.83000000000001</v>
@@ -28278,7 +28300,7 @@
         <v>136.2000000000003</v>
       </c>
       <c r="K550" t="n">
-        <v>16.66666666666651</v>
+        <v>0</v>
       </c>
       <c r="L550" t="n">
         <v>64.86</v>
@@ -28329,7 +28351,7 @@
         <v>136.5000000000003</v>
       </c>
       <c r="K551" t="n">
-        <v>11.11111111111104</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L551" t="n">
         <v>64.83000000000001</v>
@@ -28380,7 +28402,7 @@
         <v>136.8000000000003</v>
       </c>
       <c r="K552" t="n">
-        <v>15.15151515151497</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L552" t="n">
         <v>64.91</v>
@@ -28431,7 +28453,7 @@
         <v>137.3000000000003</v>
       </c>
       <c r="K553" t="n">
-        <v>2.941176470588248</v>
+        <v>-25</v>
       </c>
       <c r="L553" t="n">
         <v>64.88000000000001</v>
@@ -28482,7 +28504,7 @@
         <v>137.8000000000003</v>
       </c>
       <c r="K554" t="n">
-        <v>5.714285714285749</v>
+        <v>15.78947368421009</v>
       </c>
       <c r="L554" t="n">
         <v>64.89000000000001</v>
@@ -28533,7 +28555,7 @@
         <v>138.6000000000003</v>
       </c>
       <c r="K555" t="n">
-        <v>-5.128205128204974</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L555" t="n">
         <v>64.84</v>
@@ -28584,7 +28606,7 @@
         <v>139.3000000000003</v>
       </c>
       <c r="K556" t="n">
-        <v>8.641975308641925</v>
+        <v>-3.225806451612697</v>
       </c>
       <c r="L556" t="n">
         <v>64.83000000000001</v>
@@ -28635,7 +28657,7 @@
         <v>139.8000000000003</v>
       </c>
       <c r="K557" t="n">
-        <v>-18.30985915492933</v>
+        <v>-16.6666666666664</v>
       </c>
       <c r="L557" t="n">
         <v>64.77000000000001</v>
@@ -28686,7 +28708,7 @@
         <v>139.9000000000003</v>
       </c>
       <c r="K558" t="n">
-        <v>-1.639344262294975</v>
+        <v>-13.51351351351345</v>
       </c>
       <c r="L558" t="n">
         <v>64.72</v>
@@ -28737,7 +28759,7 @@
         <v>139.9000000000003</v>
       </c>
       <c r="K559" t="n">
-        <v>-1.639344262294975</v>
+        <v>-13.51351351351345</v>
       </c>
       <c r="L559" t="n">
         <v>64.67</v>
@@ -28788,7 +28810,7 @@
         <v>140.2000000000003</v>
       </c>
       <c r="K560" t="n">
-        <v>-7.936507936507923</v>
+        <v>-13.51351351351356</v>
       </c>
       <c r="L560" t="n">
         <v>64.59</v>
@@ -28839,7 +28861,7 @@
         <v>140.6000000000003</v>
       </c>
       <c r="K561" t="n">
-        <v>-18.75000000000003</v>
+        <v>-31.57894736842127</v>
       </c>
       <c r="L561" t="n">
         <v>64.5</v>
@@ -28890,7 +28912,7 @@
         <v>140.7000000000003</v>
       </c>
       <c r="K562" t="n">
-        <v>-5.263157894736927</v>
+        <v>-17.64705882352957</v>
       </c>
       <c r="L562" t="n">
         <v>64.39</v>
@@ -28941,7 +28963,7 @@
         <v>140.7000000000003</v>
       </c>
       <c r="K563" t="n">
-        <v>-17.64705882352941</v>
+        <v>-37.93103448275897</v>
       </c>
       <c r="L563" t="n">
         <v>64.33</v>
@@ -28992,7 +29014,7 @@
         <v>141.2000000000003</v>
       </c>
       <c r="K564" t="n">
-        <v>-27.2727272727274</v>
+        <v>-30.76923076923134</v>
       </c>
       <c r="L564" t="n">
         <v>64.16999999999999</v>
@@ -29043,7 +29065,7 @@
         <v>141.7000000000003</v>
       </c>
       <c r="K565" t="n">
-        <v>-13.79310344827591</v>
+        <v>-41.66666666666735</v>
       </c>
       <c r="L565" t="n">
         <v>64.13999999999999</v>
@@ -29094,7 +29116,7 @@
         <v>141.8000000000003</v>
       </c>
       <c r="K566" t="n">
-        <v>-21.4285714285715</v>
+        <v>-30.00000000000085</v>
       </c>
       <c r="L566" t="n">
         <v>64.02999999999999</v>
@@ -29145,7 +29167,7 @@
         <v>141.8000000000003</v>
       </c>
       <c r="K567" t="n">
-        <v>-21.4285714285715</v>
+        <v>-36.84210526315849</v>
       </c>
       <c r="L567" t="n">
         <v>63.96999999999998</v>
@@ -29196,7 +29218,7 @@
         <v>141.8000000000003</v>
       </c>
       <c r="K568" t="n">
-        <v>-21.4285714285715</v>
+        <v>-36.84210526315849</v>
       </c>
       <c r="L568" t="n">
         <v>63.89999999999998</v>
@@ -29247,7 +29269,7 @@
         <v>141.8000000000003</v>
       </c>
       <c r="K569" t="n">
-        <v>-21.4285714285715</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L569" t="n">
         <v>63.82999999999997</v>
@@ -29298,7 +29320,7 @@
         <v>141.8000000000003</v>
       </c>
       <c r="K570" t="n">
-        <v>-21.4285714285715</v>
+        <v>0</v>
       </c>
       <c r="L570" t="n">
         <v>63.78999999999996</v>
@@ -29349,7 +29371,7 @@
         <v>141.8000000000003</v>
       </c>
       <c r="K571" t="n">
-        <v>-16.98113207547186</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L571" t="n">
         <v>63.78999999999996</v>
@@ -29400,7 +29422,7 @@
         <v>141.8000000000003</v>
       </c>
       <c r="K572" t="n">
-        <v>-24.00000000000019</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L572" t="n">
         <v>63.77999999999996</v>
@@ -29451,7 +29473,7 @@
         <v>141.9000000000003</v>
       </c>
       <c r="K573" t="n">
-        <v>-13.04347826086969</v>
+        <v>71.42857142857258</v>
       </c>
       <c r="L573" t="n">
         <v>63.77999999999996</v>
@@ -29502,7 +29524,7 @@
         <v>141.9000000000003</v>
       </c>
       <c r="K574" t="n">
-        <v>-26.82926829268319</v>
+        <v>0</v>
       </c>
       <c r="L574" t="n">
         <v>63.82999999999996</v>
@@ -29553,7 +29575,7 @@
         <v>141.9000000000003</v>
       </c>
       <c r="K575" t="n">
-        <v>-9.090909090909346</v>
+        <v>100.0000000000071</v>
       </c>
       <c r="L575" t="n">
         <v>63.82999999999996</v>
@@ -29604,7 +29626,7 @@
         <v>142.1000000000003</v>
       </c>
       <c r="K576" t="n">
-        <v>-28.57142857142944</v>
+        <v>100.0000000000047</v>
       </c>
       <c r="L576" t="n">
         <v>63.85999999999997</v>
@@ -29655,7 +29677,7 @@
         <v>142.3000000000002</v>
       </c>
       <c r="K577" t="n">
-        <v>-4.000000000000432</v>
+        <v>100.0000000000057</v>
       </c>
       <c r="L577" t="n">
         <v>63.90999999999997</v>
@@ -29706,7 +29728,7 @@
         <v>142.6000000000003</v>
       </c>
       <c r="K578" t="n">
-        <v>-18.51851851851879</v>
+        <v>25.00000000000089</v>
       </c>
       <c r="L578" t="n">
         <v>63.92999999999997</v>
@@ -29757,7 +29779,7 @@
         <v>142.7000000000002</v>
       </c>
       <c r="K579" t="n">
-        <v>-21.42857142857183</v>
+        <v>11.11111111111155</v>
       </c>
       <c r="L579" t="n">
         <v>63.93999999999998</v>
@@ -29808,7 +29830,7 @@
         <v>142.8000000000002</v>
       </c>
       <c r="K580" t="n">
-        <v>-7.692307692307902</v>
+        <v>20.00000000000085</v>
       </c>
       <c r="L580" t="n">
         <v>63.95999999999998</v>
@@ -29859,7 +29881,7 @@
         <v>142.8000000000002</v>
       </c>
       <c r="K581" t="n">
-        <v>9.090909090909385</v>
+        <v>20.00000000000085</v>
       </c>
       <c r="L581" t="n">
         <v>63.97999999999998</v>
@@ -29910,7 +29932,7 @@
         <v>142.9000000000002</v>
       </c>
       <c r="K582" t="n">
-        <v>9.090909090909062</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L582" t="n">
         <v>64.00999999999999</v>
@@ -29961,7 +29983,7 @@
         <v>142.9000000000002</v>
       </c>
       <c r="K583" t="n">
-        <v>9.090909090909062</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L583" t="n">
         <v>64.03</v>
@@ -30012,7 +30034,7 @@
         <v>143.1000000000003</v>
       </c>
       <c r="K584" t="n">
-        <v>47.36842105263207</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L584" t="n">
         <v>64.06999999999999</v>
@@ -30063,7 +30085,7 @@
         <v>143.1000000000003</v>
       </c>
       <c r="K585" t="n">
-        <v>28.57142857142894</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L585" t="n">
         <v>64.10999999999999</v>
@@ -30114,7 +30136,7 @@
         <v>143.1000000000003</v>
       </c>
       <c r="K586" t="n">
-        <v>38.46153846153897</v>
+        <v>0</v>
       </c>
       <c r="L586" t="n">
         <v>64.12999999999998</v>
@@ -30165,7 +30187,7 @@
         <v>143.2000000000002</v>
       </c>
       <c r="K587" t="n">
-        <v>28.57142857142944</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L587" t="n">
         <v>64.11999999999999</v>
@@ -30216,7 +30238,7 @@
         <v>143.3000000000002</v>
       </c>
       <c r="K588" t="n">
-        <v>20.00000000000019</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L588" t="n">
         <v>64.13</v>
@@ -30267,7 +30289,7 @@
         <v>143.4000000000003</v>
       </c>
       <c r="K589" t="n">
-        <v>25.00000000000044</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L589" t="n">
         <v>64.16</v>
@@ -30318,7 +30340,7 @@
         <v>143.7000000000003</v>
       </c>
       <c r="K590" t="n">
-        <v>5.263157894736901</v>
+        <v>-11.11111111111085</v>
       </c>
       <c r="L590" t="n">
         <v>64.15000000000001</v>
@@ -30369,7 +30391,7 @@
         <v>143.7000000000003</v>
       </c>
       <c r="K591" t="n">
-        <v>5.263157894736901</v>
+        <v>-24.99999999999822</v>
       </c>
       <c r="L591" t="n">
         <v>64.14</v>
@@ -30420,7 +30442,7 @@
         <v>143.7000000000003</v>
       </c>
       <c r="K592" t="n">
-        <v>5.263157894736901</v>
+        <v>-24.99999999999822</v>
       </c>
       <c r="L592" t="n">
         <v>64.11999999999999</v>
@@ -30471,7 +30493,7 @@
         <v>143.8000000000003</v>
       </c>
       <c r="K593" t="n">
-        <v>5.263157894736901</v>
+        <v>-42.8571428571414</v>
       </c>
       <c r="L593" t="n">
         <v>64.10999999999999</v>
@@ -30522,7 +30544,7 @@
         <v>143.9000000000003</v>
       </c>
       <c r="K594" t="n">
-        <v>0</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L594" t="n">
         <v>64.06999999999999</v>
@@ -30573,7 +30595,7 @@
         <v>144.0000000000003</v>
       </c>
       <c r="K595" t="n">
-        <v>4.761904761904842</v>
+        <v>-33.33333333333281</v>
       </c>
       <c r="L595" t="n">
         <v>64.03999999999999</v>
@@ -30624,7 +30646,7 @@
         <v>144.1000000000003</v>
       </c>
       <c r="K596" t="n">
-        <v>0</v>
+        <v>-11.11111111111199</v>
       </c>
       <c r="L596" t="n">
         <v>64.02000000000001</v>
@@ -30675,7 +30697,7 @@
         <v>144.3000000000002</v>
       </c>
       <c r="K597" t="n">
-        <v>-19.99999999999993</v>
+        <v>-19.99999999999957</v>
       </c>
       <c r="L597" t="n">
         <v>63.98999999999999</v>
@@ -30726,7 +30748,7 @@
         <v>144.3000000000002</v>
       </c>
       <c r="K598" t="n">
-        <v>-5.882352941176594</v>
+        <v>-33.33333333333465</v>
       </c>
       <c r="L598" t="n">
         <v>63.96999999999999</v>
@@ -30828,7 +30850,7 @@
         <v>144.4000000000002</v>
       </c>
       <c r="K600" t="n">
-        <v>-12.50000000000022</v>
+        <v>-14.2857142857153</v>
       </c>
       <c r="L600" t="n">
         <v>63.92999999999999</v>
@@ -30879,7 +30901,7 @@
         <v>144.6000000000003</v>
       </c>
       <c r="K601" t="n">
-        <v>0</v>
+        <v>11.11111111111155</v>
       </c>
       <c r="L601" t="n">
         <v>63.93999999999998</v>
@@ -30930,7 +30952,7 @@
         <v>145.5000000000003</v>
       </c>
       <c r="K602" t="n">
-        <v>-38.46153846153786</v>
+        <v>-52.9411764705885</v>
       </c>
       <c r="L602" t="n">
         <v>63.85999999999999</v>
@@ -30981,7 +31003,7 @@
         <v>146.2000000000002</v>
       </c>
       <c r="K603" t="n">
-        <v>-9.090909090908973</v>
+        <v>-4.347826086956616</v>
       </c>
       <c r="L603" t="n">
         <v>63.83999999999999</v>
@@ -31032,7 +31054,7 @@
         <v>146.3000000000002</v>
       </c>
       <c r="K604" t="n">
-        <v>-18.74999999999989</v>
+        <v>-13.04347826086954</v>
       </c>
       <c r="L604" t="n">
         <v>63.81999999999999</v>
@@ -31083,7 +31105,7 @@
         <v>146.6000000000003</v>
       </c>
       <c r="K605" t="n">
-        <v>-8.571428571428489</v>
+        <v>-3.999999999999773</v>
       </c>
       <c r="L605" t="n">
         <v>63.81999999999999</v>
@@ -31134,7 +31156,7 @@
         <v>146.6000000000003</v>
       </c>
       <c r="K606" t="n">
-        <v>-8.571428571428489</v>
+        <v>4.347826086956561</v>
       </c>
       <c r="L606" t="n">
         <v>63.80999999999999</v>
@@ -31185,7 +31207,7 @@
         <v>146.8000000000002</v>
       </c>
       <c r="K607" t="n">
-        <v>0</v>
+        <v>12.00000000000017</v>
       </c>
       <c r="L607" t="n">
         <v>63.84</v>
@@ -31236,7 +31258,7 @@
         <v>146.8000000000002</v>
       </c>
       <c r="K608" t="n">
-        <v>2.857142857143101</v>
+        <v>12.00000000000017</v>
       </c>
       <c r="L608" t="n">
         <v>63.87</v>
@@ -31287,7 +31309,7 @@
         <v>146.9000000000002</v>
       </c>
       <c r="K609" t="n">
-        <v>2.857142857142718</v>
+        <v>20</v>
       </c>
       <c r="L609" t="n">
         <v>63.91</v>
@@ -31338,7 +31360,7 @@
         <v>147.0000000000002</v>
       </c>
       <c r="K610" t="n">
-        <v>9.090909090909346</v>
+        <v>8.333333333333531</v>
       </c>
       <c r="L610" t="n">
         <v>63.95000000000001</v>
@@ -31389,7 +31411,7 @@
         <v>147.1000000000002</v>
       </c>
       <c r="K611" t="n">
-        <v>11.76470588235308</v>
+        <v>75.00000000000134</v>
       </c>
       <c r="L611" t="n">
         <v>63.98</v>
@@ -31440,7 +31462,7 @@
         <v>147.4000000000002</v>
       </c>
       <c r="K612" t="n">
-        <v>2.702702702702791</v>
+        <v>16.66666666666746</v>
       </c>
       <c r="L612" t="n">
         <v>64.07000000000001</v>
@@ -31491,7 +31513,7 @@
         <v>147.4000000000002</v>
       </c>
       <c r="K613" t="n">
-        <v>0</v>
+        <v>27.27272727272786</v>
       </c>
       <c r="L613" t="n">
         <v>64.09</v>
@@ -31542,7 +31564,7 @@
         <v>147.4000000000002</v>
       </c>
       <c r="K614" t="n">
-        <v>2.857142857142944</v>
+        <v>0</v>
       </c>
       <c r="L614" t="n">
         <v>64.12</v>
@@ -31593,7 +31615,7 @@
         <v>147.7000000000002</v>
       </c>
       <c r="K615" t="n">
-        <v>-8.108108108108118</v>
+        <v>-27.27272727272786</v>
       </c>
       <c r="L615" t="n">
         <v>64.09</v>
@@ -31644,7 +31666,7 @@
         <v>148.0000000000002</v>
       </c>
       <c r="K616" t="n">
-        <v>-2.564102564102433</v>
+        <v>-16.66666666666706</v>
       </c>
       <c r="L616" t="n">
         <v>64.09</v>
@@ -31695,7 +31717,7 @@
         <v>148.4000000000002</v>
       </c>
       <c r="K617" t="n">
-        <v>-7.317073170731649</v>
+        <v>-37.50000000000022</v>
       </c>
       <c r="L617" t="n">
         <v>64.03</v>
@@ -31746,7 +31768,7 @@
         <v>148.7000000000002</v>
       </c>
       <c r="K618" t="n">
-        <v>0</v>
+        <v>-22.22222222222235</v>
       </c>
       <c r="L618" t="n">
         <v>64</v>
@@ -31797,7 +31819,7 @@
         <v>149.0000000000002</v>
       </c>
       <c r="K619" t="n">
-        <v>-6.382978723404211</v>
+        <v>-30.00000000000007</v>
       </c>
       <c r="L619" t="n">
         <v>63.93000000000001</v>
@@ -31848,7 +31870,7 @@
         <v>149.3000000000002</v>
       </c>
       <c r="K620" t="n">
-        <v>2.040816326530639</v>
+        <v>-18.18181818181798</v>
       </c>
       <c r="L620" t="n">
         <v>63.9</v>
@@ -31899,7 +31921,7 @@
         <v>149.3000000000002</v>
       </c>
       <c r="K621" t="n">
-        <v>-2.127659574468121</v>
+        <v>-5.263157894736822</v>
       </c>
       <c r="L621" t="n">
         <v>63.86</v>
@@ -31950,7 +31972,7 @@
         <v>149.7000000000002</v>
       </c>
       <c r="K622" t="n">
-        <v>9.523809523809517</v>
+        <v>-21.73913043478223</v>
       </c>
       <c r="L622" t="n">
         <v>63.81</v>
@@ -32001,7 +32023,7 @@
         <v>150.1000000000003</v>
       </c>
       <c r="K623" t="n">
-        <v>2.564102564102597</v>
+        <v>-3.703703703703694</v>
       </c>
       <c r="L623" t="n">
         <v>63.8</v>
@@ -32052,7 +32074,7 @@
         <v>150.2000000000002</v>
       </c>
       <c r="K624" t="n">
-        <v>2.564102564102415</v>
+        <v>3.999999999999727</v>
       </c>
       <c r="L624" t="n">
         <v>63.77999999999999</v>
@@ -32103,7 +32125,7 @@
         <v>150.2000000000002</v>
       </c>
       <c r="K625" t="n">
-        <v>-5.555555555555643</v>
+        <v>-9.09090909090915</v>
       </c>
       <c r="L625" t="n">
         <v>63.78999999999998</v>
@@ -32154,7 +32176,7 @@
         <v>150.2000000000002</v>
       </c>
       <c r="K626" t="n">
-        <v>-5.555555555555643</v>
+        <v>11.1111111111108</v>
       </c>
       <c r="L626" t="n">
         <v>63.76999999999998</v>
@@ -32205,7 +32227,7 @@
         <v>150.6000000000003</v>
       </c>
       <c r="K627" t="n">
-        <v>-21.05263157894742</v>
+        <v>-26.31578947368374</v>
       </c>
       <c r="L627" t="n">
         <v>63.74999999999998</v>
@@ -32256,7 +32278,7 @@
         <v>150.9000000000003</v>
       </c>
       <c r="K628" t="n">
-        <v>-12.19512195121944</v>
+        <v>5.263157894736822</v>
       </c>
       <c r="L628" t="n">
         <v>63.72999999999998</v>
@@ -32307,7 +32329,7 @@
         <v>151.1000000000003</v>
       </c>
       <c r="K629" t="n">
-        <v>-9.523809523809451</v>
+        <v>0</v>
       </c>
       <c r="L629" t="n">
         <v>63.75999999999998</v>
@@ -32358,7 +32380,7 @@
         <v>151.4000000000003</v>
       </c>
       <c r="K630" t="n">
-        <v>-13.63636363636356</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L630" t="n">
         <v>63.72999999999998</v>
@@ -32409,7 +32431,7 @@
         <v>151.4000000000003</v>
       </c>
       <c r="K631" t="n">
-        <v>-16.27906976744161</v>
+        <v>5.882352941176496</v>
       </c>
       <c r="L631" t="n">
         <v>63.69999999999999</v>
@@ -32460,7 +32482,7 @@
         <v>151.5000000000003</v>
       </c>
       <c r="K632" t="n">
-        <v>-7.317073170731547</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L632" t="n">
         <v>63.71999999999999</v>
@@ -32511,7 +32533,7 @@
         <v>151.7000000000003</v>
       </c>
       <c r="K633" t="n">
-        <v>-11.627906976744</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L633" t="n">
         <v>63.67999999999999</v>
@@ -32562,7 +32584,7 @@
         <v>151.7000000000003</v>
       </c>
       <c r="K634" t="n">
-        <v>-11.627906976744</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L634" t="n">
         <v>63.65</v>
@@ -32613,7 +32635,7 @@
         <v>152.0000000000003</v>
       </c>
       <c r="K635" t="n">
-        <v>2.325581395348668</v>
+        <v>0</v>
       </c>
       <c r="L635" t="n">
         <v>63.65</v>
@@ -32664,7 +32686,7 @@
         <v>152.2000000000003</v>
       </c>
       <c r="K636" t="n">
-        <v>-9.523809523809387</v>
+        <v>12.5</v>
       </c>
       <c r="L636" t="n">
         <v>63.63000000000001</v>
@@ -32715,7 +32737,7 @@
         <v>152.3000000000003</v>
       </c>
       <c r="K637" t="n">
-        <v>-2.564102564102578</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L637" t="n">
         <v>63.64000000000001</v>
@@ -32766,7 +32788,7 @@
         <v>152.4000000000003</v>
       </c>
       <c r="K638" t="n">
-        <v>-8.108108108107933</v>
+        <v>-23.07692307692266</v>
       </c>
       <c r="L638" t="n">
         <v>63.63000000000001</v>
@@ -32868,7 +32890,7 @@
         <v>152.5000000000003</v>
       </c>
       <c r="K640" t="n">
-        <v>-12.49999999999989</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L640" t="n">
         <v>63.59000000000001</v>
@@ -32919,7 +32941,7 @@
         <v>152.6000000000003</v>
       </c>
       <c r="K641" t="n">
-        <v>-15.1515151515151</v>
+        <v>-27.2727272727278</v>
       </c>
       <c r="L641" t="n">
         <v>63.57000000000001</v>
@@ -32970,7 +32992,7 @@
         <v>152.6000000000003</v>
       </c>
       <c r="K642" t="n">
-        <v>-3.448275862069008</v>
+        <v>-11.11111111111155</v>
       </c>
       <c r="L642" t="n">
         <v>63.54</v>
@@ -33021,7 +33043,7 @@
         <v>152.6000000000003</v>
       </c>
       <c r="K643" t="n">
-        <v>-20</v>
+        <v>-11.11111111111155</v>
       </c>
       <c r="L643" t="n">
         <v>63.52999999999999</v>
@@ -33072,7 +33094,7 @@
         <v>152.6000000000003</v>
       </c>
       <c r="K644" t="n">
-        <v>-16.66666666666657</v>
+        <v>-66.66666666667021</v>
       </c>
       <c r="L644" t="n">
         <v>63.52</v>
@@ -33123,7 +33145,7 @@
         <v>152.8000000000002</v>
       </c>
       <c r="K645" t="n">
-        <v>-23.07692307692291</v>
+        <v>-66.66666666667021</v>
       </c>
       <c r="L645" t="n">
         <v>63.46</v>
@@ -33174,7 +33196,7 @@
         <v>152.9000000000002</v>
       </c>
       <c r="K646" t="n">
-        <v>-18.51851851851859</v>
+        <v>-33.3333333333357</v>
       </c>
       <c r="L646" t="n">
         <v>63.42999999999999</v>
@@ -33225,7 +33247,7 @@
         <v>153.0000000000002</v>
       </c>
       <c r="K647" t="n">
-        <v>0</v>
+        <v>-33.3333333333357</v>
       </c>
       <c r="L647" t="n">
         <v>63.41999999999999</v>
@@ -33276,7 +33298,7 @@
         <v>153.1000000000002</v>
       </c>
       <c r="K648" t="n">
-        <v>-9.090909090909385</v>
+        <v>-14.2857142857153</v>
       </c>
       <c r="L648" t="n">
         <v>63.40999999999999</v>
@@ -33327,7 +33349,7 @@
         <v>153.1000000000002</v>
       </c>
       <c r="K649" t="n">
-        <v>-20.00000000000021</v>
+        <v>0</v>
       </c>
       <c r="L649" t="n">
         <v>63.39999999999999</v>
@@ -33378,7 +33400,7 @@
         <v>153.2000000000002</v>
       </c>
       <c r="K650" t="n">
-        <v>0</v>
+        <v>33.3333333333357</v>
       </c>
       <c r="L650" t="n">
         <v>63.40999999999999</v>
@@ -33429,7 +33451,7 @@
         <v>153.5000000000002</v>
       </c>
       <c r="K651" t="n">
-        <v>-14.28571428571472</v>
+        <v>-11.11111111111155</v>
       </c>
       <c r="L651" t="n">
         <v>63.39999999999999</v>
@@ -33480,7 +33502,7 @@
         <v>153.5000000000002</v>
       </c>
       <c r="K652" t="n">
-        <v>-20.00000000000057</v>
+        <v>-11.11111111111155</v>
       </c>
       <c r="L652" t="n">
         <v>63.38999999999999</v>
@@ -33582,7 +33604,7 @@
         <v>153.5000000000002</v>
       </c>
       <c r="K654" t="n">
-        <v>-11.11111111111155</v>
+        <v>14.28571428571371</v>
       </c>
       <c r="L654" t="n">
         <v>63.36999999999998</v>
@@ -33633,7 +33655,7 @@
         <v>153.5000000000002</v>
       </c>
       <c r="K655" t="n">
-        <v>-33.3333333333346</v>
+        <v>0</v>
       </c>
       <c r="L655" t="n">
         <v>63.37999999999997</v>
@@ -33684,7 +33706,7 @@
         <v>153.6000000000002</v>
       </c>
       <c r="K656" t="n">
-        <v>-14.28571428571501</v>
+        <v>0</v>
       </c>
       <c r="L656" t="n">
         <v>63.38999999999997</v>
@@ -33735,7 +33757,7 @@
         <v>153.6000000000002</v>
       </c>
       <c r="K657" t="n">
-        <v>-7.69230769230807</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L657" t="n">
         <v>63.38999999999997</v>
@@ -33786,7 +33808,7 @@
         <v>153.7000000000002</v>
       </c>
       <c r="K658" t="n">
-        <v>-23.07692307692421</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L658" t="n">
         <v>63.36999999999997</v>
@@ -33837,7 +33859,7 @@
         <v>154.0000000000002</v>
       </c>
       <c r="K659" t="n">
-        <v>-37.50000000000089</v>
+        <v>-74.99999999999912</v>
       </c>
       <c r="L659" t="n">
         <v>63.31999999999997</v>
@@ -33888,7 +33910,7 @@
         <v>154.0000000000002</v>
       </c>
       <c r="K660" t="n">
-        <v>-33.33333333333396</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="L660" t="n">
         <v>63.25999999999997</v>
@@ -33939,7 +33961,7 @@
         <v>154.3000000000002</v>
       </c>
       <c r="K661" t="n">
-        <v>-5.882352941176594</v>
+        <v>0</v>
       </c>
       <c r="L661" t="n">
         <v>63.25999999999997</v>
@@ -33990,7 +34012,7 @@
         <v>154.3000000000002</v>
       </c>
       <c r="K662" t="n">
-        <v>-5.882352941176594</v>
+        <v>0</v>
       </c>
       <c r="L662" t="n">
         <v>63.25999999999997</v>
@@ -34041,7 +34063,7 @@
         <v>154.3000000000002</v>
       </c>
       <c r="K663" t="n">
-        <v>-5.882352941176594</v>
+        <v>0</v>
       </c>
       <c r="L663" t="n">
         <v>63.25999999999997</v>
@@ -34092,7 +34114,7 @@
         <v>154.3000000000002</v>
       </c>
       <c r="K664" t="n">
-        <v>-5.882352941176594</v>
+        <v>0</v>
       </c>
       <c r="L664" t="n">
         <v>63.25999999999997</v>
@@ -34143,7 +34165,7 @@
         <v>154.4000000000002</v>
       </c>
       <c r="K665" t="n">
-        <v>12.49999999999978</v>
+        <v>0</v>
       </c>
       <c r="L665" t="n">
         <v>63.26999999999997</v>
@@ -34194,7 +34216,7 @@
         <v>154.4000000000002</v>
       </c>
       <c r="K666" t="n">
-        <v>6.666666666666761</v>
+        <v>0</v>
       </c>
       <c r="L666" t="n">
         <v>63.26999999999997</v>
@@ -34245,7 +34267,7 @@
         <v>154.4000000000002</v>
       </c>
       <c r="K667" t="n">
-        <v>0</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L667" t="n">
         <v>63.26999999999997</v>
@@ -34296,7 +34318,7 @@
         <v>154.5000000000002</v>
       </c>
       <c r="K668" t="n">
-        <v>-14.28571428571443</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L668" t="n">
         <v>63.26999999999997</v>
@@ -34347,7 +34369,7 @@
         <v>154.5000000000002</v>
       </c>
       <c r="K669" t="n">
-        <v>-14.28571428571443</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L669" t="n">
         <v>63.29999999999997</v>
@@ -34398,7 +34420,7 @@
         <v>154.6000000000002</v>
       </c>
       <c r="K670" t="n">
-        <v>-14.28571428571443</v>
+        <v>33.3333333333357</v>
       </c>
       <c r="L670" t="n">
         <v>63.33999999999996</v>
@@ -34449,7 +34471,7 @@
         <v>154.7000000000002</v>
       </c>
       <c r="K671" t="n">
-        <v>16.66666666666706</v>
+        <v>50.00000000000355</v>
       </c>
       <c r="L671" t="n">
         <v>63.35999999999997</v>
@@ -34500,7 +34522,7 @@
         <v>155.1000000000002</v>
       </c>
       <c r="K672" t="n">
-        <v>37.50000000000022</v>
+        <v>75.00000000000178</v>
       </c>
       <c r="L672" t="n">
         <v>63.41999999999997</v>
@@ -34551,7 +34573,7 @@
         <v>155.1000000000002</v>
       </c>
       <c r="K673" t="n">
-        <v>37.50000000000022</v>
+        <v>75.00000000000178</v>
       </c>
       <c r="L673" t="n">
         <v>63.47999999999998</v>
@@ -34602,7 +34624,7 @@
         <v>155.4000000000002</v>
       </c>
       <c r="K674" t="n">
-        <v>15.78947368421094</v>
+        <v>20.00000000000085</v>
       </c>
       <c r="L674" t="n">
         <v>63.50999999999998</v>
@@ -34653,7 +34675,7 @@
         <v>155.7000000000002</v>
       </c>
       <c r="K675" t="n">
-        <v>27.27272727272748</v>
+        <v>38.46153846153897</v>
       </c>
       <c r="L675" t="n">
         <v>63.55999999999998</v>
@@ -34704,7 +34726,7 @@
         <v>155.7000000000002</v>
       </c>
       <c r="K676" t="n">
-        <v>23.80952380952387</v>
+        <v>38.46153846153897</v>
       </c>
       <c r="L676" t="n">
         <v>63.60999999999998</v>
@@ -34755,7 +34777,7 @@
         <v>155.7000000000002</v>
       </c>
       <c r="K677" t="n">
-        <v>23.80952380952387</v>
+        <v>50.00000000000059</v>
       </c>
       <c r="L677" t="n">
         <v>63.65999999999998</v>
@@ -34806,7 +34828,7 @@
         <v>155.7000000000002</v>
       </c>
       <c r="K678" t="n">
-        <v>30.00000000000007</v>
+        <v>50.00000000000059</v>
       </c>
       <c r="L678" t="n">
         <v>63.71999999999998</v>
@@ -34857,7 +34879,7 @@
         <v>155.7000000000002</v>
       </c>
       <c r="K679" t="n">
-        <v>52.9411764705885</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L679" t="n">
         <v>63.77999999999999</v>
@@ -34908,7 +34930,7 @@
         <v>155.7000000000002</v>
       </c>
       <c r="K680" t="n">
-        <v>52.9411764705885</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L680" t="n">
         <v>63.82999999999998</v>
@@ -34959,7 +34981,7 @@
         <v>155.8000000000002</v>
       </c>
       <c r="K681" t="n">
-        <v>33.33333333333396</v>
+        <v>-14.28571428571472</v>
       </c>
       <c r="L681" t="n">
         <v>63.85999999999998</v>
@@ -35010,7 +35032,7 @@
         <v>156.0000000000002</v>
       </c>
       <c r="K682" t="n">
-        <v>17.64705882353008</v>
+        <v>-33.33333333333386</v>
       </c>
       <c r="L682" t="n">
         <v>63.82999999999998</v>
@@ -35061,7 +35083,7 @@
         <v>156.1000000000002</v>
       </c>
       <c r="K683" t="n">
-        <v>11.11111111111155</v>
+        <v>-14.28571428571472</v>
       </c>
       <c r="L683" t="n">
         <v>63.78999999999998</v>
@@ -35112,7 +35134,7 @@
         <v>156.6000000000002</v>
       </c>
       <c r="K684" t="n">
-        <v>-13.0434782608697</v>
+        <v>-100.0000000000024</v>
       </c>
       <c r="L684" t="n">
         <v>63.72999999999998</v>
@@ -35163,7 +35185,7 @@
         <v>157.1000000000002</v>
       </c>
       <c r="K685" t="n">
-        <v>-33.33333333333377</v>
+        <v>-100.0000000000015</v>
       </c>
       <c r="L685" t="n">
         <v>63.58999999999999</v>
@@ -35214,7 +35236,7 @@
         <v>157.2000000000002</v>
       </c>
       <c r="K686" t="n">
-        <v>-35.71428571428629</v>
+        <v>-100.0000000000019</v>
       </c>
       <c r="L686" t="n">
         <v>63.43999999999998</v>
@@ -35265,7 +35287,7 @@
         <v>157.5000000000002</v>
       </c>
       <c r="K687" t="n">
-        <v>-41.9354838709685</v>
+        <v>-100.0000000000024</v>
       </c>
       <c r="L687" t="n">
         <v>63.25999999999999</v>
@@ -35316,7 +35338,7 @@
         <v>157.8000000000002</v>
       </c>
       <c r="K688" t="n">
-        <v>-27.2727272727276</v>
+        <v>-71.42857142857258</v>
       </c>
       <c r="L688" t="n">
         <v>63.10999999999999</v>
@@ -35367,7 +35389,7 @@
         <v>157.8000000000002</v>
       </c>
       <c r="K689" t="n">
-        <v>-27.2727272727276</v>
+        <v>-71.42857142857258</v>
       </c>
       <c r="L689" t="n">
         <v>62.95999999999999</v>
@@ -35418,7 +35440,7 @@
         <v>157.9000000000002</v>
       </c>
       <c r="K690" t="n">
-        <v>-27.2727272727276</v>
+        <v>-61.90476190476277</v>
       </c>
       <c r="L690" t="n">
         <v>62.81999999999999</v>
@@ -35469,7 +35491,7 @@
         <v>157.9000000000002</v>
       </c>
       <c r="K691" t="n">
-        <v>-31.25000000000039</v>
+        <v>-57.89473684210603</v>
       </c>
       <c r="L691" t="n">
         <v>62.69</v>
@@ -35520,7 +35542,7 @@
         <v>158.2000000000002</v>
       </c>
       <c r="K692" t="n">
-        <v>-54.83870967742033</v>
+        <v>-61.90476190476277</v>
       </c>
       <c r="L692" t="n">
         <v>62.55</v>
@@ -35571,7 +35593,7 @@
         <v>158.3000000000002</v>
       </c>
       <c r="K693" t="n">
-        <v>-56.25000000000111</v>
+        <v>-52.94117647058939</v>
       </c>
       <c r="L693" t="n">
         <v>62.41</v>
@@ -35622,7 +35644,7 @@
         <v>158.7000000000002</v>
       </c>
       <c r="K694" t="n">
-        <v>-33.33333333333384</v>
+        <v>0</v>
       </c>
       <c r="L694" t="n">
         <v>62.36</v>
@@ -35673,7 +35695,7 @@
         <v>159.2000000000002</v>
       </c>
       <c r="K695" t="n">
-        <v>-54.28571428571512</v>
+        <v>-20.00000000000021</v>
       </c>
       <c r="L695" t="n">
         <v>62.31</v>
@@ -35724,7 +35746,7 @@
         <v>159.3000000000002</v>
       </c>
       <c r="K696" t="n">
-        <v>-55.55555555555652</v>
+        <v>-11.11111111111137</v>
       </c>
       <c r="L696" t="n">
         <v>62.26000000000001</v>
@@ -35775,7 +35797,7 @@
         <v>159.7000000000002</v>
       </c>
       <c r="K697" t="n">
-        <v>-40.0000000000006</v>
+        <v>-5.26315789473698</v>
       </c>
       <c r="L697" t="n">
         <v>62.27999999999999</v>
@@ -35826,7 +35848,7 @@
         <v>159.9000000000001</v>
       </c>
       <c r="K698" t="n">
-        <v>-42.85714285714349</v>
+        <v>-14.28571428571438</v>
       </c>
       <c r="L698" t="n">
         <v>62.25</v>
@@ -35877,7 +35899,7 @@
         <v>160.2000000000002</v>
       </c>
       <c r="K699" t="n">
-        <v>-46.66666666666729</v>
+        <v>-30.434782608696</v>
       </c>
       <c r="L699" t="n">
         <v>62.19</v>
@@ -35928,7 +35950,7 @@
         <v>160.5000000000002</v>
       </c>
       <c r="K700" t="n">
-        <v>-50.00000000000044</v>
+        <v>-38.46153846153855</v>
       </c>
       <c r="L700" t="n">
         <v>62.09</v>
@@ -35979,7 +36001,7 @@
         <v>161.3000000000002</v>
       </c>
       <c r="K701" t="n">
-        <v>-27.27272727272742</v>
+        <v>3.225806451612697</v>
       </c>
       <c r="L701" t="n">
         <v>62.06999999999999</v>
@@ -36030,7 +36052,7 @@
         <v>161.5000000000002</v>
       </c>
       <c r="K702" t="n">
-        <v>-27.27272727272742</v>
+        <v>0</v>
       </c>
       <c r="L702" t="n">
         <v>62.05999999999999</v>
@@ -36081,7 +36103,7 @@
         <v>162.0000000000002</v>
       </c>
       <c r="K703" t="n">
-        <v>-32.20338983050857</v>
+        <v>-27.27272727272714</v>
       </c>
       <c r="L703" t="n">
         <v>62.00999999999999</v>
@@ -36132,7 +36154,7 @@
         <v>162.9000000000002</v>
       </c>
       <c r="K704" t="n">
-        <v>-7.936507936507958</v>
+        <v>13.51351351351345</v>
       </c>
       <c r="L704" t="n">
         <v>62.00999999999999</v>
@@ -36183,7 +36205,7 @@
         <v>163.1000000000002</v>
       </c>
       <c r="K705" t="n">
-        <v>-3.333333333333381</v>
+        <v>10.52631578947354</v>
       </c>
       <c r="L705" t="n">
         <v>62.03999999999998</v>
@@ -36234,7 +36256,7 @@
         <v>163.4000000000002</v>
       </c>
       <c r="K706" t="n">
-        <v>-6.451612903225766</v>
+        <v>-8.108108108107933</v>
       </c>
       <c r="L706" t="n">
         <v>62.04999999999999</v>
@@ -36285,7 +36307,7 @@
         <v>163.7000000000002</v>
       </c>
       <c r="K707" t="n">
-        <v>3.225806451612811</v>
+        <v>5.263157894736636</v>
       </c>
       <c r="L707" t="n">
         <v>62.04999999999999</v>
@@ -36336,7 +36358,7 @@
         <v>163.8000000000002</v>
       </c>
       <c r="K708" t="n">
-        <v>-3.333333333333246</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L708" t="n">
         <v>62.05999999999999</v>
@@ -36387,7 +36409,7 @@
         <v>163.8000000000002</v>
       </c>
       <c r="K709" t="n">
-        <v>-3.333333333333246</v>
+        <v>21.21212121212104</v>
       </c>
       <c r="L709" t="n">
         <v>62.1</v>
@@ -36438,7 +36460,7 @@
         <v>163.8000000000002</v>
       </c>
       <c r="K710" t="n">
-        <v>-5.084745762711787</v>
+        <v>-3.999999999999727</v>
       </c>
       <c r="L710" t="n">
         <v>62.17</v>
@@ -36489,7 +36511,7 @@
         <v>164.4000000000002</v>
       </c>
       <c r="K711" t="n">
-        <v>4.615384615384552</v>
+        <v>24.13793103448233</v>
       </c>
       <c r="L711" t="n">
         <v>62.22000000000001</v>
@@ -36540,7 +36562,7 @@
         <v>164.4000000000002</v>
       </c>
       <c r="K712" t="n">
-        <v>9.677419354838547</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L712" t="n">
         <v>62.29</v>
@@ -36591,7 +36613,7 @@
         <v>164.6000000000002</v>
       </c>
       <c r="K713" t="n">
-        <v>14.28571428571417</v>
+        <v>29.41176470588206</v>
       </c>
       <c r="L713" t="n">
         <v>62.42999999999999</v>
@@ -36642,7 +36664,7 @@
         <v>164.9000000000002</v>
       </c>
       <c r="K714" t="n">
-        <v>3.225806451612925</v>
+        <v>22.2222222222224</v>
       </c>
       <c r="L714" t="n">
         <v>62.45</v>
@@ -36693,7 +36715,7 @@
         <v>165.0000000000002</v>
       </c>
       <c r="K715" t="n">
-        <v>13.79310344827572</v>
+        <v>50</v>
       </c>
       <c r="L715" t="n">
         <v>62.5</v>
@@ -36744,7 +36766,7 @@
         <v>165.1000000000002</v>
       </c>
       <c r="K716" t="n">
-        <v>13.79310344827584</v>
+        <v>28.57142857142944</v>
       </c>
       <c r="L716" t="n">
         <v>62.57000000000001</v>
@@ -36795,7 +36817,7 @@
         <v>165.2000000000002</v>
       </c>
       <c r="K717" t="n">
-        <v>9.090909090909044</v>
+        <v>42.85714285714315</v>
       </c>
       <c r="L717" t="n">
         <v>62.62</v>
@@ -36846,7 +36868,7 @@
         <v>165.2000000000002</v>
       </c>
       <c r="K718" t="n">
-        <v>13.20754716981114</v>
+        <v>42.85714285714315</v>
       </c>
       <c r="L718" t="n">
         <v>62.67999999999999</v>
@@ -36897,7 +36919,7 @@
         <v>165.3000000000002</v>
       </c>
       <c r="K719" t="n">
-        <v>21.56862745098032</v>
+        <v>46.66666666666727</v>
       </c>
       <c r="L719" t="n">
         <v>62.74999999999999</v>
@@ -36948,7 +36970,7 @@
         <v>165.3000000000002</v>
       </c>
       <c r="K720" t="n">
-        <v>29.16666666666657</v>
+        <v>11.11111111111155</v>
       </c>
       <c r="L720" t="n">
         <v>62.81999999999998</v>
@@ -36999,7 +37021,7 @@
         <v>165.5000000000002</v>
       </c>
       <c r="K721" t="n">
-        <v>9.523809523809684</v>
+        <v>-9.090909090908857</v>
       </c>
       <c r="L721" t="n">
         <v>62.80999999999999</v>
@@ -37050,7 +37072,7 @@
         <v>165.6000000000002</v>
       </c>
       <c r="K722" t="n">
-        <v>17.07317073170724</v>
+        <v>-20.00000000000085</v>
       </c>
       <c r="L722" t="n">
         <v>62.80999999999999</v>
@@ -37101,7 +37123,7 @@
         <v>165.7000000000002</v>
       </c>
       <c r="K723" t="n">
-        <v>35.13513513513517</v>
+        <v>25.00000000000089</v>
       </c>
       <c r="L723" t="n">
         <v>62.79999999999999</v>
@@ -37152,7 +37174,7 @@
         <v>165.8000000000002</v>
       </c>
       <c r="K724" t="n">
-        <v>10.34482758620688</v>
+        <v>0</v>
       </c>
       <c r="L724" t="n">
         <v>62.80999999999998</v>
@@ -37203,7 +37225,7 @@
         <v>166.1000000000001</v>
       </c>
       <c r="K725" t="n">
-        <v>6.666666666666887</v>
+        <v>-20.00000000000142</v>
       </c>
       <c r="L725" t="n">
         <v>62.77999999999999</v>
@@ -37254,7 +37276,7 @@
         <v>166.2000000000001</v>
       </c>
       <c r="K726" t="n">
-        <v>14.28571428571461</v>
+        <v>-40.00000000000213</v>
       </c>
       <c r="L726" t="n">
         <v>62.74999999999998</v>
@@ -37305,7 +37327,7 @@
         <v>166.2000000000001</v>
       </c>
       <c r="K727" t="n">
-        <v>4.000000000000193</v>
+        <v>-40.00000000000213</v>
       </c>
       <c r="L727" t="n">
         <v>62.70999999999998</v>
@@ -37356,7 +37378,7 @@
         <v>166.2000000000001</v>
       </c>
       <c r="K728" t="n">
-        <v>8.333333333333432</v>
+        <v>-55.55555555555871</v>
       </c>
       <c r="L728" t="n">
         <v>62.66999999999998</v>
@@ -37407,7 +37429,7 @@
         <v>166.5000000000001</v>
       </c>
       <c r="K729" t="n">
-        <v>18.51851851851899</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L729" t="n">
         <v>62.64999999999999</v>
@@ -37458,7 +37480,7 @@
         <v>167.0000000000001</v>
       </c>
       <c r="K730" t="n">
-        <v>0</v>
+        <v>-33.33333333333396</v>
       </c>
       <c r="L730" t="n">
         <v>62.58</v>
@@ -37509,7 +37531,7 @@
         <v>167.1000000000001</v>
       </c>
       <c r="K731" t="n">
-        <v>-25.92592592592642</v>
+        <v>-46.66666666666727</v>
       </c>
       <c r="L731" t="n">
         <v>62.52</v>
@@ -37560,7 +37582,7 @@
         <v>167.1000000000001</v>
       </c>
       <c r="K732" t="n">
-        <v>-25.92592592592642</v>
+        <v>-57.14285714285787</v>
       </c>
       <c r="L732" t="n">
         <v>62.45</v>
@@ -37611,7 +37633,7 @@
         <v>167.2000000000001</v>
       </c>
       <c r="K733" t="n">
-        <v>-30.7692307692314</v>
+        <v>-42.85714285714315</v>
       </c>
       <c r="L733" t="n">
         <v>62.38000000000001</v>
@@ -37662,7 +37684,7 @@
         <v>167.6000000000001</v>
       </c>
       <c r="K734" t="n">
-        <v>-33.33333333333439</v>
+        <v>-46.66666666666686</v>
       </c>
       <c r="L734" t="n">
         <v>62.28000000000001</v>
@@ -37713,7 +37735,7 @@
         <v>167.7000000000001</v>
       </c>
       <c r="K735" t="n">
-        <v>-40.74074074074156</v>
+        <v>-46.66666666666639</v>
       </c>
       <c r="L735" t="n">
         <v>62.20000000000001</v>
@@ -37764,7 +37786,7 @@
         <v>167.9000000000001</v>
       </c>
       <c r="K736" t="n">
-        <v>-42.85714285714366</v>
+        <v>-52.94117647058763</v>
       </c>
       <c r="L736" t="n">
         <v>62.11000000000001</v>
@@ -37815,7 +37837,7 @@
         <v>167.9000000000001</v>
       </c>
       <c r="K737" t="n">
-        <v>-48.14814814814875</v>
+        <v>-52.94117647058763</v>
       </c>
       <c r="L737" t="n">
         <v>62.02000000000002</v>
@@ -37866,7 +37888,7 @@
         <v>168.0000000000001</v>
       </c>
       <c r="K738" t="n">
-        <v>-50.00000000000077</v>
+        <v>-86.66666666666694</v>
       </c>
       <c r="L738" t="n">
         <v>61.92000000000002</v>
@@ -37917,7 +37939,7 @@
         <v>168.5000000000001</v>
       </c>
       <c r="K739" t="n">
-        <v>-62.50000000000077</v>
+        <v>-86.66666666666694</v>
       </c>
       <c r="L739" t="n">
         <v>61.74000000000001</v>
@@ -37968,7 +37990,7 @@
         <v>168.8000000000001</v>
       </c>
       <c r="K740" t="n">
-        <v>-65.7142857142867</v>
+        <v>-88.23529411764764</v>
       </c>
       <c r="L740" t="n">
         <v>61.58000000000001</v>
@@ -38019,7 +38041,7 @@
         <v>168.9000000000001</v>
       </c>
       <c r="K741" t="n">
-        <v>-64.70588235294224</v>
+        <v>-88.88888888888981</v>
       </c>
       <c r="L741" t="n">
         <v>61.42</v>
@@ -38070,7 +38092,7 @@
         <v>170.1000000000001</v>
       </c>
       <c r="K742" t="n">
-        <v>-77.77777777777827</v>
+        <v>-100</v>
       </c>
       <c r="L742" t="n">
         <v>61.14</v>
@@ -38121,7 +38143,7 @@
         <v>170.4000000000001</v>
       </c>
       <c r="K743" t="n">
-        <v>-70.21276595744692</v>
+        <v>-78.5714285714281</v>
       </c>
       <c r="L743" t="n">
         <v>60.88</v>
@@ -38172,7 +38194,7 @@
         <v>170.6000000000001</v>
       </c>
       <c r="K744" t="n">
-        <v>-62.50000000000022</v>
+        <v>-65.51724137931041</v>
       </c>
       <c r="L744" t="n">
         <v>60.67999999999999</v>
@@ -38223,7 +38245,7 @@
         <v>170.8000000000001</v>
       </c>
       <c r="K745" t="n">
-        <v>-61.70212765957459</v>
+        <v>-65.5172413793108</v>
       </c>
       <c r="L745" t="n">
         <v>60.46999999999999</v>
@@ -38274,7 +38296,7 @@
         <v>171.7000000000001</v>
       </c>
       <c r="K746" t="n">
-        <v>-34.54545454545452</v>
+        <v>-26.31578947368433</v>
       </c>
       <c r="L746" t="n">
         <v>60.36999999999999</v>
@@ -38325,7 +38347,7 @@
         <v>172.1000000000001</v>
       </c>
       <c r="K747" t="n">
-        <v>-38.98305084745754</v>
+        <v>-31.7073170731707</v>
       </c>
       <c r="L747" t="n">
         <v>60.23</v>
@@ -38376,7 +38398,7 @@
         <v>172.1000000000001</v>
       </c>
       <c r="K748" t="n">
-        <v>-38.98305084745754</v>
+        <v>-22.22222222222218</v>
       </c>
       <c r="L748" t="n">
         <v>60.1</v>
@@ -38427,7 +38449,7 @@
         <v>172.1000000000001</v>
       </c>
       <c r="K749" t="n">
-        <v>-46.4285714285715</v>
+        <v>-15.1515151515151</v>
       </c>
       <c r="L749" t="n">
         <v>60.02</v>
@@ -38478,7 +38500,7 @@
         <v>172.2000000000001</v>
       </c>
       <c r="K750" t="n">
-        <v>-38.46153846153855</v>
+        <v>-9.090909090908973</v>
       </c>
       <c r="L750" t="n">
         <v>59.98</v>
@@ -38529,7 +38551,7 @@
         <v>172.2000000000001</v>
       </c>
       <c r="K751" t="n">
-        <v>-37.25490196078432</v>
+        <v>42.85714285714324</v>
       </c>
       <c r="L751" t="n">
         <v>59.95000000000001</v>
@@ -38580,7 +38602,7 @@
         <v>172.2000000000001</v>
       </c>
       <c r="K752" t="n">
-        <v>-37.25490196078432</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L752" t="n">
         <v>60.04000000000002</v>
@@ -38631,7 +38653,7 @@
         <v>172.4000000000001</v>
       </c>
       <c r="K753" t="n">
-        <v>-42.30769230769222</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L753" t="n">
         <v>60.08000000000002</v>
@@ -38682,7 +38704,7 @@
         <v>172.8000000000002</v>
       </c>
       <c r="K754" t="n">
-        <v>-42.30769230769209</v>
+        <v>0</v>
       </c>
       <c r="L754" t="n">
         <v>60.06000000000002</v>
@@ -38733,7 +38755,7 @@
         <v>172.9000000000001</v>
       </c>
       <c r="K755" t="n">
-        <v>-42.30769230769222</v>
+        <v>-83.33333333333215</v>
       </c>
       <c r="L755" t="n">
         <v>60.05000000000003</v>
@@ -38784,7 +38806,7 @@
         <v>173.5000000000001</v>
       </c>
       <c r="K756" t="n">
-        <v>-46.4285714285715</v>
+        <v>-85.71428571428557</v>
       </c>
       <c r="L756" t="n">
         <v>59.89000000000002</v>
@@ -38835,7 +38857,7 @@
         <v>173.6000000000001</v>
       </c>
       <c r="K757" t="n">
-        <v>-47.36842105263172</v>
+        <v>-86.66666666666694</v>
       </c>
       <c r="L757" t="n">
         <v>59.76000000000001</v>
@@ -38886,7 +38908,7 @@
         <v>174.0000000000001</v>
       </c>
       <c r="K758" t="n">
-        <v>-50</v>
+        <v>-89.47368421052619</v>
       </c>
       <c r="L758" t="n">
         <v>59.59000000000001</v>
@@ -38937,7 +38959,7 @@
         <v>174.3000000000001</v>
       </c>
       <c r="K759" t="n">
-        <v>-48.27586206896561</v>
+        <v>-100.0000000000003</v>
       </c>
       <c r="L759" t="n">
         <v>59.39000000000001</v>
@@ -38988,7 +39010,7 @@
         <v>174.4000000000001</v>
       </c>
       <c r="K760" t="n">
-        <v>-46.4285714285715</v>
+        <v>-100.0000000000006</v>
       </c>
       <c r="L760" t="n">
         <v>59.17</v>
@@ -39039,7 +39061,7 @@
         <v>175.0000000000001</v>
       </c>
       <c r="K761" t="n">
-        <v>-50.81967213114761</v>
+        <v>-100.0000000000008</v>
       </c>
       <c r="L761" t="n">
         <v>58.89</v>
@@ -39090,7 +39112,7 @@
         <v>175.3000000000001</v>
       </c>
       <c r="K762" t="n">
-        <v>-30.76923076923073</v>
+        <v>-79.31034482758673</v>
       </c>
       <c r="L762" t="n">
         <v>58.64</v>
@@ -39141,7 +39163,7 @@
         <v>175.4000000000001</v>
       </c>
       <c r="K763" t="n">
-        <v>-36.00000000000028</v>
+        <v>-69.23076923077031</v>
       </c>
       <c r="L763" t="n">
         <v>58.41999999999999</v>
@@ -39192,7 +39214,7 @@
         <v>175.4000000000001</v>
       </c>
       <c r="K764" t="n">
-        <v>-41.66666666666681</v>
+        <v>-68.00000000000088</v>
       </c>
       <c r="L764" t="n">
         <v>58.23999999999999</v>
@@ -39243,7 +39265,7 @@
         <v>175.6000000000001</v>
       </c>
       <c r="K765" t="n">
-        <v>-33.33333333333328</v>
+        <v>-42.8571428571429</v>
       </c>
       <c r="L765" t="n">
         <v>58.08999999999999</v>
@@ -39294,7 +39316,7 @@
         <v>175.6000000000001</v>
       </c>
       <c r="K766" t="n">
-        <v>-64.102564102564</v>
+        <v>-39.99999999999986</v>
       </c>
       <c r="L766" t="n">
         <v>57.99999999999999</v>
@@ -39345,7 +39367,7 @@
         <v>175.7000000000001</v>
       </c>
       <c r="K767" t="n">
-        <v>-55.55555555555565</v>
+        <v>-17.64705882352936</v>
       </c>
       <c r="L767" t="n">
         <v>57.92999999999999</v>
@@ -39396,7 +39418,7 @@
         <v>175.9000000000001</v>
       </c>
       <c r="K768" t="n">
-        <v>-57.89473684210517</v>
+        <v>-12.5</v>
       </c>
       <c r="L768" t="n">
         <v>57.88</v>
@@ -39447,7 +39469,7 @@
         <v>176.0000000000001</v>
       </c>
       <c r="K769" t="n">
-        <v>-58.974358974359</v>
+        <v>-12.5</v>
       </c>
       <c r="L769" t="n">
         <v>57.84999999999999</v>
@@ -39498,7 +39520,7 @@
         <v>176.1000000000001</v>
       </c>
       <c r="K770" t="n">
-        <v>-64.102564102564</v>
+        <v>27.2727272727271</v>
       </c>
       <c r="L770" t="n">
         <v>57.81999999999999</v>
@@ -39549,7 +39571,7 @@
         <v>176.2000000000001</v>
       </c>
       <c r="K771" t="n">
-        <v>-65.00000000000003</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L771" t="n">
         <v>57.84</v>
@@ -39600,7 +39622,7 @@
         <v>176.4000000000001</v>
       </c>
       <c r="K772" t="n">
-        <v>-66.6666666666665</v>
+        <v>-39.99999999999872</v>
       </c>
       <c r="L772" t="n">
         <v>57.80999999999999</v>
@@ -39651,7 +39673,7 @@
         <v>176.8000000000002</v>
       </c>
       <c r="K773" t="n">
-        <v>-68.1818181818181</v>
+        <v>-57.14285714285555</v>
       </c>
       <c r="L773" t="n">
         <v>57.73</v>
@@ -39702,7 +39724,7 @@
         <v>177.3000000000002</v>
       </c>
       <c r="K774" t="n">
-        <v>-46.6666666666667</v>
+        <v>-29.41176470588206</v>
       </c>
       <c r="L774" t="n">
         <v>57.7</v>
@@ -39753,7 +39775,7 @@
         <v>177.7000000000002</v>
       </c>
       <c r="K775" t="n">
-        <v>-33.33333333333328</v>
+        <v>-4.761904761904779</v>
       </c>
       <c r="L775" t="n">
         <v>57.69</v>
@@ -39804,7 +39826,7 @@
         <v>178.3000000000002</v>
       </c>
       <c r="K776" t="n">
-        <v>-8.333333333333284</v>
+        <v>15.3846153846152</v>
       </c>
       <c r="L776" t="n">
         <v>57.73999999999999</v>
@@ -39855,7 +39877,7 @@
         <v>178.9000000000001</v>
       </c>
       <c r="K777" t="n">
-        <v>-16.98113207547163</v>
+        <v>0</v>
       </c>
       <c r="L777" t="n">
         <v>57.71999999999999</v>
@@ -39906,7 +39928,7 @@
         <v>179.3000000000002</v>
       </c>
       <c r="K778" t="n">
-        <v>-1.886792452830212</v>
+        <v>15.1515151515151</v>
       </c>
       <c r="L778" t="n">
         <v>57.75999999999999</v>
@@ -39957,7 +39979,7 @@
         <v>179.3000000000002</v>
       </c>
       <c r="K779" t="n">
-        <v>3.999999999999892</v>
+        <v>18.74999999999972</v>
       </c>
       <c r="L779" t="n">
         <v>57.80999999999999</v>
@@ -40008,7 +40030,7 @@
         <v>179.6000000000002</v>
       </c>
       <c r="K780" t="n">
-        <v>11.53846153846147</v>
+        <v>29.41176470588206</v>
       </c>
       <c r="L780" t="n">
         <v>57.89999999999999</v>
@@ -40059,7 +40081,7 @@
         <v>179.6000000000002</v>
       </c>
       <c r="K781" t="n">
-        <v>26.0869565217389</v>
+        <v>37.49999999999989</v>
       </c>
       <c r="L781" t="n">
         <v>57.99999999999999</v>
@@ -40110,7 +40132,7 @@
         <v>179.7000000000002</v>
       </c>
       <c r="K782" t="n">
-        <v>18.18181818181798</v>
+        <v>51.72413793103438</v>
       </c>
       <c r="L782" t="n">
         <v>58.10999999999999</v>
@@ -40161,7 +40183,7 @@
         <v>179.9000000000001</v>
       </c>
       <c r="K783" t="n">
-        <v>11.11111111111104</v>
+        <v>30.76923076923073</v>
       </c>
       <c r="L783" t="n">
         <v>58.23999999999999</v>
@@ -40212,7 +40234,7 @@
         <v>180.5000000000001</v>
       </c>
       <c r="K784" t="n">
-        <v>21.56862745098032</v>
+        <v>35.71428571428593</v>
       </c>
       <c r="L784" t="n">
         <v>58.37999999999998</v>
@@ -40263,7 +40285,7 @@
         <v>180.9000000000001</v>
       </c>
       <c r="K785" t="n">
-        <v>9.433962264150923</v>
+        <v>0</v>
       </c>
       <c r="L785" t="n">
         <v>58.43999999999998</v>
@@ -40314,7 +40336,7 @@
         <v>181.3000000000002</v>
       </c>
       <c r="K786" t="n">
-        <v>15.78947368421045</v>
+        <v>41.66666666666657</v>
       </c>
       <c r="L786" t="n">
         <v>58.47999999999998</v>
@@ -40365,7 +40387,7 @@
         <v>181.7000000000002</v>
       </c>
       <c r="K787" t="n">
-        <v>6.666666666666611</v>
+        <v>8.333333333333432</v>
       </c>
       <c r="L787" t="n">
         <v>58.53999999999998</v>
@@ -40416,7 +40438,7 @@
         <v>182.1000000000002</v>
       </c>
       <c r="K788" t="n">
-        <v>16.12903225806447</v>
+        <v>21.42857142857139</v>
       </c>
       <c r="L788" t="n">
         <v>58.59999999999999</v>
@@ -40467,7 +40489,7 @@
         <v>182.1000000000002</v>
       </c>
       <c r="K789" t="n">
-        <v>18.03278688524586</v>
+        <v>11.99999999999989</v>
       </c>
       <c r="L789" t="n">
         <v>58.65999999999999</v>
@@ -40518,7 +40540,7 @@
         <v>182.1000000000002</v>
       </c>
       <c r="K790" t="n">
-        <v>19.99999999999983</v>
+        <v>11.99999999999989</v>
       </c>
       <c r="L790" t="n">
         <v>58.68999999999998</v>
@@ -40569,7 +40591,7 @@
         <v>182.1000000000002</v>
       </c>
       <c r="K791" t="n">
-        <v>22.03389830508457</v>
+        <v>16.66666666666657</v>
       </c>
       <c r="L791" t="n">
         <v>58.71999999999998</v>
@@ -40620,7 +40642,7 @@
         <v>182.2000000000002</v>
       </c>
       <c r="K792" t="n">
-        <v>27.5862068965517</v>
+        <v>30.43478260869563</v>
       </c>
       <c r="L792" t="n">
         <v>58.76999999999998</v>
@@ -40671,7 +40693,7 @@
         <v>182.7000000000002</v>
       </c>
       <c r="K793" t="n">
-        <v>42.37288135593217</v>
+        <v>27.27272727272713</v>
       </c>
       <c r="L793" t="n">
         <v>58.88999999999999</v>
@@ -40722,7 +40744,7 @@
         <v>183.0000000000002</v>
       </c>
       <c r="K794" t="n">
-        <v>29.82456140350873</v>
+        <v>33.33333333333311</v>
       </c>
       <c r="L794" t="n">
         <v>58.91999999999999</v>
@@ -40773,7 +40795,7 @@
         <v>183.0000000000002</v>
       </c>
       <c r="K795" t="n">
-        <v>24.52830188679248</v>
+        <v>17.64705882352948</v>
       </c>
       <c r="L795" t="n">
         <v>58.98999999999999</v>
@@ -40824,7 +40846,7 @@
         <v>183.1000000000002</v>
       </c>
       <c r="K796" t="n">
-        <v>12.5</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L796" t="n">
         <v>59.01000000000001</v>
@@ -40875,7 +40897,7 @@
         <v>183.1000000000002</v>
       </c>
       <c r="K797" t="n">
-        <v>28.57142857142853</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L797" t="n">
         <v>59.07000000000001</v>
@@ -40926,7 +40948,7 @@
         <v>183.2000000000002</v>
       </c>
       <c r="K798" t="n">
-        <v>17.948717948718</v>
+        <v>9.090909090909268</v>
       </c>
       <c r="L798" t="n">
         <v>59.08000000000001</v>
@@ -40977,7 +40999,7 @@
         <v>183.9000000000001</v>
       </c>
       <c r="K799" t="n">
-        <v>30.43478260869582</v>
+        <v>44.4444444444451</v>
       </c>
       <c r="L799" t="n">
         <v>59.16000000000001</v>
@@ -41028,7 +41050,7 @@
         <v>184.5000000000001</v>
       </c>
       <c r="K800" t="n">
-        <v>10.20408163265311</v>
+        <v>8.333333333333531</v>
       </c>
       <c r="L800" t="n">
         <v>59.18000000000002</v>
@@ -41079,7 +41101,7 @@
         <v>184.5000000000001</v>
       </c>
       <c r="K801" t="n">
-        <v>10.20408163265311</v>
+        <v>4.347826086956616</v>
       </c>
       <c r="L801" t="n">
         <v>59.20000000000002</v>
@@ -41130,7 +41152,7 @@
         <v>184.5000000000001</v>
       </c>
       <c r="K802" t="n">
-        <v>12.50000000000007</v>
+        <v>-22.22222222222235</v>
       </c>
       <c r="L802" t="n">
         <v>59.21000000000002</v>
@@ -41181,7 +41203,7 @@
         <v>185.0000000000001</v>
       </c>
       <c r="K803" t="n">
-        <v>25.49019607843148</v>
+        <v>20.00000000000021</v>
       </c>
       <c r="L803" t="n">
         <v>59.22000000000003</v>
@@ -41232,7 +41254,7 @@
         <v>185.7000000000002</v>
       </c>
       <c r="K804" t="n">
-        <v>0</v>
+        <v>-11.11111111111132</v>
       </c>
       <c r="L804" t="n">
         <v>59.19000000000002</v>
@@ -41283,7 +41305,7 @@
         <v>185.8000000000002</v>
       </c>
       <c r="K805" t="n">
-        <v>10.20408163265305</v>
+        <v>-3.703703703703772</v>
       </c>
       <c r="L805" t="n">
         <v>59.17000000000002</v>
@@ -41334,7 +41356,7 @@
         <v>185.9000000000001</v>
       </c>
       <c r="K806" t="n">
-        <v>0</v>
+        <v>-7.142857142857288</v>
       </c>
       <c r="L806" t="n">
         <v>59.15000000000001</v>
@@ -41385,7 +41407,7 @@
         <v>186.6000000000001</v>
       </c>
       <c r="K807" t="n">
-        <v>-6.122448979591807</v>
+        <v>-23.52941176470596</v>
       </c>
       <c r="L807" t="n">
         <v>59.06000000000002</v>
@@ -41436,7 +41458,7 @@
         <v>186.6000000000001</v>
       </c>
       <c r="K808" t="n">
-        <v>-15.55555555555556</v>
+        <v>-55.55555555555579</v>
       </c>
       <c r="L808" t="n">
         <v>58.98000000000002</v>
@@ -41487,7 +41509,7 @@
         <v>187.6000000000001</v>
       </c>
       <c r="K809" t="n">
-        <v>5.454545454545561</v>
+        <v>3.225806451612955</v>
       </c>
       <c r="L809" t="n">
         <v>58.93000000000002</v>
@@ -41538,7 +41560,7 @@
         <v>188.5000000000001</v>
       </c>
       <c r="K810" t="n">
-        <v>-9.375000000000055</v>
+        <v>-20.00000000000011</v>
       </c>
       <c r="L810" t="n">
         <v>58.85000000000001</v>
@@ -41589,7 +41611,7 @@
         <v>189.4000000000001</v>
       </c>
       <c r="K811" t="n">
-        <v>4.109589041095958</v>
+        <v>2.040816326530639</v>
       </c>
       <c r="L811" t="n">
         <v>58.86000000000001</v>
@@ -41640,7 +41662,7 @@
         <v>190.0000000000001</v>
       </c>
       <c r="K812" t="n">
-        <v>-5.128205128205121</v>
+        <v>-20</v>
       </c>
       <c r="L812" t="n">
         <v>58.81000000000002</v>
@@ -41691,7 +41713,7 @@
         <v>190.0000000000001</v>
       </c>
       <c r="K813" t="n">
-        <v>-12.32876712328768</v>
+        <v>-6.976744186046473</v>
       </c>
       <c r="L813" t="n">
         <v>58.71000000000002</v>
@@ -41742,7 +41764,7 @@
         <v>190.5000000000001</v>
       </c>
       <c r="K814" t="n">
-        <v>-1.333333333333357</v>
+        <v>2.127659574468121</v>
       </c>
       <c r="L814" t="n">
         <v>58.73000000000002</v>
@@ -41793,7 +41815,7 @@
         <v>191.3000000000002</v>
       </c>
       <c r="K815" t="n">
-        <v>-10.84337349397599</v>
+        <v>-11.11111111111112</v>
       </c>
       <c r="L815" t="n">
         <v>58.66000000000001</v>
@@ -41844,7 +41866,7 @@
         <v>192.1000000000002</v>
       </c>
       <c r="K816" t="n">
-        <v>0</v>
+        <v>16.36363636363625</v>
       </c>
       <c r="L816" t="n">
         <v>58.68000000000002</v>
@@ -41895,7 +41917,7 @@
         <v>192.8000000000002</v>
       </c>
       <c r="K817" t="n">
-        <v>-7.216494845360841</v>
+        <v>3.225806451612811</v>
       </c>
       <c r="L817" t="n">
         <v>58.70000000000001</v>
@@ -41946,7 +41968,7 @@
         <v>192.9000000000002</v>
       </c>
       <c r="K818" t="n">
-        <v>-7.216494845360841</v>
+        <v>-16.98113207547168</v>
       </c>
       <c r="L818" t="n">
         <v>58.71</v>
@@ -41997,7 +42019,7 @@
         <v>193.1000000000002</v>
       </c>
       <c r="K819" t="n">
-        <v>-17.39130434782607</v>
+        <v>-4.347826086956408</v>
       </c>
       <c r="L819" t="n">
         <v>58.6</v>
@@ -42048,7 +42070,7 @@
         <v>193.4000000000001</v>
       </c>
       <c r="K820" t="n">
-        <v>-7.86516853932587</v>
+        <v>-20.00000000000011</v>
       </c>
       <c r="L820" t="n">
         <v>58.61</v>
@@ -42099,7 +42121,7 @@
         <v>193.5000000000001</v>
       </c>
       <c r="K821" t="n">
-        <v>-6.666666666666682</v>
+        <v>-2.857142857142898</v>
       </c>
       <c r="L821" t="n">
         <v>58.54</v>
@@ -42150,7 +42172,7 @@
         <v>193.6000000000001</v>
       </c>
       <c r="K822" t="n">
-        <v>-5.494505494505498</v>
+        <v>0</v>
       </c>
       <c r="L822" t="n">
         <v>58.54</v>

--- a/BackTest/2019-10-05 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-05 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -4114,7 +4114,7 @@
         <v>1265228.636014643</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>1220119.288714643</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>1220140.288714643</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>1221272.018514643</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>1126810.138114644</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>1126810.138114644</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>1125267.489514644</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>1125277.489514644</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>1121643.379214644</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>2253081.344909413</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>2479486.39367707</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>2984080.627845668</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>2937736.638533818</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>3223216.636433818</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>3669803.406033818</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>4058317.733590961</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>3963596.51129096</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>3861646.60899096</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>3861646.60899096</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>3706693.23009096</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>3641244.36139096</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>3691208.19169096</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>3691208.19169096</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>3750049.55079096</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>3646762.58299096</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>3522508.12539096</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>3647600.72789096</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>3636315.370890961</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>3636315.370890961</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>3636315.370890961</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>3632712.451190961</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>3632712.451190961</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>3633118.451190961</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>3595615.413790961</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>3626297.75799096</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>3586735.339590961</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>3511056.613990961</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>3252291.99129096</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>3292521.663690961</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>2882782.26569096</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>2756945.01079096</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>2700812.68839096</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>2731678.50419096</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>2731577.50419096</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>2732437.61469096</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>2606734.96829096</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>2614950.26709096</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>2615906.26709096</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>2615984.26709096</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>2610912.40699096</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>2638270.83669096</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>2694594.54479096</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>2693194.54479096</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>2809014.73649096</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>2773964.42679096</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>2773964.42679096</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>2820018.49619096</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>2722601.81119096</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>2707147.62189096</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>2745369.59639096</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>2743370.346016147</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>2658245.836316147</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>2571018.154716148</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>2571517.129316147</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>2575358.281216147</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>2578858.281216147</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>2568178.351816148</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>2578401.402016148</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>2559077.598116147</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>2559077.598116147</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>2537876.194216148</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>2536924.836716148</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>2536322.269116147</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>2536322.269116147</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>2565738.577216147</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>2565280.198216147</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>2565280.198216147</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>2561912.864616147</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>2319431.333816147</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>2327744.088116148</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>2323967.195416147</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>2315705.036316148</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>2239267.116516147</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>2260032.288316147</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>2237418.288316147</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>2192418.288316147</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>2250554.975316147</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>2219287.771516148</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>2211317.781516147</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>2177069.684816147</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>2080298.176316147</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>2074612.331016147</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>1824821.575316147</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>1838994.206316147</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>2042659.001316147</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>2084728.753816147</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>2084728.753816147</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>2084728.753816147</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>2084728.753816147</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>2080544.629016147</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>2080322.629016147</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>2080422.708016147</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>2080311.708016147</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>2080100.708016147</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>2109276.067816147</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>2028820.096916147</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>2030931.096916147</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>2030689.399416147</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>2052971.122116147</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>2051971.122116147</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>2051971.122116147</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>2039893.122116147</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>2043470.472716147</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>2043470.472716147</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>2024770.472716147</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>2024870.472716147</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>2017851.482716147</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>2021866.387916147</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>2021866.387916147</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>2021855.387916147</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>2023440.718416146</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>2063809.132416147</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>2056905.406916147</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>2061884.927116147</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>2061906.868216146</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>2053192.750416147</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>2084263.087216147</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>2084274.071016147</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>2094791.259316147</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>2095012.850616147</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>2120756.240316147</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>2120756.240316147</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>2164287.457116147</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>2164287.457116147</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>2164287.457116147</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>2224452.970216147</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>2252608.153516147</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>2323267.004016147</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>2323267.004016147</v>
       </c>
       <c r="H423" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>2306146.756616147</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>2306124.608616147</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>2327925.172016147</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>2308694.271516147</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>2308676.387516147</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>2295076.387516147</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>2295076.387516147</v>
       </c>
       <c r="H430" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>2293273.713716147</v>
       </c>
       <c r="H431" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>2212311.198416146</v>
       </c>
       <c r="H432" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>2105564.908016147</v>
       </c>
       <c r="H433" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>2082364.908016147</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>2086307.876816147</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>2069128.896116147</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>2069128.896116147</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>1968069.933116147</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>1978861.264316146</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>1995835.794916146</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>1995343.638616147</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>1984163.446316147</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>1850498.462316147</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>1862420.632616147</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>1863299.849216147</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>1859129.862816147</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>1859129.862816147</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>1863041.894916147</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>1863588.305716146</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>1864588.305716146</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>1864063.265016146</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>1865573.265016146</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>1869073.265016146</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>1866991.272316146</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>1868170.003516146</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>1868170.003516146</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>1869841.077416146</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>1848315.589316146</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>1848315.589316146</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>1859325.589316146</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>1859325.589316146</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>1865089.930316146</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>1865079.930316146</v>
       </c>
       <c r="H463" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>1855249.865716147</v>
       </c>
       <c r="H464" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>1840413.048416147</v>
       </c>
       <c r="H465" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>1840413.048416147</v>
       </c>
       <c r="H466" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>1840413.048416147</v>
       </c>
       <c r="H467" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>1840413.048416147</v>
       </c>
       <c r="H468" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>1842913.048416147</v>
       </c>
       <c r="H469" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>1836893.048416147</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>1843403.048416147</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>1836359.654916147</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>1831893.966516146</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>1831893.966516146</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>1831893.966516146</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>1848235.966516146</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>1848235.966516146</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>1885259.413416147</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>1879699.413416147</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>1879699.413416147</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>1808281.231616147</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>1817954.160716147</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>1815399.350916147</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>1846960.644516147</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>1824305.508616147</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>1831446.948616147</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>1819139.246016147</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>1819119.246016147</v>
       </c>
       <c r="H488" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>1819119.246016147</v>
       </c>
       <c r="H489" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>1819119.246016147</v>
       </c>
       <c r="H490" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>1819119.246016147</v>
       </c>
       <c r="H491" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>1731543.964916147</v>
       </c>
       <c r="H492" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>1760423.993716147</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>1760423.993716147</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>1738957.464116147</v>
       </c>
       <c r="H495" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>1729878.475616147</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>1661101.017316147</v>
       </c>
       <c r="H497" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>1783599.687516147</v>
       </c>
       <c r="H498" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>1783599.687516147</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>1782962.627816146</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>1808824.962916146</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>1800824.962916146</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>1613488.006716147</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>1657378.433216147</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>1652737.433216147</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>1576601.861716147</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>1467766.086116147</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>1287999.676816147</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>1285949.303716147</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>1324688.840116147</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>1367096.358616147</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>1385959.988116147</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>1282365.570616147</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>1282365.570616147</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>1282365.570616147</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>1282365.570616147</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>1282365.570616147</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>1263765.570616147</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>1014860.964016147</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>1014860.964016147</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>1036196.764516147</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>1032947.782016147</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>995556.7480161467</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>974109.3273161467</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>981482.3348161466</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>981482.3348161466</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>981482.3348161466</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>981482.3348161466</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>978996.8902161466</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>992317.1053161466</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>1037111.672916147</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>1070112.672916146</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>1057462.954716146</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>1066531.961116147</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>1066531.961116147</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>691737.1088161465</v>
       </c>
       <c r="H566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>262283.5886161465</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>149735.407950786</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>149735.407950786</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>105122.6603161465</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>112484.820481507</v>
       </c>
       <c r="H588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>117082.6559161465</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>117082.6559161465</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>162577.2739161465</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>193973.3608161465</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>193963.3607161465</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -27181,10 +27181,14 @@
         <v>-1764141.788783853</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
-      </c>
-      <c r="I812" t="inlineStr"/>
-      <c r="J812" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I812" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="J812" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K812" t="inlineStr"/>
       <c r="L812" t="n">
         <v>1</v>
@@ -27214,11 +27218,19 @@
         <v>-1827554.016883853</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
-      </c>
-      <c r="I813" t="inlineStr"/>
-      <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I813" t="n">
+        <v>60</v>
+      </c>
+      <c r="J813" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27247,11 +27259,19 @@
         <v>-1828546.307183853</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
-      </c>
-      <c r="I814" t="inlineStr"/>
-      <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I814" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="J814" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27280,11 +27300,19 @@
         <v>-1942599.220283853</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
-      </c>
-      <c r="I815" t="inlineStr"/>
-      <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I815" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="J815" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27313,11 +27341,19 @@
         <v>-2073784.091983853</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
-      </c>
-      <c r="I816" t="inlineStr"/>
-      <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I816" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="J816" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -27346,11 +27382,19 @@
         <v>-2115067.004283853</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
-      </c>
-      <c r="I817" t="inlineStr"/>
-      <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I817" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="J817" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27379,11 +27423,19 @@
         <v>-2285599.333883853</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
-      </c>
-      <c r="I818" t="inlineStr"/>
-      <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I818" t="n">
+        <v>58.4</v>
+      </c>
+      <c r="J818" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27412,11 +27464,19 @@
         <v>-2359727.102483853</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
-      </c>
-      <c r="I819" t="inlineStr"/>
-      <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I819" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="J819" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27445,11 +27505,19 @@
         <v>-2509263.927583853</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
-      </c>
-      <c r="I820" t="inlineStr"/>
-      <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I820" t="n">
+        <v>58</v>
+      </c>
+      <c r="J820" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -27478,11 +27546,19 @@
         <v>-2473362.735783853</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
-      </c>
-      <c r="I821" t="inlineStr"/>
-      <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I821" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="J821" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27511,11 +27587,19 @@
         <v>-2470895.279583853</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
-      </c>
-      <c r="I822" t="inlineStr"/>
-      <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I822" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="J822" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27544,11 +27628,19 @@
         <v>-2470895.279583853</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
-      </c>
-      <c r="I823" t="inlineStr"/>
-      <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I823" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="J823" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27577,11 +27669,19 @@
         <v>-2363058.109883853</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
-      </c>
-      <c r="I824" t="inlineStr"/>
-      <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I824" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="J824" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -27610,11 +27710,19 @@
         <v>-2363058.109883853</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
-      </c>
-      <c r="I825" t="inlineStr"/>
-      <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I825" t="n">
+        <v>58</v>
+      </c>
+      <c r="J825" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -27643,11 +27751,19 @@
         <v>-2240901.649183853</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
-      </c>
-      <c r="I826" t="inlineStr"/>
-      <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I826" t="n">
+        <v>58</v>
+      </c>
+      <c r="J826" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -27676,11 +27792,19 @@
         <v>-2277313.082183853</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
-      </c>
-      <c r="I827" t="inlineStr"/>
-      <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I827" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="J827" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -27709,11 +27833,19 @@
         <v>-2311693.912383853</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
-      </c>
-      <c r="I828" t="inlineStr"/>
-      <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I828" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="J828" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -27742,11 +27874,19 @@
         <v>-2332457.004983853</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
-      </c>
-      <c r="I829" t="inlineStr"/>
-      <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I829" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="J829" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -27775,15 +27915,17 @@
         <v>-2373603.019383853</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I830" t="n">
         <v>57.7</v>
       </c>
-      <c r="J830" t="inlineStr"/>
+      <c r="J830" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K830" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L830" t="n">
@@ -27814,12 +27956,14 @@
         <v>-2492651.127083853</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I831" t="n">
         <v>57.6</v>
       </c>
-      <c r="J831" t="inlineStr"/>
+      <c r="J831" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27853,12 +27997,14 @@
         <v>-2496410.859283853</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I832" t="n">
         <v>57.4</v>
       </c>
-      <c r="J832" t="inlineStr"/>
+      <c r="J832" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27892,12 +28038,14 @@
         <v>-2481736.892583853</v>
       </c>
       <c r="H833" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I833" t="n">
         <v>57</v>
       </c>
-      <c r="J833" t="inlineStr"/>
+      <c r="J833" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27931,12 +28079,14 @@
         <v>-2464897.953683853</v>
       </c>
       <c r="H834" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I834" t="n">
         <v>57.5</v>
       </c>
-      <c r="J834" t="inlineStr"/>
+      <c r="J834" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27970,12 +28120,14 @@
         <v>-2404732.282783853</v>
       </c>
       <c r="H835" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I835" t="n">
         <v>57.9</v>
       </c>
-      <c r="J835" t="inlineStr"/>
+      <c r="J835" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28009,12 +28161,14 @@
         <v>-2406392.433383853</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I836" t="n">
         <v>58.5</v>
       </c>
-      <c r="J836" t="inlineStr"/>
+      <c r="J836" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28048,12 +28202,14 @@
         <v>-2367866.626183853</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I837" t="n">
         <v>57.9</v>
       </c>
-      <c r="J837" t="inlineStr"/>
+      <c r="J837" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28087,12 +28243,14 @@
         <v>-2367866.626183853</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I838" t="n">
         <v>58.3</v>
       </c>
-      <c r="J838" t="inlineStr"/>
+      <c r="J838" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28126,12 +28284,14 @@
         <v>-2341209.128283853</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I839" t="n">
         <v>58.3</v>
       </c>
-      <c r="J839" t="inlineStr"/>
+      <c r="J839" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28165,10 +28325,14 @@
         <v>-2341209.128283853</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
-      <c r="J840" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I840" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="J840" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28202,12 +28366,14 @@
         <v>-2367254.553183853</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I841" t="n">
         <v>58.6</v>
       </c>
-      <c r="J841" t="inlineStr"/>
+      <c r="J841" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28241,12 +28407,14 @@
         <v>-2421708.155583853</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I842" t="n">
         <v>58.5</v>
       </c>
-      <c r="J842" t="inlineStr"/>
+      <c r="J842" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28280,12 +28448,12 @@
         <v>-2404045.931483853</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
-      </c>
-      <c r="I843" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="J843" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I843" t="inlineStr"/>
+      <c r="J843" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28319,12 +28487,14 @@
         <v>-2408076.931483853</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I844" t="n">
         <v>58.9</v>
       </c>
-      <c r="J844" t="inlineStr"/>
+      <c r="J844" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28358,12 +28528,14 @@
         <v>-2408063.993083853</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I845" t="n">
         <v>58.5</v>
       </c>
-      <c r="J845" t="inlineStr"/>
+      <c r="J845" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28397,10 +28569,14 @@
         <v>-2428698.559283854</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
-      <c r="J846" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="J846" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28434,10 +28610,14 @@
         <v>-2417627.531283854</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
-      <c r="J847" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="J847" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28471,10 +28651,14 @@
         <v>-2417627.531283854</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
-      <c r="J848" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I848" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="J848" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28508,10 +28692,14 @@
         <v>-2417627.531283854</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
-      <c r="J849" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I849" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="J849" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28545,10 +28733,14 @@
         <v>-2417627.531283854</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
-      </c>
-      <c r="I850" t="inlineStr"/>
-      <c r="J850" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I850" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="J850" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28582,10 +28774,14 @@
         <v>-2401693.234583854</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
-      </c>
-      <c r="I851" t="inlineStr"/>
-      <c r="J851" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I851" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="J851" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28622,7 +28818,9 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="inlineStr"/>
+      <c r="J852" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28659,7 +28857,9 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="inlineStr"/>
+      <c r="J853" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28696,7 +28896,9 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="inlineStr"/>
+      <c r="J854" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28733,7 +28935,9 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="inlineStr"/>
+      <c r="J855" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28767,10 +28971,14 @@
         <v>-2404340.140183853</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
-      </c>
-      <c r="I856" t="inlineStr"/>
-      <c r="J856" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I856" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="J856" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28807,7 +29015,9 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="inlineStr"/>
+      <c r="J857" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28841,10 +29051,14 @@
         <v>-2352351.212883853</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
-      </c>
-      <c r="I858" t="inlineStr"/>
-      <c r="J858" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I858" t="n">
+        <v>59</v>
+      </c>
+      <c r="J858" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28881,7 +29095,9 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="inlineStr"/>
+      <c r="J859" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28918,7 +29134,9 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="inlineStr"/>
+      <c r="J860" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28955,7 +29173,9 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="inlineStr"/>
+      <c r="J861" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28992,7 +29212,9 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="inlineStr"/>
+      <c r="J862" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29029,7 +29251,9 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="inlineStr"/>
+      <c r="J863" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29066,7 +29290,9 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="inlineStr"/>
+      <c r="J864" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K864" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29103,7 +29329,9 @@
         <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="inlineStr"/>
+      <c r="J865" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K865" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29140,7 +29368,9 @@
         <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="inlineStr"/>
+      <c r="J866" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K866" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29177,7 +29407,9 @@
         <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="inlineStr"/>
+      <c r="J867" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K867" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29214,7 +29446,9 @@
         <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="inlineStr"/>
+      <c r="J868" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K868" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29251,7 +29485,9 @@
         <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
-      <c r="J869" t="inlineStr"/>
+      <c r="J869" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K869" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29288,7 +29524,9 @@
         <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="inlineStr"/>
+      <c r="J870" t="n">
+        <v>60.2</v>
+      </c>
       <c r="K870" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29300,6 +29538,6 @@
       <c r="M870" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-05 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-05 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>213283.1073660339</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>213283.1073660339</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>213283.1073660339</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>191438.9222660339</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>191448.9222660339</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>430234.6496121998</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>430234.6496121998</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>429742.6590121998</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>429752.6590121998</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>555177.4848121998</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>547921.3703121998</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>529241.1510121998</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>526444.0931121998</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>526454.0931121998</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>526464.0931121998</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>522233.0931121998</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>522123.3431121998</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>511923.6021121998</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>513923.6021121998</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>513933.6021121998</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>506360.3046121998</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>529142.1833121998</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>529142.1833121998</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>529142.1833121998</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>529153.1178121998</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>528794.6237121997</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>528794.6237121997</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>551876.2157121997</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>551876.2157121997</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>543438.8501121997</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>541563.6046121997</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>541063.6046121997</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>546828.5401121997</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>545880.7162121998</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>545880.7162121998</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>545880.7162121998</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>563932.7162121998</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>563932.7162121998</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>617667.8105121998</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>647163.6174121997</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>647163.6174121997</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>783762.5683121998</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>794236.1765121998</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>788637.6488121998</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>793867.9882121999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>793867.9882121999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>793707.3796121998</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>793707.3796121998</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>861006.1997121999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>861006.1997121999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>888083.7039121998</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>1016332.3063122</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>999702.8990121998</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>962335.9556121998</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>962335.9556121998</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>987911.8149391111</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>987911.8149391111</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>1153502.712239111</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>1190102.458939111</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>1170538.173039111</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>1294903.030339111</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>1268892.030339111</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>1304004.395939111</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>1324504.395939111</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>1315160.425539111</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>1411746.356039111</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>1402861.456339111</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>1349668.360539111</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>1349668.360539111</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>1342528.497339111</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>1310670.380539111</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>1310670.380539111</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>1310670.380539111</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>1250206.746239111</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>1298620.043339111</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>1278522.021239111</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>1288561.110739111</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>1278506.489439111</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>1261861.797539111</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>1264892.308139111</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>1264914.131839111</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>1259116.217039111</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>1258491.569439111</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>1258507.569439111</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>1256759.631139111</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>1256769.631139111</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>1256769.631139111</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>1246524.569639111</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>1246524.569639111</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>1246770.798639111</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>1246770.798639111</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>1215727.349339111</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>1177840.597714643</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>1177840.597714643</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>1177840.597714643</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>1366037.219714643</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>1358339.467514643</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>1265218.636014643</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>1265228.636014643</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>1265228.636014643</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>1265228.636014643</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>1220119.288714643</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>1220140.288714643</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>1221272.018514643</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>1126810.138114644</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>1125267.489514644</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>1125277.489514644</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>1121643.379214644</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>1122787.009214643</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>1121809.062214643</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>1109198.374714643</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>1032241.444214643</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>1032241.444214643</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>1032241.444214643</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>1032241.444214643</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>1023446.958814643</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>1030333.203214643</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>970631.4690146435</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>960072.0409466495</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>914052.0388466495</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>945691.8044786556</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>945691.8044786556</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>945520.8766786556</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>945920.8766786556</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>948336.3771786556</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>948336.3771786556</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>947957.3879786556</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>1002829.085178656</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>1002482.217478656</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>951495.3926786557</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>944742.8547786557</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>944743.8547786557</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>944713.7547786557</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>944713.7547786557</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>943304.0516786557</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>943475.5969786557</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>953851.0409786557</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>951851.0409786557</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>991151.0409786557</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>990843.3592786557</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>1017334.720378656</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>1017049.367678656</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>1017383.164078656</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>1019504.367678656</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>1050380.349078656</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>1050380.349078656</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>1050380.349078656</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>1050242.271478656</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>1060767.305478656</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>1064814.707178656</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>1144614.707178656</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>1145599.195978656</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>1241937.697278656</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>1461194.175978656</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>1591436.011178656</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>1843534.737282073</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>3641244.36139096</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>3691208.19169096</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>3691208.19169096</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>3750049.55079096</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>3646762.58299096</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>3522508.12539096</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>3647600.72789096</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>3636315.370890961</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>3636315.370890961</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>3636315.370890961</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>3632712.451190961</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>3632712.451190961</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>3633118.451190961</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>3595615.413790961</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>3606548.148790961</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>3586735.339590961</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>3560293.601590961</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>3611421.601590961</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>3611621.601590961</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>3611621.601590961</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>3511056.613990961</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>3252291.99129096</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>3292521.663690961</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>2882782.26569096</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>2756945.01079096</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>2700812.68839096</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>2731678.50419096</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>2731577.50419096</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>2732437.61469096</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>2606734.96829096</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>2614950.26709096</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>2615906.26709096</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>2615984.26709096</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>2610912.40699096</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>2638270.83669096</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>2694594.54479096</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>2693194.54479096</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>2809014.73649096</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>2773964.42679096</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>2773964.42679096</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>2820018.49619096</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>2722601.81119096</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>2707147.62189096</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>2745369.59639096</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>2743370.346016147</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>2658245.836316147</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>2571018.154716148</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>2571517.129316147</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>2575358.281216147</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>2578858.281216147</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>2559077.598116147</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>2536924.836716148</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>2536322.269116147</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>2536322.269116147</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>2565738.577216147</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>2565280.198216147</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>2561912.864616147</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>2239267.116516147</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>2260032.288316147</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>2237418.288316147</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>2250554.975316147</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>2080298.176316147</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>2080311.708016147</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>2080100.708016147</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>2109276.067816147</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>2028820.096916147</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>2030931.096916147</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>2030689.399416147</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>2052971.122116147</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>2051971.122116147</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>2051971.122116147</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>2039893.122116147</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>2043470.472716147</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>2043470.472716147</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>2024770.472716147</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>2024870.472716147</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>2017851.482716147</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>2021866.387916147</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>2021866.387916147</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>2021855.387916147</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>2023440.718416146</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>2063809.132416147</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>2056905.406916147</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>2061884.927116147</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>2061906.868216146</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>2053192.750416147</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>2084263.087216147</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>2084274.071016147</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>2094791.259316147</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>2095012.850616147</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>2120756.240316147</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>2120756.240316147</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>2164287.457116147</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>2164287.457116147</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>2164287.457116147</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>2224452.970216147</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>2252608.153516147</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>2323267.004016147</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>2323267.004016147</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>2306146.756616147</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>2306124.608616147</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>2327925.172016147</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>2308694.271516147</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>2308676.387516147</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>2295076.387516147</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>2295076.387516147</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>2293273.713716147</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>2212311.198416146</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>2105564.908016147</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>2082364.908016147</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>2086307.876816147</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>2069128.896116147</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>2069128.896116147</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>1968069.933116147</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>1978861.264316146</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>1995835.794916146</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>1995343.638616147</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>1984163.446316147</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>1850498.462316147</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>1862420.632616147</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>1863299.849216147</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>1859129.862816147</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>1859129.862816147</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>1863041.894916147</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>1863588.305716146</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>1864588.305716146</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>1864063.265016146</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>1865573.265016146</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>1869073.265016146</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>1866991.272316146</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>1868170.003516146</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>1868170.003516146</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>1869841.077416146</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>1848315.589316146</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>1848315.589316146</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>1859325.589316146</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>1859325.589316146</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>1865089.930316146</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>1865079.930316146</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>1855249.865716147</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>1840413.048416147</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>1840413.048416147</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>1840413.048416147</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>1840413.048416147</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>1842913.048416147</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>1836893.048416147</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>1843403.048416147</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>1836359.654916147</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>1831893.966516146</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>1831893.966516146</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>1831893.966516146</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>1848235.966516146</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>1848235.966516146</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>1885259.413416147</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>1879699.413416147</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>1879699.413416147</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>1808281.231616147</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>1817954.160716147</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>1815399.350916147</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>1846960.644516147</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>1824305.508616147</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>1831446.948616147</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>1819139.246016147</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>1819119.246016147</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>1819119.246016147</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>1819119.246016147</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>1819119.246016147</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>1731543.964916147</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>1760423.993716147</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>1760423.993716147</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>1738957.464116147</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>1729878.475616147</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>1661101.017316147</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>1783599.687516147</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>1783599.687516147</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>1782962.627816146</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>1808824.962916146</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>1800824.962916146</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>1613488.006716147</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>1657378.433216147</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>1652737.433216147</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>1576601.861716147</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>1467766.086116147</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>1287999.676816147</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>1285949.303716147</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>1324688.840116147</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>1367096.358616147</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>1385959.988116147</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>1282365.570616147</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>1282365.570616147</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>1282365.570616147</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>1282365.570616147</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>1282365.570616147</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>1263765.570616147</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>1014860.964016147</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>1014860.964016147</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>204791.3180161465</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>138359.5620161465</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>193963.3607161465</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>253380.3732161465</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>150334.7881161465</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>150334.7881161465</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>157910.6156161465</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>157920.6256161465</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>130976.9550161465</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>143363.6018161465</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>86039.57201614653</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>86804.23441614653</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>86804.23441614653</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>86804.23441614653</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>86804.23441614653</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>86804.23441614653</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>85640.97971614652</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>85674.97971614652</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>29022.60361614652</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>29032.60361614652</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-199135.3623838535</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-198939.5380838535</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-204723.4644838535</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-202045.7891838535</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-202045.7891838535</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-241388.0583838535</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-290795.5212838534</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-245341.6280838535</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-245341.6280838535</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>-441445.2986838535</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>-339437.7906838534</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-428592.7232838534</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>-428592.7232838534</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>-428592.7232838534</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-428592.7232838534</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>-428592.7232838534</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>-428592.7232838534</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-428592.7232838534</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-412011.8755838535</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-412011.8755838535</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-412011.8755838535</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-355462.6805838534</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-326956.6805838534</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-329491.2835838535</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-335953.5555838534</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-296481.2127838535</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-296481.2127838535</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>-206997.6487838535</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>-206997.6487838535</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>-202744.5273838534</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-202744.5273838534</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-202744.5273838534</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-207915.0723838535</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-216915.0723838535</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-76060.13908385346</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-76627.95508385346</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>-76627.95508385346</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>-76627.95508385346</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21901,7 +21901,7 @@
         <v>-52592.41758385346</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>-52792.41758385346</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>-36961.05828385346</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>-30701.66678385346</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>-56589.35608385346</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>-56589.35608385346</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>-445951.9956838535</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>-425924.9597838534</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22264,7 +22264,7 @@
         <v>-440282.8267838535</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22297,7 +22297,7 @@
         <v>-381469.3810838535</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22330,7 +22330,7 @@
         <v>-381469.3810838535</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -22363,7 +22363,7 @@
         <v>-371391.2461838535</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22396,7 +22396,7 @@
         <v>-371391.2461838535</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22429,7 +22429,7 @@
         <v>-343591.2461838535</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>-348366.4392838535</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22495,7 +22495,7 @@
         <v>-314312.3244838535</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22528,7 +22528,7 @@
         <v>-365232.1085838535</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -22561,7 +22561,7 @@
         <v>-365232.1085838535</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -22594,7 +22594,7 @@
         <v>-365232.1085838535</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -22627,7 +22627,7 @@
         <v>-368719.2701838535</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22660,7 +22660,7 @@
         <v>-362596.1997838534</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -22693,7 +22693,7 @@
         <v>-368849.9427838534</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -22726,7 +22726,7 @@
         <v>-360956.0752838535</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -22759,7 +22759,7 @@
         <v>-382495.8992838535</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -22792,7 +22792,7 @@
         <v>-368433.2092838535</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -22825,7 +22825,7 @@
         <v>-368433.2092838535</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -22858,7 +22858,7 @@
         <v>-390820.4195838535</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -22891,7 +22891,7 @@
         <v>-387365.3452838535</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -22924,7 +22924,7 @@
         <v>-388241.7089838535</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -22957,7 +22957,7 @@
         <v>-388241.7089838535</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -22990,7 +22990,7 @@
         <v>-388241.7089838535</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23023,7 +23023,7 @@
         <v>-420789.3280838535</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23056,7 +23056,7 @@
         <v>-294918.6998838534</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23089,7 +23089,7 @@
         <v>-246108.1173838534</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23122,7 +23122,7 @@
         <v>-260108.1173838534</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23155,7 +23155,7 @@
         <v>-260108.1173838534</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
         <v>-220108.1173838534</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23221,7 +23221,7 @@
         <v>-223828.6974838534</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23254,7 +23254,7 @@
         <v>-223828.6974838534</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
         <v>-178515.0114838535</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23320,7 +23320,7 @@
         <v>-185560.7002838535</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23353,7 +23353,7 @@
         <v>-219676.7217838535</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23386,7 +23386,7 @@
         <v>-215594.6147838535</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23419,7 +23419,7 @@
         <v>-215594.6147838535</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23452,7 +23452,7 @@
         <v>-222229.1687838535</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -23485,7 +23485,7 @@
         <v>-225879.2687838535</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23518,7 +23518,7 @@
         <v>-225879.2687838535</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23551,7 +23551,7 @@
         <v>-225879.2687838535</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23584,7 +23584,7 @@
         <v>-225879.2687838535</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
         <v>-239374.8746838535</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23650,7 +23650,7 @@
         <v>-226164.3575838535</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23683,7 +23683,7 @@
         <v>-213950.8414838535</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -23716,7 +23716,7 @@
         <v>-205950.8414838535</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -23749,7 +23749,7 @@
         <v>-205950.8414838535</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -23782,7 +23782,7 @@
         <v>-205152.3820838535</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -23815,7 +23815,7 @@
         <v>-214523.5584838535</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -23848,7 +23848,7 @@
         <v>-214523.5584838535</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -23881,7 +23881,7 @@
         <v>-214523.5584838535</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -23914,7 +23914,7 @@
         <v>-214523.5584838535</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -23947,7 +23947,7 @@
         <v>-214523.5584838535</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -23980,7 +23980,7 @@
         <v>-187804.1720838535</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24013,7 +24013,7 @@
         <v>-187804.1720838535</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24046,7 +24046,7 @@
         <v>-215203.4960838535</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24079,7 +24079,7 @@
         <v>-246108.3540838535</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24112,7 +24112,7 @@
         <v>-246108.3540838535</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
         <v>-241872.9593838535</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24178,7 +24178,7 @@
         <v>-241872.9593838535</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24211,7 +24211,7 @@
         <v>-241872.9593838535</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24244,7 +24244,7 @@
         <v>-241872.9593838535</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24277,7 +24277,7 @@
         <v>-239857.2213838535</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24310,7 +24310,7 @@
         <v>-239857.2213838535</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24343,7 +24343,7 @@
         <v>-239857.2213838535</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -24376,7 +24376,7 @@
         <v>-257379.9573838535</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -24508,7 +24508,7 @@
         <v>-163989.2335838535</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -24541,7 +24541,7 @@
         <v>-163989.2335838535</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -24574,7 +24574,7 @@
         <v>-171717.2995838535</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -24607,7 +24607,7 @@
         <v>-171217.2995838535</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -24640,7 +24640,7 @@
         <v>-171217.2995838535</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -24673,7 +24673,7 @@
         <v>-171217.2995838535</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -24706,7 +24706,7 @@
         <v>-171217.2995838535</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -24739,7 +24739,7 @@
         <v>-171217.2995838535</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -24772,7 +24772,7 @@
         <v>-171217.2995838535</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -24805,7 +24805,7 @@
         <v>-173637.5386838535</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -24838,7 +24838,7 @@
         <v>-186637.5386838535</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -24871,7 +24871,7 @@
         <v>-276651.9843838535</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -24904,7 +24904,7 @@
         <v>-495680.4290838535</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -24937,7 +24937,7 @@
         <v>-665398.0405838535</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -24970,7 +24970,7 @@
         <v>-673567.3206838535</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25003,7 +25003,7 @@
         <v>-676732.3687838535</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25036,7 +25036,7 @@
         <v>-676425.0527838535</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25069,7 +25069,7 @@
         <v>-676425.0527838535</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25135,7 +25135,7 @@
         <v>-659511.1007838534</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25168,7 +25168,7 @@
         <v>-669711.1007838534</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25201,7 +25201,7 @@
         <v>-690291.5430838534</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25630,7 +25630,7 @@
         <v>-1089247.408483853</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -27181,14 +27181,10 @@
         <v>-1764141.788783853</v>
       </c>
       <c r="H812" t="n">
-        <v>1</v>
-      </c>
-      <c r="I812" t="n">
-        <v>60.2</v>
-      </c>
-      <c r="J812" t="n">
-        <v>60.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I812" t="inlineStr"/>
+      <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr"/>
       <c r="L812" t="n">
         <v>1</v>
@@ -27218,224 +27214,182 @@
         <v>-1827554.016883853</v>
       </c>
       <c r="H813" t="n">
-        <v>1</v>
-      </c>
-      <c r="I813" t="n">
-        <v>60</v>
-      </c>
-      <c r="J813" t="n">
-        <v>60.2</v>
-      </c>
-      <c r="K813" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I813" t="inlineStr"/>
+      <c r="J813" t="inlineStr"/>
+      <c r="K813" t="inlineStr"/>
+      <c r="L813" t="n">
+        <v>1</v>
+      </c>
+      <c r="M813" t="inlineStr"/>
+    </row>
+    <row r="814">
+      <c r="A814" s="1" t="n">
+        <v>812</v>
+      </c>
+      <c r="B814" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="C814" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="D814" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="E814" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="F814" t="n">
+        <v>992.2903</v>
+      </c>
+      <c r="G814" t="n">
+        <v>-1828546.307183853</v>
+      </c>
+      <c r="H814" t="n">
+        <v>0</v>
+      </c>
+      <c r="I814" t="inlineStr"/>
+      <c r="J814" t="inlineStr"/>
+      <c r="K814" t="inlineStr"/>
+      <c r="L814" t="n">
+        <v>1</v>
+      </c>
+      <c r="M814" t="inlineStr"/>
+    </row>
+    <row r="815">
+      <c r="A815" s="1" t="n">
+        <v>813</v>
+      </c>
+      <c r="B815" t="n">
+        <v>59.4</v>
+      </c>
+      <c r="C815" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="D815" t="n">
+        <v>59.4</v>
+      </c>
+      <c r="E815" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="F815" t="n">
+        <v>114052.9131</v>
+      </c>
+      <c r="G815" t="n">
+        <v>-1942599.220283853</v>
+      </c>
+      <c r="H815" t="n">
+        <v>0</v>
+      </c>
+      <c r="I815" t="inlineStr"/>
+      <c r="J815" t="inlineStr"/>
+      <c r="K815" t="inlineStr"/>
+      <c r="L815" t="n">
+        <v>1</v>
+      </c>
+      <c r="M815" t="inlineStr"/>
+    </row>
+    <row r="816">
+      <c r="A816" s="1" t="n">
+        <v>814</v>
+      </c>
+      <c r="B816" t="n">
+        <v>59</v>
+      </c>
+      <c r="C816" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="D816" t="n">
+        <v>59</v>
+      </c>
+      <c r="E816" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="F816" t="n">
+        <v>131184.8717</v>
+      </c>
+      <c r="G816" t="n">
+        <v>-2073784.091983853</v>
+      </c>
+      <c r="H816" t="n">
+        <v>0</v>
+      </c>
+      <c r="I816" t="inlineStr"/>
+      <c r="J816" t="inlineStr"/>
+      <c r="K816" t="inlineStr"/>
+      <c r="L816" t="n">
+        <v>1</v>
+      </c>
+      <c r="M816" t="inlineStr"/>
+    </row>
+    <row r="817">
+      <c r="A817" s="1" t="n">
+        <v>815</v>
+      </c>
+      <c r="B817" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="C817" t="n">
+        <v>58.4</v>
+      </c>
+      <c r="D817" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="E817" t="n">
+        <v>58.4</v>
+      </c>
+      <c r="F817" t="n">
+        <v>41282.9123</v>
+      </c>
+      <c r="G817" t="n">
+        <v>-2115067.004283853</v>
+      </c>
+      <c r="H817" t="n">
+        <v>0</v>
+      </c>
+      <c r="I817" t="inlineStr"/>
+      <c r="J817" t="inlineStr"/>
+      <c r="K817" t="inlineStr"/>
+      <c r="L817" t="n">
+        <v>1</v>
+      </c>
+      <c r="M817" t="inlineStr"/>
+    </row>
+    <row r="818">
+      <c r="A818" s="1" t="n">
+        <v>816</v>
+      </c>
+      <c r="B818" t="n">
+        <v>58.4</v>
+      </c>
+      <c r="C818" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="D818" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="E818" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="F818" t="n">
+        <v>170532.3296</v>
+      </c>
+      <c r="G818" t="n">
+        <v>-2285599.333883853</v>
+      </c>
+      <c r="H818" t="n">
+        <v>1</v>
+      </c>
+      <c r="I818" t="n">
+        <v>58.4</v>
+      </c>
+      <c r="J818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L813" t="n">
-        <v>1</v>
-      </c>
-      <c r="M813" t="inlineStr"/>
-    </row>
-    <row r="814">
-      <c r="A814" s="1" t="n">
-        <v>812</v>
-      </c>
-      <c r="B814" t="n">
-        <v>59.5</v>
-      </c>
-      <c r="C814" t="n">
-        <v>59.5</v>
-      </c>
-      <c r="D814" t="n">
-        <v>59.5</v>
-      </c>
-      <c r="E814" t="n">
-        <v>59.5</v>
-      </c>
-      <c r="F814" t="n">
-        <v>992.2903</v>
-      </c>
-      <c r="G814" t="n">
-        <v>-1828546.307183853</v>
-      </c>
-      <c r="H814" t="n">
-        <v>1</v>
-      </c>
-      <c r="I814" t="n">
-        <v>59.6</v>
-      </c>
-      <c r="J814" t="n">
-        <v>60.2</v>
-      </c>
-      <c r="K814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L814" t="n">
-        <v>1</v>
-      </c>
-      <c r="M814" t="inlineStr"/>
-    </row>
-    <row r="815">
-      <c r="A815" s="1" t="n">
-        <v>813</v>
-      </c>
-      <c r="B815" t="n">
-        <v>59.4</v>
-      </c>
-      <c r="C815" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="D815" t="n">
-        <v>59.4</v>
-      </c>
-      <c r="E815" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="F815" t="n">
-        <v>114052.9131</v>
-      </c>
-      <c r="G815" t="n">
-        <v>-1942599.220283853</v>
-      </c>
-      <c r="H815" t="n">
-        <v>1</v>
-      </c>
-      <c r="I815" t="n">
-        <v>59.5</v>
-      </c>
-      <c r="J815" t="n">
-        <v>60.2</v>
-      </c>
-      <c r="K815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L815" t="n">
-        <v>1</v>
-      </c>
-      <c r="M815" t="inlineStr"/>
-    </row>
-    <row r="816">
-      <c r="A816" s="1" t="n">
-        <v>814</v>
-      </c>
-      <c r="B816" t="n">
-        <v>59</v>
-      </c>
-      <c r="C816" t="n">
-        <v>58.8</v>
-      </c>
-      <c r="D816" t="n">
-        <v>59</v>
-      </c>
-      <c r="E816" t="n">
-        <v>58.8</v>
-      </c>
-      <c r="F816" t="n">
-        <v>131184.8717</v>
-      </c>
-      <c r="G816" t="n">
-        <v>-2073784.091983853</v>
-      </c>
-      <c r="H816" t="n">
-        <v>1</v>
-      </c>
-      <c r="I816" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="J816" t="n">
-        <v>60.2</v>
-      </c>
-      <c r="K816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L816" t="n">
-        <v>1</v>
-      </c>
-      <c r="M816" t="inlineStr"/>
-    </row>
-    <row r="817">
-      <c r="A817" s="1" t="n">
-        <v>815</v>
-      </c>
-      <c r="B817" t="n">
-        <v>58.8</v>
-      </c>
-      <c r="C817" t="n">
-        <v>58.4</v>
-      </c>
-      <c r="D817" t="n">
-        <v>58.8</v>
-      </c>
-      <c r="E817" t="n">
-        <v>58.4</v>
-      </c>
-      <c r="F817" t="n">
-        <v>41282.9123</v>
-      </c>
-      <c r="G817" t="n">
-        <v>-2115067.004283853</v>
-      </c>
-      <c r="H817" t="n">
-        <v>1</v>
-      </c>
-      <c r="I817" t="n">
-        <v>58.8</v>
-      </c>
-      <c r="J817" t="n">
-        <v>60.2</v>
-      </c>
-      <c r="K817" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L817" t="n">
-        <v>1</v>
-      </c>
-      <c r="M817" t="inlineStr"/>
-    </row>
-    <row r="818">
-      <c r="A818" s="1" t="n">
-        <v>816</v>
-      </c>
-      <c r="B818" t="n">
-        <v>58.4</v>
-      </c>
-      <c r="C818" t="n">
-        <v>58.1</v>
-      </c>
-      <c r="D818" t="n">
-        <v>58.5</v>
-      </c>
-      <c r="E818" t="n">
-        <v>58.1</v>
-      </c>
-      <c r="F818" t="n">
-        <v>170532.3296</v>
-      </c>
-      <c r="G818" t="n">
-        <v>-2285599.333883853</v>
-      </c>
-      <c r="H818" t="n">
-        <v>1</v>
-      </c>
-      <c r="I818" t="n">
-        <v>58.4</v>
-      </c>
-      <c r="J818" t="n">
-        <v>60.2</v>
-      </c>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27464,14 +27418,10 @@
         <v>-2359727.102483853</v>
       </c>
       <c r="H819" t="n">
-        <v>1</v>
-      </c>
-      <c r="I819" t="n">
-        <v>58.1</v>
-      </c>
-      <c r="J819" t="n">
-        <v>60.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I819" t="inlineStr"/>
+      <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27510,9 +27460,7 @@
       <c r="I820" t="n">
         <v>58</v>
       </c>
-      <c r="J820" t="n">
-        <v>60.2</v>
-      </c>
+      <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27551,9 +27499,7 @@
       <c r="I821" t="n">
         <v>57.4</v>
       </c>
-      <c r="J821" t="n">
-        <v>60.2</v>
-      </c>
+      <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27592,9 +27538,7 @@
       <c r="I822" t="n">
         <v>57.7</v>
       </c>
-      <c r="J822" t="n">
-        <v>60.2</v>
-      </c>
+      <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27633,9 +27577,7 @@
       <c r="I823" t="n">
         <v>57.8</v>
       </c>
-      <c r="J823" t="n">
-        <v>60.2</v>
-      </c>
+      <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27674,9 +27616,7 @@
       <c r="I824" t="n">
         <v>57.8</v>
       </c>
-      <c r="J824" t="n">
-        <v>60.2</v>
-      </c>
+      <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27715,9 +27655,7 @@
       <c r="I825" t="n">
         <v>58</v>
       </c>
-      <c r="J825" t="n">
-        <v>60.2</v>
-      </c>
+      <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27756,9 +27694,7 @@
       <c r="I826" t="n">
         <v>58</v>
       </c>
-      <c r="J826" t="n">
-        <v>60.2</v>
-      </c>
+      <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27797,9 +27733,7 @@
       <c r="I827" t="n">
         <v>58.1</v>
       </c>
-      <c r="J827" t="n">
-        <v>60.2</v>
-      </c>
+      <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27838,9 +27772,7 @@
       <c r="I828" t="n">
         <v>57.9</v>
       </c>
-      <c r="J828" t="n">
-        <v>60.2</v>
-      </c>
+      <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27879,9 +27811,7 @@
       <c r="I829" t="n">
         <v>57.8</v>
       </c>
-      <c r="J829" t="n">
-        <v>60.2</v>
-      </c>
+      <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27920,9 +27850,7 @@
       <c r="I830" t="n">
         <v>57.7</v>
       </c>
-      <c r="J830" t="n">
-        <v>60.2</v>
-      </c>
+      <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27961,9 +27889,7 @@
       <c r="I831" t="n">
         <v>57.6</v>
       </c>
-      <c r="J831" t="n">
-        <v>60.2</v>
-      </c>
+      <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28002,9 +27928,7 @@
       <c r="I832" t="n">
         <v>57.4</v>
       </c>
-      <c r="J832" t="n">
-        <v>60.2</v>
-      </c>
+      <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28043,9 +27967,7 @@
       <c r="I833" t="n">
         <v>57</v>
       </c>
-      <c r="J833" t="n">
-        <v>60.2</v>
-      </c>
+      <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28084,9 +28006,7 @@
       <c r="I834" t="n">
         <v>57.5</v>
       </c>
-      <c r="J834" t="n">
-        <v>60.2</v>
-      </c>
+      <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28125,9 +28045,7 @@
       <c r="I835" t="n">
         <v>57.9</v>
       </c>
-      <c r="J835" t="n">
-        <v>60.2</v>
-      </c>
+      <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28166,9 +28084,7 @@
       <c r="I836" t="n">
         <v>58.5</v>
       </c>
-      <c r="J836" t="n">
-        <v>60.2</v>
-      </c>
+      <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28207,9 +28123,7 @@
       <c r="I837" t="n">
         <v>57.9</v>
       </c>
-      <c r="J837" t="n">
-        <v>60.2</v>
-      </c>
+      <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28248,9 +28162,7 @@
       <c r="I838" t="n">
         <v>58.3</v>
       </c>
-      <c r="J838" t="n">
-        <v>60.2</v>
-      </c>
+      <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28284,14 +28196,10 @@
         <v>-2341209.128283853</v>
       </c>
       <c r="H839" t="n">
-        <v>1</v>
-      </c>
-      <c r="I839" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="J839" t="n">
-        <v>60.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I839" t="inlineStr"/>
+      <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28325,14 +28233,10 @@
         <v>-2341209.128283853</v>
       </c>
       <c r="H840" t="n">
-        <v>1</v>
-      </c>
-      <c r="I840" t="n">
-        <v>58.6</v>
-      </c>
-      <c r="J840" t="n">
-        <v>60.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I840" t="inlineStr"/>
+      <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28366,14 +28270,10 @@
         <v>-2367254.553183853</v>
       </c>
       <c r="H841" t="n">
-        <v>1</v>
-      </c>
-      <c r="I841" t="n">
-        <v>58.6</v>
-      </c>
-      <c r="J841" t="n">
-        <v>60.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I841" t="inlineStr"/>
+      <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28407,14 +28307,10 @@
         <v>-2421708.155583853</v>
       </c>
       <c r="H842" t="n">
-        <v>1</v>
-      </c>
-      <c r="I842" t="n">
-        <v>58.5</v>
-      </c>
-      <c r="J842" t="n">
-        <v>60.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I842" t="inlineStr"/>
+      <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28451,9 +28347,7 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="n">
-        <v>60.2</v>
-      </c>
+      <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28487,14 +28381,10 @@
         <v>-2408076.931483853</v>
       </c>
       <c r="H844" t="n">
-        <v>1</v>
-      </c>
-      <c r="I844" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="J844" t="n">
-        <v>60.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I844" t="inlineStr"/>
+      <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28528,14 +28418,10 @@
         <v>-2408063.993083853</v>
       </c>
       <c r="H845" t="n">
-        <v>1</v>
-      </c>
-      <c r="I845" t="n">
-        <v>58.5</v>
-      </c>
-      <c r="J845" t="n">
-        <v>60.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I845" t="inlineStr"/>
+      <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28569,14 +28455,10 @@
         <v>-2428698.559283854</v>
       </c>
       <c r="H846" t="n">
-        <v>1</v>
-      </c>
-      <c r="I846" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="J846" t="n">
-        <v>60.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I846" t="inlineStr"/>
+      <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28610,14 +28492,10 @@
         <v>-2417627.531283854</v>
       </c>
       <c r="H847" t="n">
-        <v>1</v>
-      </c>
-      <c r="I847" t="n">
-        <v>58.5</v>
-      </c>
-      <c r="J847" t="n">
-        <v>60.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I847" t="inlineStr"/>
+      <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28651,14 +28529,10 @@
         <v>-2417627.531283854</v>
       </c>
       <c r="H848" t="n">
-        <v>1</v>
-      </c>
-      <c r="I848" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="J848" t="n">
-        <v>60.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I848" t="inlineStr"/>
+      <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28692,14 +28566,10 @@
         <v>-2417627.531283854</v>
       </c>
       <c r="H849" t="n">
-        <v>1</v>
-      </c>
-      <c r="I849" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="J849" t="n">
-        <v>60.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I849" t="inlineStr"/>
+      <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28733,14 +28603,10 @@
         <v>-2417627.531283854</v>
       </c>
       <c r="H850" t="n">
-        <v>1</v>
-      </c>
-      <c r="I850" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="J850" t="n">
-        <v>60.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I850" t="inlineStr"/>
+      <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28774,14 +28640,10 @@
         <v>-2401693.234583854</v>
       </c>
       <c r="H851" t="n">
-        <v>1</v>
-      </c>
-      <c r="I851" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="J851" t="n">
-        <v>60.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I851" t="inlineStr"/>
+      <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28818,9 +28680,7 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="n">
-        <v>60.2</v>
-      </c>
+      <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28857,9 +28717,7 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="n">
-        <v>60.2</v>
-      </c>
+      <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28896,9 +28754,7 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="n">
-        <v>60.2</v>
-      </c>
+      <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28935,9 +28791,7 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="n">
-        <v>60.2</v>
-      </c>
+      <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28971,14 +28825,10 @@
         <v>-2404340.140183853</v>
       </c>
       <c r="H856" t="n">
-        <v>1</v>
-      </c>
-      <c r="I856" t="n">
-        <v>59.1</v>
-      </c>
-      <c r="J856" t="n">
-        <v>60.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I856" t="inlineStr"/>
+      <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29015,9 +28865,7 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="n">
-        <v>60.2</v>
-      </c>
+      <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29051,14 +28899,10 @@
         <v>-2352351.212883853</v>
       </c>
       <c r="H858" t="n">
-        <v>1</v>
-      </c>
-      <c r="I858" t="n">
-        <v>59</v>
-      </c>
-      <c r="J858" t="n">
-        <v>60.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I858" t="inlineStr"/>
+      <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29095,9 +28939,7 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="n">
-        <v>60.2</v>
-      </c>
+      <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29134,9 +28976,7 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="n">
-        <v>60.2</v>
-      </c>
+      <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29173,9 +29013,7 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="n">
-        <v>60.2</v>
-      </c>
+      <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29212,9 +29050,7 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="n">
-        <v>60.2</v>
-      </c>
+      <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29251,9 +29087,7 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="n">
-        <v>60.2</v>
-      </c>
+      <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29290,9 +29124,7 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="n">
-        <v>60.2</v>
-      </c>
+      <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29329,9 +29161,7 @@
         <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="n">
-        <v>60.2</v>
-      </c>
+      <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29368,9 +29198,7 @@
         <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="n">
-        <v>60.2</v>
-      </c>
+      <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29407,9 +29235,7 @@
         <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="n">
-        <v>60.2</v>
-      </c>
+      <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29446,9 +29272,7 @@
         <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="n">
-        <v>60.2</v>
-      </c>
+      <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29485,9 +29309,7 @@
         <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
-      <c r="J869" t="n">
-        <v>60.2</v>
-      </c>
+      <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29524,9 +29346,7 @@
         <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="n">
-        <v>60.2</v>
-      </c>
+      <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29538,6 +29358,6 @@
       <c r="M870" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-05 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-05 BackTest LAMB.xlsx
@@ -451,7 +451,7 @@
         <v>213283.1073660339</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>213283.1073660339</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>213283.1073660339</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>191438.9222660339</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>191448.9222660339</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>430234.6496121998</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>430234.6496121998</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>429742.6590121998</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>429752.6590121998</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>555177.4848121998</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>547921.3703121998</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>529241.1510121998</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>526444.0931121998</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>526454.0931121998</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>526464.0931121998</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>522233.0931121998</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>522123.3431121998</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>511923.6021121998</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>513923.6021121998</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>513933.6021121998</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>506360.3046121998</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>529142.1833121998</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>529142.1833121998</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>529142.1833121998</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>529153.1178121998</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>528794.6237121997</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>528794.6237121997</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>551876.2157121997</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>551876.2157121997</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>543438.8501121997</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>541563.6046121997</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>541063.6046121997</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>546828.5401121997</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>545880.7162121998</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>545880.7162121998</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>545880.7162121998</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>563932.7162121998</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>563932.7162121998</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>617667.8105121998</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>647163.6174121997</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>647163.6174121997</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>783762.5683121998</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>794236.1765121998</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>788637.6488121998</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>793867.9882121999</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>793867.9882121999</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>793707.3796121998</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>793707.3796121998</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>861006.1997121999</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>861006.1997121999</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>888083.7039121998</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>1016332.3063122</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>999702.8990121998</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>962335.9556121998</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>962335.9556121998</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>987911.8149391111</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>987911.8149391111</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>1153502.712239111</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>1190102.458939111</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>1170538.173039111</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>1294903.030339111</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>1268892.030339111</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>1304004.395939111</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>1324504.395939111</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>1315160.425539111</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>1411746.356039111</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>1402861.456339111</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>1349668.360539111</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>1349668.360539111</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>1342528.497339111</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>1310670.380539111</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>1310670.380539111</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>1310670.380539111</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>1250206.746239111</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>1298620.043339111</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>1278522.021239111</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>1288561.110739111</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>1278506.489439111</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>1261861.797539111</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>1264892.308139111</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>1264914.131839111</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>1259116.217039111</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>1258491.569439111</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>1258507.569439111</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>1256759.631139111</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>1256769.631139111</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>1256769.631139111</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>1246524.569639111</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>1246524.569639111</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>1246770.798639111</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>1246770.798639111</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>1215727.349339111</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>1177840.597714643</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>1177840.597714643</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>1177840.597714643</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>1366037.219714643</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>1358339.467514643</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>1265218.636014643</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>1265228.636014643</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>1265228.636014643</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>1265228.636014643</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>1220119.288714643</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>1220140.288714643</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>1221272.018514643</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>1126810.138114644</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>1125267.489514644</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>1125277.489514644</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>1121643.379214644</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>1122787.009214643</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>1121809.062214643</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>1109198.374714643</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>1032241.444214643</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>1032241.444214643</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>1032241.444214643</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>1032241.444214643</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>1023446.958814643</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>1030333.203214643</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>970631.4690146435</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>960072.0409466495</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>914052.0388466495</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>945691.8044786556</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>945691.8044786556</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>945520.8766786556</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>945920.8766786556</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>948336.3771786556</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>948336.3771786556</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>947957.3879786556</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>1002829.085178656</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>1002482.217478656</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>951495.3926786557</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>944742.8547786557</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>944743.8547786557</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>944713.7547786557</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>944713.7547786557</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>943304.0516786557</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>943475.5969786557</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>953851.0409786557</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>951851.0409786557</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>991151.0409786557</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>990843.3592786557</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>1017334.720378656</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>1017049.367678656</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>1017383.164078656</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>1019504.367678656</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>1050380.349078656</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>1050380.349078656</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>1050380.349078656</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>1050242.271478656</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>1060767.305478656</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>1064814.707178656</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>1144614.707178656</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>1145599.195978656</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>1241937.697278656</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>1461194.175978656</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>1591436.011178656</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>1843534.737282073</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>3669803.406033818</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>4058317.733590961</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>3963596.51129096</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>3861646.60899096</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>3861646.60899096</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>3706693.23009096</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>3486617.02829096</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>3750049.55079096</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>3646762.58299096</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>3522508.12539096</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>3647600.72789096</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>3636315.370890961</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>3636315.370890961</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>3636315.370890961</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>3632712.451190961</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>3632712.451190961</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>3633118.451190961</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>3595615.413790961</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>3613231.037390961</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>3611621.601590961</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>3611621.601590961</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>3611621.601590961</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>3561621.601590961</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>3567073.987090961</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>204791.3180161465</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>138359.5620161465</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>193963.3607161465</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>253380.3732161465</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>150334.7881161465</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>150334.7881161465</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>157910.6156161465</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>157920.6256161465</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>130976.9550161465</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>143363.6018161465</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>86039.57201614653</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>86804.23441614653</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>86804.23441614653</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>86804.23441614653</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>86804.23441614653</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>86804.23441614653</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>85640.97971614652</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>85674.97971614652</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>29022.60361614652</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>29032.60361614652</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-199135.3623838535</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-198939.5380838535</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-204723.4644838535</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-202045.7891838535</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-202045.7891838535</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-241388.0583838535</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-290795.5212838534</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-245341.6280838535</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-245341.6280838535</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>-441445.2986838535</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>-339437.7906838534</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-428592.7232838534</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>-428592.7232838534</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>-428592.7232838534</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-428592.7232838534</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>-428592.7232838534</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>-428592.7232838534</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-428592.7232838534</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-412011.8755838535</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-412011.8755838535</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-412011.8755838535</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-355462.6805838534</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-326956.6805838534</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-329491.2835838535</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-335953.5555838534</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-296481.2127838535</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-296481.2127838535</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>-206997.6487838535</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>-206997.6487838535</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>-202744.5273838534</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-202744.5273838534</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-202744.5273838534</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-207915.0723838535</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-216915.0723838535</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-76060.13908385346</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-76627.95508385346</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>-76627.95508385346</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>-76627.95508385346</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21901,7 +21901,7 @@
         <v>-52592.41758385346</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>-52792.41758385346</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>-36961.05828385346</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>-30701.66678385346</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>-56589.35608385346</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>-56589.35608385346</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>-445951.9956838535</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>-425924.9597838534</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22264,7 +22264,7 @@
         <v>-440282.8267838535</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22297,7 +22297,7 @@
         <v>-381469.3810838535</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22330,7 +22330,7 @@
         <v>-381469.3810838535</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -22363,7 +22363,7 @@
         <v>-371391.2461838535</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22396,7 +22396,7 @@
         <v>-371391.2461838535</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22429,7 +22429,7 @@
         <v>-343591.2461838535</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>-348366.4392838535</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22495,7 +22495,7 @@
         <v>-314312.3244838535</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22528,7 +22528,7 @@
         <v>-365232.1085838535</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -22561,7 +22561,7 @@
         <v>-365232.1085838535</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -22594,7 +22594,7 @@
         <v>-365232.1085838535</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -22627,7 +22627,7 @@
         <v>-368719.2701838535</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22660,7 +22660,7 @@
         <v>-362596.1997838534</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -22693,7 +22693,7 @@
         <v>-368849.9427838534</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -22726,7 +22726,7 @@
         <v>-360956.0752838535</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -22759,7 +22759,7 @@
         <v>-382495.8992838535</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -22792,7 +22792,7 @@
         <v>-368433.2092838535</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -22825,7 +22825,7 @@
         <v>-368433.2092838535</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -22858,7 +22858,7 @@
         <v>-390820.4195838535</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -22891,7 +22891,7 @@
         <v>-387365.3452838535</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -22924,7 +22924,7 @@
         <v>-388241.7089838535</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -22957,7 +22957,7 @@
         <v>-388241.7089838535</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -22990,7 +22990,7 @@
         <v>-388241.7089838535</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23023,7 +23023,7 @@
         <v>-420789.3280838535</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23056,7 +23056,7 @@
         <v>-294918.6998838534</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23089,7 +23089,7 @@
         <v>-246108.1173838534</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23122,7 +23122,7 @@
         <v>-260108.1173838534</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23155,7 +23155,7 @@
         <v>-260108.1173838534</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
         <v>-220108.1173838534</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23221,7 +23221,7 @@
         <v>-223828.6974838534</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23254,7 +23254,7 @@
         <v>-223828.6974838534</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
         <v>-178515.0114838535</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23320,7 +23320,7 @@
         <v>-185560.7002838535</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23353,7 +23353,7 @@
         <v>-219676.7217838535</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23386,7 +23386,7 @@
         <v>-215594.6147838535</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23419,7 +23419,7 @@
         <v>-215594.6147838535</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23452,7 +23452,7 @@
         <v>-222229.1687838535</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -23485,7 +23485,7 @@
         <v>-225879.2687838535</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23518,7 +23518,7 @@
         <v>-225879.2687838535</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23551,7 +23551,7 @@
         <v>-225879.2687838535</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23584,7 +23584,7 @@
         <v>-225879.2687838535</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
         <v>-239374.8746838535</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23650,7 +23650,7 @@
         <v>-226164.3575838535</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23683,7 +23683,7 @@
         <v>-213950.8414838535</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -23716,7 +23716,7 @@
         <v>-205950.8414838535</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -23749,7 +23749,7 @@
         <v>-205950.8414838535</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -23782,7 +23782,7 @@
         <v>-205152.3820838535</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -23815,7 +23815,7 @@
         <v>-214523.5584838535</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -23848,7 +23848,7 @@
         <v>-214523.5584838535</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -23881,7 +23881,7 @@
         <v>-214523.5584838535</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -23914,7 +23914,7 @@
         <v>-214523.5584838535</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -23947,7 +23947,7 @@
         <v>-214523.5584838535</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -23980,7 +23980,7 @@
         <v>-187804.1720838535</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24013,7 +24013,7 @@
         <v>-187804.1720838535</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24046,7 +24046,7 @@
         <v>-215203.4960838535</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24079,7 +24079,7 @@
         <v>-246108.3540838535</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24112,7 +24112,7 @@
         <v>-246108.3540838535</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
         <v>-241872.9593838535</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24178,7 +24178,7 @@
         <v>-241872.9593838535</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24211,7 +24211,7 @@
         <v>-241872.9593838535</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24244,7 +24244,7 @@
         <v>-241872.9593838535</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24277,7 +24277,7 @@
         <v>-239857.2213838535</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24310,7 +24310,7 @@
         <v>-239857.2213838535</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24343,7 +24343,7 @@
         <v>-239857.2213838535</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -24376,7 +24376,7 @@
         <v>-257379.9573838535</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -24508,7 +24508,7 @@
         <v>-163989.2335838535</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -24541,7 +24541,7 @@
         <v>-163989.2335838535</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -24574,7 +24574,7 @@
         <v>-171717.2995838535</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -24607,7 +24607,7 @@
         <v>-171217.2995838535</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -24640,7 +24640,7 @@
         <v>-171217.2995838535</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -24673,7 +24673,7 @@
         <v>-171217.2995838535</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -24706,7 +24706,7 @@
         <v>-171217.2995838535</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -24739,7 +24739,7 @@
         <v>-171217.2995838535</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -24772,7 +24772,7 @@
         <v>-171217.2995838535</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -24805,7 +24805,7 @@
         <v>-173637.5386838535</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -24838,7 +24838,7 @@
         <v>-186637.5386838535</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -24871,7 +24871,7 @@
         <v>-276651.9843838535</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -24904,7 +24904,7 @@
         <v>-495680.4290838535</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -24937,7 +24937,7 @@
         <v>-665398.0405838535</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -24970,7 +24970,7 @@
         <v>-673567.3206838535</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25003,7 +25003,7 @@
         <v>-676732.3687838535</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25036,7 +25036,7 @@
         <v>-676425.0527838535</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25069,7 +25069,7 @@
         <v>-676425.0527838535</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25135,7 +25135,7 @@
         <v>-659511.1007838534</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25168,7 +25168,7 @@
         <v>-669711.1007838534</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25201,7 +25201,7 @@
         <v>-690291.5430838534</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25630,7 +25630,7 @@
         <v>-1089247.408483853</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -27379,522 +27379,446 @@
         <v>-2285599.333883853</v>
       </c>
       <c r="H818" t="n">
-        <v>1</v>
-      </c>
-      <c r="I818" t="n">
-        <v>58.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr">
+      <c r="K818" t="inlineStr"/>
+      <c r="L818" t="n">
+        <v>1</v>
+      </c>
+      <c r="M818" t="inlineStr"/>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="n">
+        <v>817</v>
+      </c>
+      <c r="B819" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="C819" t="n">
+        <v>58</v>
+      </c>
+      <c r="D819" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="E819" t="n">
+        <v>58</v>
+      </c>
+      <c r="F819" t="n">
+        <v>74127.7686</v>
+      </c>
+      <c r="G819" t="n">
+        <v>-2359727.102483853</v>
+      </c>
+      <c r="H819" t="n">
+        <v>0</v>
+      </c>
+      <c r="I819" t="inlineStr"/>
+      <c r="J819" t="inlineStr"/>
+      <c r="K819" t="inlineStr"/>
+      <c r="L819" t="n">
+        <v>1</v>
+      </c>
+      <c r="M819" t="inlineStr"/>
+    </row>
+    <row r="820">
+      <c r="A820" s="1" t="n">
+        <v>818</v>
+      </c>
+      <c r="B820" t="n">
+        <v>58</v>
+      </c>
+      <c r="C820" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="D820" t="n">
+        <v>58</v>
+      </c>
+      <c r="E820" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="F820" t="n">
+        <v>149536.8251</v>
+      </c>
+      <c r="G820" t="n">
+        <v>-2509263.927583853</v>
+      </c>
+      <c r="H820" t="n">
+        <v>0</v>
+      </c>
+      <c r="I820" t="inlineStr"/>
+      <c r="J820" t="inlineStr"/>
+      <c r="K820" t="inlineStr"/>
+      <c r="L820" t="n">
+        <v>1</v>
+      </c>
+      <c r="M820" t="inlineStr"/>
+    </row>
+    <row r="821">
+      <c r="A821" s="1" t="n">
+        <v>819</v>
+      </c>
+      <c r="B821" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="C821" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="D821" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="E821" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="F821" t="n">
+        <v>35901.1918</v>
+      </c>
+      <c r="G821" t="n">
+        <v>-2473362.735783853</v>
+      </c>
+      <c r="H821" t="n">
+        <v>0</v>
+      </c>
+      <c r="I821" t="inlineStr"/>
+      <c r="J821" t="inlineStr"/>
+      <c r="K821" t="inlineStr"/>
+      <c r="L821" t="n">
+        <v>1</v>
+      </c>
+      <c r="M821" t="inlineStr"/>
+    </row>
+    <row r="822">
+      <c r="A822" s="1" t="n">
+        <v>820</v>
+      </c>
+      <c r="B822" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="C822" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="D822" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="E822" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="F822" t="n">
+        <v>2467.4562</v>
+      </c>
+      <c r="G822" t="n">
+        <v>-2470895.279583853</v>
+      </c>
+      <c r="H822" t="n">
+        <v>0</v>
+      </c>
+      <c r="I822" t="inlineStr"/>
+      <c r="J822" t="inlineStr"/>
+      <c r="K822" t="inlineStr"/>
+      <c r="L822" t="n">
+        <v>1</v>
+      </c>
+      <c r="M822" t="inlineStr"/>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="n">
+        <v>821</v>
+      </c>
+      <c r="B823" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="C823" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="D823" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="E823" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="F823" t="n">
+        <v>22962.50203058419</v>
+      </c>
+      <c r="G823" t="n">
+        <v>-2470895.279583853</v>
+      </c>
+      <c r="H823" t="n">
+        <v>0</v>
+      </c>
+      <c r="I823" t="inlineStr"/>
+      <c r="J823" t="inlineStr"/>
+      <c r="K823" t="inlineStr"/>
+      <c r="L823" t="n">
+        <v>1</v>
+      </c>
+      <c r="M823" t="inlineStr"/>
+    </row>
+    <row r="824">
+      <c r="A824" s="1" t="n">
+        <v>822</v>
+      </c>
+      <c r="B824" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="C824" t="n">
+        <v>58</v>
+      </c>
+      <c r="D824" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="E824" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="F824" t="n">
+        <v>107837.1697</v>
+      </c>
+      <c r="G824" t="n">
+        <v>-2363058.109883853</v>
+      </c>
+      <c r="H824" t="n">
+        <v>0</v>
+      </c>
+      <c r="I824" t="inlineStr"/>
+      <c r="J824" t="inlineStr"/>
+      <c r="K824" t="inlineStr"/>
+      <c r="L824" t="n">
+        <v>1</v>
+      </c>
+      <c r="M824" t="inlineStr"/>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="n">
+        <v>823</v>
+      </c>
+      <c r="B825" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="C825" t="n">
+        <v>58</v>
+      </c>
+      <c r="D825" t="n">
+        <v>58</v>
+      </c>
+      <c r="E825" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="F825" t="n">
+        <v>15446.5695</v>
+      </c>
+      <c r="G825" t="n">
+        <v>-2363058.109883853</v>
+      </c>
+      <c r="H825" t="n">
+        <v>0</v>
+      </c>
+      <c r="I825" t="inlineStr"/>
+      <c r="J825" t="inlineStr"/>
+      <c r="K825" t="inlineStr"/>
+      <c r="L825" t="n">
+        <v>1</v>
+      </c>
+      <c r="M825" t="inlineStr"/>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="n">
+        <v>824</v>
+      </c>
+      <c r="B826" t="n">
+        <v>58</v>
+      </c>
+      <c r="C826" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="D826" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="E826" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="F826" t="n">
+        <v>122156.4607</v>
+      </c>
+      <c r="G826" t="n">
+        <v>-2240901.649183853</v>
+      </c>
+      <c r="H826" t="n">
+        <v>0</v>
+      </c>
+      <c r="I826" t="inlineStr"/>
+      <c r="J826" t="inlineStr"/>
+      <c r="K826" t="inlineStr"/>
+      <c r="L826" t="n">
+        <v>1</v>
+      </c>
+      <c r="M826" t="inlineStr"/>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n">
+        <v>825</v>
+      </c>
+      <c r="B827" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="C827" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="D827" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="E827" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="F827" t="n">
+        <v>36411.433</v>
+      </c>
+      <c r="G827" t="n">
+        <v>-2277313.082183853</v>
+      </c>
+      <c r="H827" t="n">
+        <v>0</v>
+      </c>
+      <c r="I827" t="inlineStr"/>
+      <c r="J827" t="inlineStr"/>
+      <c r="K827" t="inlineStr"/>
+      <c r="L827" t="n">
+        <v>1</v>
+      </c>
+      <c r="M827" t="inlineStr"/>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>826</v>
+      </c>
+      <c r="B828" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="C828" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="D828" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="E828" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="F828" t="n">
+        <v>34380.8302</v>
+      </c>
+      <c r="G828" t="n">
+        <v>-2311693.912383853</v>
+      </c>
+      <c r="H828" t="n">
+        <v>0</v>
+      </c>
+      <c r="I828" t="inlineStr"/>
+      <c r="J828" t="inlineStr"/>
+      <c r="K828" t="inlineStr"/>
+      <c r="L828" t="n">
+        <v>1</v>
+      </c>
+      <c r="M828" t="inlineStr"/>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="n">
+        <v>827</v>
+      </c>
+      <c r="B829" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="C829" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="D829" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="E829" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="F829" t="n">
+        <v>20763.0926</v>
+      </c>
+      <c r="G829" t="n">
+        <v>-2332457.004983853</v>
+      </c>
+      <c r="H829" t="n">
+        <v>0</v>
+      </c>
+      <c r="I829" t="inlineStr"/>
+      <c r="J829" t="inlineStr"/>
+      <c r="K829" t="inlineStr"/>
+      <c r="L829" t="n">
+        <v>1</v>
+      </c>
+      <c r="M829" t="inlineStr"/>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>828</v>
+      </c>
+      <c r="B830" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="C830" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="D830" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="E830" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="F830" t="n">
+        <v>41146.0144</v>
+      </c>
+      <c r="G830" t="n">
+        <v>-2373603.019383853</v>
+      </c>
+      <c r="H830" t="n">
+        <v>0</v>
+      </c>
+      <c r="I830" t="inlineStr"/>
+      <c r="J830" t="inlineStr"/>
+      <c r="K830" t="inlineStr"/>
+      <c r="L830" t="n">
+        <v>1</v>
+      </c>
+      <c r="M830" t="inlineStr"/>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>829</v>
+      </c>
+      <c r="B831" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="C831" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="D831" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="E831" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="F831" t="n">
+        <v>119048.1077</v>
+      </c>
+      <c r="G831" t="n">
+        <v>-2492651.127083853</v>
+      </c>
+      <c r="H831" t="n">
+        <v>1</v>
+      </c>
+      <c r="I831" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="J831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L818" t="n">
-        <v>1</v>
-      </c>
-      <c r="M818" t="inlineStr"/>
-    </row>
-    <row r="819">
-      <c r="A819" s="1" t="n">
-        <v>817</v>
-      </c>
-      <c r="B819" t="n">
-        <v>58.2</v>
-      </c>
-      <c r="C819" t="n">
-        <v>58</v>
-      </c>
-      <c r="D819" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="E819" t="n">
-        <v>58</v>
-      </c>
-      <c r="F819" t="n">
-        <v>74127.7686</v>
-      </c>
-      <c r="G819" t="n">
-        <v>-2359727.102483853</v>
-      </c>
-      <c r="H819" t="n">
-        <v>0</v>
-      </c>
-      <c r="I819" t="inlineStr"/>
-      <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L819" t="n">
-        <v>1</v>
-      </c>
-      <c r="M819" t="inlineStr"/>
-    </row>
-    <row r="820">
-      <c r="A820" s="1" t="n">
-        <v>818</v>
-      </c>
-      <c r="B820" t="n">
-        <v>58</v>
-      </c>
-      <c r="C820" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="D820" t="n">
-        <v>58</v>
-      </c>
-      <c r="E820" t="n">
-        <v>57.2</v>
-      </c>
-      <c r="F820" t="n">
-        <v>149536.8251</v>
-      </c>
-      <c r="G820" t="n">
-        <v>-2509263.927583853</v>
-      </c>
-      <c r="H820" t="n">
-        <v>1</v>
-      </c>
-      <c r="I820" t="n">
-        <v>58</v>
-      </c>
-      <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L820" t="n">
-        <v>1</v>
-      </c>
-      <c r="M820" t="inlineStr"/>
-    </row>
-    <row r="821">
-      <c r="A821" s="1" t="n">
-        <v>819</v>
-      </c>
-      <c r="B821" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="C821" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="D821" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="E821" t="n">
-        <v>57.2</v>
-      </c>
-      <c r="F821" t="n">
-        <v>35901.1918</v>
-      </c>
-      <c r="G821" t="n">
-        <v>-2473362.735783853</v>
-      </c>
-      <c r="H821" t="n">
-        <v>1</v>
-      </c>
-      <c r="I821" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L821" t="n">
-        <v>1</v>
-      </c>
-      <c r="M821" t="inlineStr"/>
-    </row>
-    <row r="822">
-      <c r="A822" s="1" t="n">
-        <v>820</v>
-      </c>
-      <c r="B822" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="C822" t="n">
-        <v>57.8</v>
-      </c>
-      <c r="D822" t="n">
-        <v>57.8</v>
-      </c>
-      <c r="E822" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="F822" t="n">
-        <v>2467.4562</v>
-      </c>
-      <c r="G822" t="n">
-        <v>-2470895.279583853</v>
-      </c>
-      <c r="H822" t="n">
-        <v>1</v>
-      </c>
-      <c r="I822" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L822" t="n">
-        <v>1</v>
-      </c>
-      <c r="M822" t="inlineStr"/>
-    </row>
-    <row r="823">
-      <c r="A823" s="1" t="n">
-        <v>821</v>
-      </c>
-      <c r="B823" t="n">
-        <v>58.2</v>
-      </c>
-      <c r="C823" t="n">
-        <v>57.8</v>
-      </c>
-      <c r="D823" t="n">
-        <v>58.2</v>
-      </c>
-      <c r="E823" t="n">
-        <v>57.8</v>
-      </c>
-      <c r="F823" t="n">
-        <v>22962.50203058419</v>
-      </c>
-      <c r="G823" t="n">
-        <v>-2470895.279583853</v>
-      </c>
-      <c r="H823" t="n">
-        <v>1</v>
-      </c>
-      <c r="I823" t="n">
-        <v>57.8</v>
-      </c>
-      <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L823" t="n">
-        <v>1</v>
-      </c>
-      <c r="M823" t="inlineStr"/>
-    </row>
-    <row r="824">
-      <c r="A824" s="1" t="n">
-        <v>822</v>
-      </c>
-      <c r="B824" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="C824" t="n">
-        <v>58</v>
-      </c>
-      <c r="D824" t="n">
-        <v>58.2</v>
-      </c>
-      <c r="E824" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="F824" t="n">
-        <v>107837.1697</v>
-      </c>
-      <c r="G824" t="n">
-        <v>-2363058.109883853</v>
-      </c>
-      <c r="H824" t="n">
-        <v>1</v>
-      </c>
-      <c r="I824" t="n">
-        <v>57.8</v>
-      </c>
-      <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L824" t="n">
-        <v>1</v>
-      </c>
-      <c r="M824" t="inlineStr"/>
-    </row>
-    <row r="825">
-      <c r="A825" s="1" t="n">
-        <v>823</v>
-      </c>
-      <c r="B825" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="C825" t="n">
-        <v>58</v>
-      </c>
-      <c r="D825" t="n">
-        <v>58</v>
-      </c>
-      <c r="E825" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="F825" t="n">
-        <v>15446.5695</v>
-      </c>
-      <c r="G825" t="n">
-        <v>-2363058.109883853</v>
-      </c>
-      <c r="H825" t="n">
-        <v>1</v>
-      </c>
-      <c r="I825" t="n">
-        <v>58</v>
-      </c>
-      <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L825" t="n">
-        <v>1</v>
-      </c>
-      <c r="M825" t="inlineStr"/>
-    </row>
-    <row r="826">
-      <c r="A826" s="1" t="n">
-        <v>824</v>
-      </c>
-      <c r="B826" t="n">
-        <v>58</v>
-      </c>
-      <c r="C826" t="n">
-        <v>58.1</v>
-      </c>
-      <c r="D826" t="n">
-        <v>58.1</v>
-      </c>
-      <c r="E826" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="F826" t="n">
-        <v>122156.4607</v>
-      </c>
-      <c r="G826" t="n">
-        <v>-2240901.649183853</v>
-      </c>
-      <c r="H826" t="n">
-        <v>1</v>
-      </c>
-      <c r="I826" t="n">
-        <v>58</v>
-      </c>
-      <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L826" t="n">
-        <v>1</v>
-      </c>
-      <c r="M826" t="inlineStr"/>
-    </row>
-    <row r="827">
-      <c r="A827" s="1" t="n">
-        <v>825</v>
-      </c>
-      <c r="B827" t="n">
-        <v>58.1</v>
-      </c>
-      <c r="C827" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="D827" t="n">
-        <v>58.1</v>
-      </c>
-      <c r="E827" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="F827" t="n">
-        <v>36411.433</v>
-      </c>
-      <c r="G827" t="n">
-        <v>-2277313.082183853</v>
-      </c>
-      <c r="H827" t="n">
-        <v>1</v>
-      </c>
-      <c r="I827" t="n">
-        <v>58.1</v>
-      </c>
-      <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L827" t="n">
-        <v>1</v>
-      </c>
-      <c r="M827" t="inlineStr"/>
-    </row>
-    <row r="828">
-      <c r="A828" s="1" t="n">
-        <v>826</v>
-      </c>
-      <c r="B828" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="C828" t="n">
-        <v>57.8</v>
-      </c>
-      <c r="D828" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="E828" t="n">
-        <v>57.8</v>
-      </c>
-      <c r="F828" t="n">
-        <v>34380.8302</v>
-      </c>
-      <c r="G828" t="n">
-        <v>-2311693.912383853</v>
-      </c>
-      <c r="H828" t="n">
-        <v>1</v>
-      </c>
-      <c r="I828" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L828" t="n">
-        <v>1</v>
-      </c>
-      <c r="M828" t="inlineStr"/>
-    </row>
-    <row r="829">
-      <c r="A829" s="1" t="n">
-        <v>827</v>
-      </c>
-      <c r="B829" t="n">
-        <v>58.2</v>
-      </c>
-      <c r="C829" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="D829" t="n">
-        <v>58.2</v>
-      </c>
-      <c r="E829" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="F829" t="n">
-        <v>20763.0926</v>
-      </c>
-      <c r="G829" t="n">
-        <v>-2332457.004983853</v>
-      </c>
-      <c r="H829" t="n">
-        <v>1</v>
-      </c>
-      <c r="I829" t="n">
-        <v>57.8</v>
-      </c>
-      <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L829" t="n">
-        <v>1</v>
-      </c>
-      <c r="M829" t="inlineStr"/>
-    </row>
-    <row r="830">
-      <c r="A830" s="1" t="n">
-        <v>828</v>
-      </c>
-      <c r="B830" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="C830" t="n">
-        <v>57.6</v>
-      </c>
-      <c r="D830" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="E830" t="n">
-        <v>57.6</v>
-      </c>
-      <c r="F830" t="n">
-        <v>41146.0144</v>
-      </c>
-      <c r="G830" t="n">
-        <v>-2373603.019383853</v>
-      </c>
-      <c r="H830" t="n">
-        <v>1</v>
-      </c>
-      <c r="I830" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L830" t="n">
-        <v>1</v>
-      </c>
-      <c r="M830" t="inlineStr"/>
-    </row>
-    <row r="831">
-      <c r="A831" s="1" t="n">
-        <v>829</v>
-      </c>
-      <c r="B831" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="C831" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="D831" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="E831" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="F831" t="n">
-        <v>119048.1077</v>
-      </c>
-      <c r="G831" t="n">
-        <v>-2492651.127083853</v>
-      </c>
-      <c r="H831" t="n">
-        <v>1</v>
-      </c>
-      <c r="I831" t="n">
-        <v>57.6</v>
-      </c>
-      <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -27923,11 +27847,9 @@
         <v>-2496410.859283853</v>
       </c>
       <c r="H832" t="n">
-        <v>1</v>
-      </c>
-      <c r="I832" t="n">
-        <v>57.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
@@ -28196,9 +28118,11 @@
         <v>-2341209.128283853</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
-      </c>
-      <c r="I839" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I839" t="n">
+        <v>58.3</v>
+      </c>
       <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
@@ -28233,9 +28157,11 @@
         <v>-2341209.128283853</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I840" t="n">
+        <v>58.6</v>
+      </c>
       <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
@@ -28270,9 +28196,11 @@
         <v>-2367254.553183853</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>58.6</v>
+      </c>
       <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
@@ -28492,9 +28420,11 @@
         <v>-2417627.531283854</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>58.5</v>
+      </c>
       <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
@@ -28529,9 +28459,11 @@
         <v>-2417627.531283854</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I848" t="n">
+        <v>58.9</v>
+      </c>
       <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
@@ -28566,9 +28498,11 @@
         <v>-2417627.531283854</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I849" t="n">
+        <v>58.9</v>
+      </c>
       <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
@@ -28603,9 +28537,11 @@
         <v>-2417627.531283854</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
-      </c>
-      <c r="I850" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I850" t="n">
+        <v>58.9</v>
+      </c>
       <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
@@ -28640,9 +28576,11 @@
         <v>-2401693.234583854</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
-      </c>
-      <c r="I851" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I851" t="n">
+        <v>58.9</v>
+      </c>
       <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
@@ -28677,9 +28615,11 @@
         <v>-2401680.034583854</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
-      </c>
-      <c r="I852" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I852" t="n">
+        <v>59</v>
+      </c>
       <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
@@ -28714,9 +28654,11 @@
         <v>-2401867.022183854</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
-      </c>
-      <c r="I853" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I853" t="n">
+        <v>59.5</v>
+      </c>
       <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
@@ -28788,9 +28730,11 @@
         <v>-2404340.140183853</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I855" t="n">
+        <v>59.2</v>
+      </c>
       <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
@@ -28825,9 +28769,11 @@
         <v>-2404340.140183853</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
-      </c>
-      <c r="I856" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I856" t="n">
+        <v>59.1</v>
+      </c>
       <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
@@ -28862,9 +28808,11 @@
         <v>-2406792.625083853</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
-      </c>
-      <c r="I857" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I857" t="n">
+        <v>59.1</v>
+      </c>
       <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
@@ -28899,9 +28847,11 @@
         <v>-2352351.212883853</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
-      </c>
-      <c r="I858" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I858" t="n">
+        <v>59</v>
+      </c>
       <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
@@ -28936,9 +28886,11 @@
         <v>-2407904.501983854</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
-      </c>
-      <c r="I859" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I859" t="n">
+        <v>59.7</v>
+      </c>
       <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
@@ -28973,9 +28925,11 @@
         <v>-2407904.501983854</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
-      </c>
-      <c r="I860" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I860" t="n">
+        <v>59.1</v>
+      </c>
       <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
@@ -29010,9 +28964,11 @@
         <v>-2407904.501983854</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
-      </c>
-      <c r="I861" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I861" t="n">
+        <v>59.1</v>
+      </c>
       <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
@@ -29047,9 +29003,11 @@
         <v>-2407884.501983854</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
-      </c>
-      <c r="I862" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I862" t="n">
+        <v>59.1</v>
+      </c>
       <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
@@ -29084,9 +29042,11 @@
         <v>-2437084.501983854</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
-      </c>
-      <c r="I863" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I863" t="n">
+        <v>59.6</v>
+      </c>
       <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
@@ -29121,9 +29081,11 @@
         <v>-2436428.501983854</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
-      </c>
-      <c r="I864" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I864" t="n">
+        <v>58.9</v>
+      </c>
       <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr">
         <is>
@@ -29158,9 +29120,11 @@
         <v>-2457228.501983854</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
-      </c>
-      <c r="I865" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I865" t="n">
+        <v>59</v>
+      </c>
       <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
@@ -29195,9 +29159,11 @@
         <v>-2549233.501183853</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
-      </c>
-      <c r="I866" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I866" t="n">
+        <v>58.9</v>
+      </c>
       <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
@@ -29232,9 +29198,11 @@
         <v>-2549233.501183853</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I867" t="n">
+        <v>58.2</v>
+      </c>
       <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
@@ -29269,9 +29237,11 @@
         <v>-2544398.543383854</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I868" t="n">
+        <v>58.2</v>
+      </c>
       <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
@@ -29306,9 +29276,11 @@
         <v>-2544589.869083853</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I869" t="n">
+        <v>59.2</v>
+      </c>
       <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
@@ -29343,9 +29315,11 @@
         <v>-2544579.869083853</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
-      </c>
-      <c r="I870" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I870" t="n">
+        <v>58.3</v>
+      </c>
       <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
